--- a/Outputs/3. Prosumer percentage/Grid Search/Output Files/90/Output_12_20.xlsx
+++ b/Outputs/3. Prosumer percentage/Grid Search/Output Files/90/Output_12_20.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>163268.0671598161</v>
+        <v>155010.4327720589</v>
       </c>
     </row>
     <row r="7">
@@ -513,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>30037730.41470736</v>
+        <v>30037730.41470735</v>
       </c>
     </row>
     <row r="8">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>11082205.49167376</v>
+        <v>11082205.49167375</v>
       </c>
     </row>
     <row r="9">
@@ -543,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>4026765.206084994</v>
+        <v>4026765.206084995</v>
       </c>
     </row>
     <row r="11">
@@ -1369,25 +1369,25 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>415.6498806486147</v>
+        <v>0</v>
       </c>
       <c r="C11" t="n">
-        <v>422.6317226868329</v>
+        <v>410.5578644578923</v>
       </c>
       <c r="D11" t="n">
-        <v>419.0596946068497</v>
+        <v>0</v>
       </c>
       <c r="E11" t="n">
-        <v>421.717170453621</v>
+        <v>0</v>
       </c>
       <c r="F11" t="n">
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>0</v>
+        <v>398.5660300744983</v>
       </c>
       <c r="H11" t="n">
-        <v>80.6983480668907</v>
+        <v>277.176001558223</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -1420,16 +1420,16 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>0</v>
+        <v>63.90941067458683</v>
       </c>
       <c r="T11" t="n">
         <v>0</v>
       </c>
       <c r="U11" t="n">
-        <v>0</v>
+        <v>255.632988972596</v>
       </c>
       <c r="V11" t="n">
-        <v>0</v>
+        <v>353.914520725013</v>
       </c>
       <c r="W11" t="n">
         <v>0</v>
@@ -1499,7 +1499,7 @@
         <v>0</v>
       </c>
       <c r="S12" t="n">
-        <v>63.32136466518996</v>
+        <v>63.32136466518995</v>
       </c>
       <c r="T12" t="n">
         <v>136.7309641056443</v>
@@ -1527,7 +1527,7 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>7.266351211513412</v>
+        <v>0</v>
       </c>
       <c r="C13" t="n">
         <v>170.2528374898731</v>
@@ -1542,13 +1542,13 @@
         <v>170.1431564831852</v>
       </c>
       <c r="G13" t="n">
-        <v>163.8185422817731</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>135.4602252892499</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>75.43872475250879</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1575,25 +1575,25 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>11.68284247578064</v>
       </c>
       <c r="S13" t="n">
         <v>154.9126128011615</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>237.5909258267186</v>
       </c>
       <c r="U13" t="n">
-        <v>277.3402845023203</v>
+        <v>176.7025750750533</v>
       </c>
       <c r="V13" t="n">
-        <v>278.8943527180514</v>
+        <v>0</v>
       </c>
       <c r="W13" t="n">
-        <v>0</v>
+        <v>272.1038797892121</v>
       </c>
       <c r="X13" t="n">
-        <v>0</v>
+        <v>240.1382575886529</v>
       </c>
       <c r="Y13" t="n">
         <v>0</v>
@@ -1615,7 +1615,7 @@
         <v>0</v>
       </c>
       <c r="E14" t="n">
-        <v>0</v>
+        <v>269.3661180973403</v>
       </c>
       <c r="F14" t="n">
         <v>0</v>
@@ -1624,7 +1624,7 @@
         <v>0</v>
       </c>
       <c r="H14" t="n">
-        <v>277.176001558223</v>
+        <v>0</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -1657,10 +1657,10 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>0</v>
+        <v>63.90941067458683</v>
       </c>
       <c r="T14" t="n">
-        <v>64.955988355705</v>
+        <v>0</v>
       </c>
       <c r="U14" t="n">
         <v>255.632988972596</v>
@@ -1669,13 +1669,13 @@
         <v>353.914520725013</v>
       </c>
       <c r="W14" t="n">
-        <v>392.4274362026566</v>
+        <v>0</v>
       </c>
       <c r="X14" t="n">
         <v>0</v>
       </c>
       <c r="Y14" t="n">
-        <v>0</v>
+        <v>401.2838973446586</v>
       </c>
     </row>
     <row r="15">
@@ -1736,7 +1736,7 @@
         <v>0</v>
       </c>
       <c r="S15" t="n">
-        <v>63.32136466518996</v>
+        <v>63.32136466518995</v>
       </c>
       <c r="T15" t="n">
         <v>136.7309641056443</v>
@@ -1767,13 +1767,13 @@
         <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>170.2528374898731</v>
+        <v>74.69716260953685</v>
       </c>
       <c r="D16" t="n">
         <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>164.546123788675</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
         <v>0</v>
@@ -1812,13 +1812,13 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>11.68284247578065</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
         <v>154.9126128011615</v>
       </c>
       <c r="T16" t="n">
-        <v>189.8856253090814</v>
+        <v>237.5909258267186</v>
       </c>
       <c r="U16" t="n">
         <v>277.3402845023203</v>
@@ -1833,7 +1833,7 @@
         <v>240.1382575886529</v>
       </c>
       <c r="Y16" t="n">
-        <v>0</v>
+        <v>224.0793406271554</v>
       </c>
     </row>
     <row r="17">
@@ -1843,10 +1843,10 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>0</v>
+        <v>36.79224454205024</v>
       </c>
       <c r="C17" t="n">
-        <v>139.0342630668498</v>
+        <v>0</v>
       </c>
       <c r="D17" t="n">
         <v>0</v>
@@ -1858,7 +1858,7 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>0</v>
+        <v>398.5660300744983</v>
       </c>
       <c r="H17" t="n">
         <v>0</v>
@@ -1894,7 +1894,7 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>0</v>
+        <v>63.90941067458683</v>
       </c>
       <c r="T17" t="n">
         <v>211.1448086517629</v>
@@ -1903,16 +1903,16 @@
         <v>255.632988972596</v>
       </c>
       <c r="V17" t="n">
-        <v>353.914520725013</v>
+        <v>0</v>
       </c>
       <c r="W17" t="n">
         <v>392.4274362026566</v>
       </c>
       <c r="X17" t="n">
-        <v>407.6027988439302</v>
+        <v>0</v>
       </c>
       <c r="Y17" t="n">
-        <v>0</v>
+        <v>401.2838973446586</v>
       </c>
     </row>
     <row r="18">
@@ -1940,7 +1940,7 @@
         <v>92.18779416180689</v>
       </c>
       <c r="H18" t="n">
-        <v>43.9045311391345</v>
+        <v>43.90453113913449</v>
       </c>
       <c r="I18" t="n">
         <v>0</v>
@@ -1973,7 +1973,7 @@
         <v>0</v>
       </c>
       <c r="S18" t="n">
-        <v>63.32136466518996</v>
+        <v>63.32136466518995</v>
       </c>
       <c r="T18" t="n">
         <v>136.7309641056443</v>
@@ -2001,28 +2001,28 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>188.264309024945</v>
+        <v>0</v>
       </c>
       <c r="C19" t="n">
         <v>170.2528374898731</v>
       </c>
       <c r="D19" t="n">
-        <v>161.683605144497</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>164.546123788675</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>170.1431564831852</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>163.8185422817731</v>
       </c>
       <c r="H19" t="n">
-        <v>50.83304041405747</v>
+        <v>135.4602252892499</v>
       </c>
       <c r="I19" t="n">
-        <v>75.43872475250879</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2052,7 +2052,7 @@
         <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>154.9126128011615</v>
+        <v>54.15261208242571</v>
       </c>
       <c r="T19" t="n">
         <v>237.5909258267186</v>
@@ -2064,7 +2064,7 @@
         <v>278.8943527180514</v>
       </c>
       <c r="W19" t="n">
-        <v>0</v>
+        <v>272.1038797892121</v>
       </c>
       <c r="X19" t="n">
         <v>0</v>
@@ -2080,16 +2080,16 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>0</v>
+        <v>415.6498806486147</v>
       </c>
       <c r="C20" t="n">
-        <v>0</v>
+        <v>126.2527693680082</v>
       </c>
       <c r="D20" t="n">
-        <v>419.0596946068497</v>
+        <v>0</v>
       </c>
       <c r="E20" t="n">
-        <v>291.3527993360474</v>
+        <v>0</v>
       </c>
       <c r="F20" t="n">
         <v>0</v>
@@ -2131,25 +2131,25 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>0</v>
+        <v>63.90941067458683</v>
       </c>
       <c r="T20" t="n">
         <v>0</v>
       </c>
       <c r="U20" t="n">
-        <v>255.632988972596</v>
+        <v>0</v>
       </c>
       <c r="V20" t="n">
-        <v>0</v>
+        <v>353.914520725013</v>
       </c>
       <c r="W20" t="n">
         <v>392.4274362026566</v>
       </c>
       <c r="X20" t="n">
-        <v>0</v>
+        <v>407.6027988439302</v>
       </c>
       <c r="Y20" t="n">
-        <v>401.2838973446586</v>
+        <v>0</v>
       </c>
     </row>
     <row r="21">
@@ -2177,7 +2177,7 @@
         <v>92.18779416180689</v>
       </c>
       <c r="H21" t="n">
-        <v>43.9045311391345</v>
+        <v>43.90453113913449</v>
       </c>
       <c r="I21" t="n">
         <v>0</v>
@@ -2210,7 +2210,7 @@
         <v>0</v>
       </c>
       <c r="S21" t="n">
-        <v>63.32136466518996</v>
+        <v>63.32136466518995</v>
       </c>
       <c r="T21" t="n">
         <v>136.7309641056443</v>
@@ -2244,19 +2244,19 @@
         <v>170.2528374898731</v>
       </c>
       <c r="D22" t="n">
-        <v>161.683605144497</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>164.546123788675</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>170.1431564831852</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>163.8185422817731</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>4.726764244839509</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
         <v>0</v>
@@ -2292,13 +2292,13 @@
         <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>0</v>
+        <v>108.6835547225993</v>
       </c>
       <c r="U22" t="n">
-        <v>0</v>
+        <v>277.3402845023203</v>
       </c>
       <c r="V22" t="n">
-        <v>0</v>
+        <v>278.8943527180514</v>
       </c>
       <c r="W22" t="n">
         <v>272.1038797892121</v>
@@ -2320,7 +2320,7 @@
         <v>0</v>
       </c>
       <c r="C23" t="n">
-        <v>422.6317226868329</v>
+        <v>202.1320114791172</v>
       </c>
       <c r="D23" t="n">
         <v>0</v>
@@ -2332,7 +2332,7 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>0</v>
+        <v>398.09458649269</v>
       </c>
       <c r="H23" t="n">
         <v>272.3478299760288</v>
@@ -2368,10 +2368,10 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>0</v>
+        <v>53.16639005413048</v>
       </c>
       <c r="T23" t="n">
-        <v>209.0810643723971</v>
+        <v>0</v>
       </c>
       <c r="U23" t="n">
         <v>255.5952734860514</v>
@@ -2386,7 +2386,7 @@
         <v>407.6027988439302</v>
       </c>
       <c r="Y23" t="n">
-        <v>21.68020096670836</v>
+        <v>0</v>
       </c>
     </row>
     <row r="24">
@@ -2447,7 +2447,7 @@
         <v>0</v>
       </c>
       <c r="S24" t="n">
-        <v>58.63603270501706</v>
+        <v>58.63603270501707</v>
       </c>
       <c r="T24" t="n">
         <v>135.714241538608</v>
@@ -2475,16 +2475,16 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0</v>
+        <v>188.264309024945</v>
       </c>
       <c r="C25" t="n">
-        <v>16.26190762357971</v>
+        <v>170.2528374898731</v>
       </c>
       <c r="D25" t="n">
-        <v>161.683605144497</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>164.546123788675</v>
+        <v>38.78950213282922</v>
       </c>
       <c r="F25" t="n">
         <v>170.1431564831852</v>
@@ -2535,7 +2535,7 @@
         <v>277.3287495917327</v>
       </c>
       <c r="V25" t="n">
-        <v>278.8943527180514</v>
+        <v>0</v>
       </c>
       <c r="W25" t="n">
         <v>272.1038797892121</v>
@@ -2544,7 +2544,7 @@
         <v>240.1382575886529</v>
       </c>
       <c r="Y25" t="n">
-        <v>0</v>
+        <v>224.0793406271554</v>
       </c>
     </row>
     <row r="26">
@@ -2557,7 +2557,7 @@
         <v>415.6498806486147</v>
       </c>
       <c r="C26" t="n">
-        <v>422.6317226868329</v>
+        <v>0</v>
       </c>
       <c r="D26" t="n">
         <v>0</v>
@@ -2566,13 +2566,13 @@
         <v>0</v>
       </c>
       <c r="F26" t="n">
-        <v>420.8729399924937</v>
+        <v>377.4313015046926</v>
       </c>
       <c r="G26" t="n">
-        <v>0</v>
+        <v>398.09458649269</v>
       </c>
       <c r="H26" t="n">
-        <v>0</v>
+        <v>272.3478299760288</v>
       </c>
       <c r="I26" t="n">
         <v>0</v>
@@ -2605,13 +2605,13 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>53.16639005413047</v>
+        <v>53.16639005413048</v>
       </c>
       <c r="T26" t="n">
-        <v>0</v>
+        <v>209.0810643723971</v>
       </c>
       <c r="U26" t="n">
-        <v>0</v>
+        <v>255.5952734860514</v>
       </c>
       <c r="V26" t="n">
         <v>353.914520725013</v>
@@ -2620,10 +2620,10 @@
         <v>0</v>
       </c>
       <c r="X26" t="n">
-        <v>267.7614958078744</v>
+        <v>0</v>
       </c>
       <c r="Y26" t="n">
-        <v>401.2838973446586</v>
+        <v>0</v>
       </c>
     </row>
     <row r="27">
@@ -2684,7 +2684,7 @@
         <v>0</v>
       </c>
       <c r="S27" t="n">
-        <v>58.63603270501706</v>
+        <v>58.63603270501707</v>
       </c>
       <c r="T27" t="n">
         <v>135.714241538608</v>
@@ -2718,16 +2718,16 @@
         <v>170.2528374898731</v>
       </c>
       <c r="D28" t="n">
-        <v>161.683605144497</v>
+        <v>74.72832607477841</v>
       </c>
       <c r="E28" t="n">
         <v>164.546123788675</v>
       </c>
       <c r="F28" t="n">
-        <v>121.3020336661402</v>
+        <v>170.1431564831852</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>163.6070689209988</v>
       </c>
       <c r="H28" t="n">
         <v>0</v>
@@ -2760,10 +2760,10 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>2.174231181331173</v>
       </c>
       <c r="S28" t="n">
-        <v>0</v>
+        <v>151.2272088683957</v>
       </c>
       <c r="T28" t="n">
         <v>236.6873578306832</v>
@@ -2772,7 +2772,7 @@
         <v>277.3287495917327</v>
       </c>
       <c r="V28" t="n">
-        <v>278.8943527180514</v>
+        <v>0</v>
       </c>
       <c r="W28" t="n">
         <v>272.1038797892121</v>
@@ -2794,22 +2794,22 @@
         <v>0</v>
       </c>
       <c r="C29" t="n">
-        <v>422.6317226868329</v>
+        <v>0</v>
       </c>
       <c r="D29" t="n">
-        <v>419.0596946068497</v>
+        <v>0</v>
       </c>
       <c r="E29" t="n">
-        <v>292.2752975746901</v>
+        <v>0</v>
       </c>
       <c r="F29" t="n">
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>0</v>
+        <v>398.09458649269</v>
       </c>
       <c r="H29" t="n">
-        <v>0</v>
+        <v>272.3478299760288</v>
       </c>
       <c r="I29" t="n">
         <v>0</v>
@@ -2842,25 +2842,25 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>0</v>
+        <v>53.16639005413048</v>
       </c>
       <c r="T29" t="n">
-        <v>0</v>
+        <v>209.0810643723971</v>
       </c>
       <c r="U29" t="n">
-        <v>0</v>
+        <v>255.5952734860514</v>
       </c>
       <c r="V29" t="n">
-        <v>0</v>
+        <v>353.914520725013</v>
       </c>
       <c r="W29" t="n">
         <v>392.4274362026566</v>
       </c>
       <c r="X29" t="n">
-        <v>407.6027988439302</v>
+        <v>400.6537459506503</v>
       </c>
       <c r="Y29" t="n">
-        <v>401.2838973446586</v>
+        <v>0</v>
       </c>
     </row>
     <row r="30">
@@ -3006,19 +3006,19 @@
         <v>236.6873578306832</v>
       </c>
       <c r="U31" t="n">
-        <v>277.3287495917327</v>
+        <v>0</v>
       </c>
       <c r="V31" t="n">
-        <v>278.8943527180514</v>
+        <v>259.818171399271</v>
       </c>
       <c r="W31" t="n">
         <v>0</v>
       </c>
       <c r="X31" t="n">
-        <v>0</v>
+        <v>240.1382575886529</v>
       </c>
       <c r="Y31" t="n">
-        <v>167.8126673052951</v>
+        <v>224.0793406271554</v>
       </c>
     </row>
     <row r="32">
@@ -3028,13 +3028,13 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>415.6498806486147</v>
+        <v>0</v>
       </c>
       <c r="C32" t="n">
-        <v>422.6317226868329</v>
+        <v>0</v>
       </c>
       <c r="D32" t="n">
-        <v>125.1169626381718</v>
+        <v>0</v>
       </c>
       <c r="E32" t="n">
         <v>0</v>
@@ -3043,7 +3043,7 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>0</v>
+        <v>398.09458649269</v>
       </c>
       <c r="H32" t="n">
         <v>0</v>
@@ -3079,25 +3079,25 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>0</v>
+        <v>53.16639005413048</v>
       </c>
       <c r="T32" t="n">
         <v>209.0810643723971</v>
       </c>
       <c r="U32" t="n">
-        <v>0</v>
+        <v>255.5952734860514</v>
       </c>
       <c r="V32" t="n">
         <v>353.914520725013</v>
       </c>
       <c r="W32" t="n">
-        <v>0</v>
+        <v>392.4274362026566</v>
       </c>
       <c r="X32" t="n">
         <v>407.6027988439302</v>
       </c>
       <c r="Y32" t="n">
-        <v>401.2838973446586</v>
+        <v>265.3987770827494</v>
       </c>
     </row>
     <row r="33">
@@ -3195,10 +3195,10 @@
         <v>161.683605144497</v>
       </c>
       <c r="E34" t="n">
-        <v>164.546123788675</v>
+        <v>93.67241559757626</v>
       </c>
       <c r="F34" t="n">
-        <v>32.36453542491974</v>
+        <v>170.1431564831852</v>
       </c>
       <c r="G34" t="n">
         <v>163.6070689209988</v>
@@ -3207,7 +3207,7 @@
         <v>133.580034863457</v>
       </c>
       <c r="I34" t="n">
-        <v>69.0791440484977</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3234,7 +3234,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>0</v>
+        <v>2.174231181331173</v>
       </c>
       <c r="S34" t="n">
         <v>0</v>
@@ -3265,19 +3265,19 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>0</v>
+        <v>415.6498806486147</v>
       </c>
       <c r="C35" t="n">
         <v>422.6317226868329</v>
       </c>
       <c r="D35" t="n">
-        <v>0</v>
+        <v>419.0596946068497</v>
       </c>
       <c r="E35" t="n">
         <v>421.717170453621</v>
       </c>
       <c r="F35" t="n">
-        <v>81.39192486151336</v>
+        <v>0</v>
       </c>
       <c r="G35" t="n">
         <v>0</v>
@@ -3316,25 +3316,25 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>0</v>
+        <v>53.16639005413048</v>
       </c>
       <c r="T35" t="n">
         <v>0</v>
       </c>
       <c r="U35" t="n">
-        <v>255.5952734860514</v>
+        <v>0</v>
       </c>
       <c r="V35" t="n">
-        <v>353.914520725013</v>
+        <v>0</v>
       </c>
       <c r="W35" t="n">
-        <v>392.4274362026566</v>
+        <v>0</v>
       </c>
       <c r="X35" t="n">
-        <v>407.6027988439302</v>
+        <v>201.7720914649111</v>
       </c>
       <c r="Y35" t="n">
-        <v>0</v>
+        <v>401.2838973446586</v>
       </c>
     </row>
     <row r="36">
@@ -3429,22 +3429,22 @@
         <v>170.2528374898731</v>
       </c>
       <c r="D37" t="n">
-        <v>161.683605144497</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>164.546123788675</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>170.1431564831852</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>7.572645802782488</v>
+        <v>163.6070689209988</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>130.5232536285871</v>
       </c>
       <c r="I37" t="n">
-        <v>69.0791440484977</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3483,7 +3483,7 @@
         <v>277.3287495917327</v>
       </c>
       <c r="V37" t="n">
-        <v>0</v>
+        <v>278.8943527180514</v>
       </c>
       <c r="W37" t="n">
         <v>272.1038797892121</v>
@@ -3502,16 +3502,16 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>0</v>
+        <v>243.2127706057402</v>
       </c>
       <c r="C38" t="n">
         <v>0</v>
       </c>
       <c r="D38" t="n">
-        <v>0</v>
+        <v>419.0596946068497</v>
       </c>
       <c r="E38" t="n">
-        <v>0</v>
+        <v>421.717170453621</v>
       </c>
       <c r="F38" t="n">
         <v>0</v>
@@ -3556,13 +3556,13 @@
         <v>53.16639005413048</v>
       </c>
       <c r="T38" t="n">
-        <v>209.0810643723971</v>
+        <v>0</v>
       </c>
       <c r="U38" t="n">
-        <v>255.5952734860514</v>
+        <v>0</v>
       </c>
       <c r="V38" t="n">
-        <v>353.914520725013</v>
+        <v>0</v>
       </c>
       <c r="W38" t="n">
         <v>392.4274362026566</v>
@@ -3571,7 +3571,7 @@
         <v>407.6027988439302</v>
       </c>
       <c r="Y38" t="n">
-        <v>265.3987770827489</v>
+        <v>0</v>
       </c>
     </row>
     <row r="39">
@@ -3666,13 +3666,13 @@
         <v>170.2528374898731</v>
       </c>
       <c r="D40" t="n">
-        <v>161.683605144497</v>
+        <v>41.58910709762372</v>
       </c>
       <c r="E40" t="n">
-        <v>63.3675733565908</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F40" t="n">
-        <v>0</v>
+        <v>170.1431564831852</v>
       </c>
       <c r="G40" t="n">
         <v>0</v>
@@ -3711,7 +3711,7 @@
         <v>2.174231181331173</v>
       </c>
       <c r="S40" t="n">
-        <v>151.2272088683957</v>
+        <v>0</v>
       </c>
       <c r="T40" t="n">
         <v>236.6873578306832</v>
@@ -3751,10 +3751,10 @@
         <v>0</v>
       </c>
       <c r="F41" t="n">
-        <v>0</v>
+        <v>125.7504449406273</v>
       </c>
       <c r="G41" t="n">
-        <v>26.90930963687978</v>
+        <v>0</v>
       </c>
       <c r="H41" t="n">
         <v>272.3478299760288</v>
@@ -3790,13 +3790,13 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>0</v>
+        <v>53.16639005413048</v>
       </c>
       <c r="T41" t="n">
         <v>0</v>
       </c>
       <c r="U41" t="n">
-        <v>0</v>
+        <v>255.5952734860514</v>
       </c>
       <c r="V41" t="n">
         <v>0</v>
@@ -3805,7 +3805,7 @@
         <v>392.4274362026566</v>
       </c>
       <c r="X41" t="n">
-        <v>407.6027988439302</v>
+        <v>0</v>
       </c>
       <c r="Y41" t="n">
         <v>401.2838973446586</v>
@@ -3906,19 +3906,19 @@
         <v>161.683605144497</v>
       </c>
       <c r="E43" t="n">
-        <v>132.4467174050889</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F43" t="n">
-        <v>0</v>
+        <v>170.1431564831852</v>
       </c>
       <c r="G43" t="n">
-        <v>0</v>
+        <v>163.6070689209988</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>133.580034863457</v>
       </c>
       <c r="I43" t="n">
-        <v>0</v>
+        <v>56.79343565855661</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3954,10 +3954,10 @@
         <v>236.6873578306832</v>
       </c>
       <c r="U43" t="n">
-        <v>277.3287495917327</v>
+        <v>0</v>
       </c>
       <c r="V43" t="n">
-        <v>278.8943527180514</v>
+        <v>0</v>
       </c>
       <c r="W43" t="n">
         <v>272.1038797892121</v>
@@ -3979,22 +3979,22 @@
         <v>415.6498806486147</v>
       </c>
       <c r="C44" t="n">
-        <v>0</v>
+        <v>422.6317226868329</v>
       </c>
       <c r="D44" t="n">
-        <v>0</v>
+        <v>419.0596946068497</v>
       </c>
       <c r="E44" t="n">
         <v>0</v>
       </c>
       <c r="F44" t="n">
-        <v>0</v>
+        <v>420.8729399924937</v>
       </c>
       <c r="G44" t="n">
         <v>398.09458649269</v>
       </c>
       <c r="H44" t="n">
-        <v>65.14886230580242</v>
+        <v>0</v>
       </c>
       <c r="I44" t="n">
         <v>0</v>
@@ -4027,7 +4027,7 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>53.16639005413048</v>
+        <v>0</v>
       </c>
       <c r="T44" t="n">
         <v>0</v>
@@ -4036,16 +4036,16 @@
         <v>255.5952734860514</v>
       </c>
       <c r="V44" t="n">
-        <v>353.914520725013</v>
+        <v>3.376749346085921</v>
       </c>
       <c r="W44" t="n">
-        <v>392.4274362026566</v>
+        <v>0</v>
       </c>
       <c r="X44" t="n">
         <v>0</v>
       </c>
       <c r="Y44" t="n">
-        <v>401.2838973446586</v>
+        <v>0</v>
       </c>
     </row>
     <row r="45">
@@ -4140,7 +4140,7 @@
         <v>170.2528374898731</v>
       </c>
       <c r="D46" t="n">
-        <v>0</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E46" t="n">
         <v>164.546123788675</v>
@@ -4149,10 +4149,10 @@
         <v>170.1431564831852</v>
       </c>
       <c r="G46" t="n">
-        <v>112.8424823274515</v>
+        <v>163.6070689209988</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>133.580034863457</v>
       </c>
       <c r="I46" t="n">
         <v>0</v>
@@ -4182,19 +4182,19 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>0</v>
+        <v>2.174231181331173</v>
       </c>
       <c r="S46" t="n">
-        <v>0</v>
+        <v>151.2272088683957</v>
       </c>
       <c r="T46" t="n">
         <v>236.6873578306832</v>
       </c>
       <c r="U46" t="n">
-        <v>277.3287495917327</v>
+        <v>0</v>
       </c>
       <c r="V46" t="n">
-        <v>278.8943527180514</v>
+        <v>56.79343565855719</v>
       </c>
       <c r="W46" t="n">
         <v>272.1038797892121</v>
@@ -5017,40 +5017,40 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>1393.959939628083</v>
+        <v>1133.548788392143</v>
       </c>
       <c r="C11" t="n">
-        <v>967.0592096413836</v>
+        <v>718.8438747983129</v>
       </c>
       <c r="D11" t="n">
-        <v>543.7665888263839</v>
+        <v>718.8438747983129</v>
       </c>
       <c r="E11" t="n">
-        <v>117.7896489742415</v>
+        <v>718.8438747983129</v>
       </c>
       <c r="F11" t="n">
-        <v>117.7896489742415</v>
+        <v>718.8438747983129</v>
       </c>
       <c r="G11" t="n">
-        <v>117.7896489742415</v>
+        <v>316.2519252281125</v>
       </c>
       <c r="H11" t="n">
-        <v>36.27616607839227</v>
+        <v>36.27616607839228</v>
       </c>
       <c r="I11" t="n">
-        <v>68.08893453872669</v>
+        <v>68.08893453872679</v>
       </c>
       <c r="J11" t="n">
-        <v>184.2963411149079</v>
+        <v>184.2963411149083</v>
       </c>
       <c r="K11" t="n">
-        <v>366.7061291250297</v>
+        <v>366.7061291250301</v>
       </c>
       <c r="L11" t="n">
-        <v>598.99813723031</v>
+        <v>598.9981372303102</v>
       </c>
       <c r="M11" t="n">
-        <v>862.6140377103477</v>
+        <v>862.6140377103479</v>
       </c>
       <c r="N11" t="n">
         <v>1131.245262923652</v>
@@ -5059,7 +5059,7 @@
         <v>1382.739131455147</v>
       </c>
       <c r="P11" t="n">
-        <v>1591.776917090909</v>
+        <v>1591.77691709091</v>
       </c>
       <c r="Q11" t="n">
         <v>1740.92751718922</v>
@@ -5068,25 +5068,25 @@
         <v>1813.808303919614</v>
       </c>
       <c r="S11" t="n">
-        <v>1813.808303919614</v>
+        <v>1749.253343642254</v>
       </c>
       <c r="T11" t="n">
-        <v>1813.808303919614</v>
+        <v>1749.253343642254</v>
       </c>
       <c r="U11" t="n">
-        <v>1813.808303919614</v>
+        <v>1491.038203265894</v>
       </c>
       <c r="V11" t="n">
-        <v>1813.808303919614</v>
+        <v>1133.548788392143</v>
       </c>
       <c r="W11" t="n">
-        <v>1813.808303919614</v>
+        <v>1133.548788392143</v>
       </c>
       <c r="X11" t="n">
-        <v>1813.808303919614</v>
+        <v>1133.548788392143</v>
       </c>
       <c r="Y11" t="n">
-        <v>1813.808303919614</v>
+        <v>1133.548788392143</v>
       </c>
     </row>
     <row r="12">
@@ -5096,52 +5096,52 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>593.4367873432371</v>
+        <v>593.4367873432378</v>
       </c>
       <c r="C12" t="n">
-        <v>475.9308838607419</v>
+        <v>475.9308838607426</v>
       </c>
       <c r="D12" t="n">
-        <v>372.0909253760269</v>
+        <v>372.0909253760275</v>
       </c>
       <c r="E12" t="n">
-        <v>267.3889916489641</v>
+        <v>267.3889916489647</v>
       </c>
       <c r="F12" t="n">
-        <v>173.7431613318683</v>
+        <v>173.7431613318688</v>
       </c>
       <c r="G12" t="n">
-        <v>80.62417733004304</v>
+        <v>80.62417733004349</v>
       </c>
       <c r="H12" t="n">
-        <v>36.27616607839227</v>
+        <v>36.27616607839228</v>
       </c>
       <c r="I12" t="n">
-        <v>75.26691519968658</v>
+        <v>75.26691519968659</v>
       </c>
       <c r="J12" t="n">
-        <v>433.5238427951066</v>
+        <v>433.5238427951067</v>
       </c>
       <c r="K12" t="n">
-        <v>628.9641045014112</v>
+        <v>559.2924683663467</v>
       </c>
       <c r="L12" t="n">
-        <v>805.60295533206</v>
+        <v>735.9313191969957</v>
       </c>
       <c r="M12" t="n">
-        <v>1014.877653813075</v>
+        <v>945.2060176780107</v>
       </c>
       <c r="N12" t="n">
-        <v>1232.032635645391</v>
+        <v>1162.360999510327</v>
       </c>
       <c r="O12" t="n">
-        <v>1427.076302632878</v>
+        <v>1357.404666497813</v>
       </c>
       <c r="P12" t="n">
-        <v>1580.47441747923</v>
+        <v>1510.802781344166</v>
       </c>
       <c r="Q12" t="n">
-        <v>1674.905125453736</v>
+        <v>1674.905125453737</v>
       </c>
       <c r="R12" t="n">
         <v>1813.808303919614</v>
@@ -5150,22 +5150,22 @@
         <v>1749.847329510331</v>
       </c>
       <c r="T12" t="n">
-        <v>1611.735244555134</v>
+        <v>1611.735244555135</v>
       </c>
       <c r="U12" t="n">
-        <v>1427.028547670861</v>
+        <v>1427.028547670862</v>
       </c>
       <c r="V12" t="n">
-        <v>1222.055408810127</v>
+        <v>1222.055408810128</v>
       </c>
       <c r="W12" t="n">
         <v>1025.534031643345</v>
       </c>
       <c r="X12" t="n">
-        <v>862.0566854100075</v>
+        <v>862.0566854100082</v>
       </c>
       <c r="Y12" t="n">
-        <v>722.3637967632999</v>
+        <v>722.3637967633006</v>
       </c>
     </row>
     <row r="13">
@@ -5175,28 +5175,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>1088.137999643809</v>
+        <v>709.6354821452916</v>
       </c>
       <c r="C13" t="n">
-        <v>916.1654365227246</v>
+        <v>537.6629190242076</v>
       </c>
       <c r="D13" t="n">
-        <v>752.8486636494953</v>
+        <v>374.3461461509783</v>
       </c>
       <c r="E13" t="n">
-        <v>586.6404578023488</v>
+        <v>208.1379403038318</v>
       </c>
       <c r="F13" t="n">
-        <v>414.7786835769092</v>
+        <v>36.27616607839228</v>
       </c>
       <c r="G13" t="n">
-        <v>249.3054085448152</v>
+        <v>36.27616607839228</v>
       </c>
       <c r="H13" t="n">
-        <v>112.4768981516335</v>
+        <v>36.27616607839228</v>
       </c>
       <c r="I13" t="n">
-        <v>36.27616607839227</v>
+        <v>36.27616607839228</v>
       </c>
       <c r="J13" t="n">
         <v>148.0721041840598</v>
@@ -5205,16 +5205,16 @@
         <v>463.838861142204</v>
       </c>
       <c r="L13" t="n">
-        <v>556.3346842424261</v>
+        <v>912.7564163623085</v>
       </c>
       <c r="M13" t="n">
-        <v>1005.25223946253</v>
+        <v>1010.809763939928</v>
       </c>
       <c r="N13" t="n">
-        <v>1152.699903436724</v>
+        <v>1107.808470031876</v>
       </c>
       <c r="O13" t="n">
-        <v>1238.993031259048</v>
+        <v>1238.993031259049</v>
       </c>
       <c r="P13" t="n">
         <v>1622.490343973492</v>
@@ -5223,28 +5223,28 @@
         <v>1813.808303919614</v>
       </c>
       <c r="R13" t="n">
-        <v>1813.808303919614</v>
+        <v>1802.007452933977</v>
       </c>
       <c r="S13" t="n">
-        <v>1657.330917251774</v>
+        <v>1645.530066266137</v>
       </c>
       <c r="T13" t="n">
-        <v>1657.330917251774</v>
+        <v>1405.539232097734</v>
       </c>
       <c r="U13" t="n">
-        <v>1377.189215734278</v>
+        <v>1227.051782526974</v>
       </c>
       <c r="V13" t="n">
-        <v>1095.477748342307</v>
+        <v>1227.051782526974</v>
       </c>
       <c r="W13" t="n">
-        <v>1095.477748342307</v>
+        <v>952.1993786994865</v>
       </c>
       <c r="X13" t="n">
-        <v>1095.477748342307</v>
+        <v>709.6354821452916</v>
       </c>
       <c r="Y13" t="n">
-        <v>1095.477748342307</v>
+        <v>709.6354821452916</v>
       </c>
     </row>
     <row r="14">
@@ -5254,76 +5254,76 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>316.2519252281124</v>
+        <v>308.3631540555037</v>
       </c>
       <c r="C14" t="n">
-        <v>316.2519252281124</v>
+        <v>308.3631540555037</v>
       </c>
       <c r="D14" t="n">
-        <v>316.2519252281124</v>
+        <v>308.3631540555037</v>
       </c>
       <c r="E14" t="n">
-        <v>316.2519252281124</v>
+        <v>36.27616607839228</v>
       </c>
       <c r="F14" t="n">
-        <v>316.2519252281124</v>
+        <v>36.27616607839228</v>
       </c>
       <c r="G14" t="n">
-        <v>316.2519252281124</v>
+        <v>36.27616607839228</v>
       </c>
       <c r="H14" t="n">
-        <v>36.27616607839226</v>
+        <v>36.27616607839228</v>
       </c>
       <c r="I14" t="n">
-        <v>68.08893453872642</v>
+        <v>68.08893453872668</v>
       </c>
       <c r="J14" t="n">
-        <v>184.2963411149077</v>
+        <v>184.296341114908</v>
       </c>
       <c r="K14" t="n">
-        <v>366.7061291250295</v>
+        <v>366.7061291250299</v>
       </c>
       <c r="L14" t="n">
-        <v>598.9981372303098</v>
+        <v>598.9981372303101</v>
       </c>
       <c r="M14" t="n">
-        <v>862.6140377103475</v>
+        <v>862.6140377103479</v>
       </c>
       <c r="N14" t="n">
-        <v>1131.245262923651</v>
+        <v>1131.245262923652</v>
       </c>
       <c r="O14" t="n">
-        <v>1382.739131455146</v>
+        <v>1382.739131455147</v>
       </c>
       <c r="P14" t="n">
-        <v>1591.776917090909</v>
+        <v>1591.77691709091</v>
       </c>
       <c r="Q14" t="n">
-        <v>1740.927517189219</v>
+        <v>1740.92751718922</v>
       </c>
       <c r="R14" t="n">
-        <v>1813.808303919613</v>
+        <v>1813.808303919614</v>
       </c>
       <c r="S14" t="n">
-        <v>1813.808303919613</v>
+        <v>1749.253343642254</v>
       </c>
       <c r="T14" t="n">
-        <v>1748.196194469406</v>
+        <v>1749.253343642254</v>
       </c>
       <c r="U14" t="n">
-        <v>1489.981054093046</v>
+        <v>1491.038203265894</v>
       </c>
       <c r="V14" t="n">
-        <v>1132.491639219296</v>
+        <v>1133.548788392143</v>
       </c>
       <c r="W14" t="n">
-        <v>736.1002895196425</v>
+        <v>1133.548788392143</v>
       </c>
       <c r="X14" t="n">
-        <v>736.1002895196425</v>
+        <v>1133.548788392143</v>
       </c>
       <c r="Y14" t="n">
-        <v>736.1002895196425</v>
+        <v>728.2115183470338</v>
       </c>
     </row>
     <row r="15">
@@ -5339,46 +5339,46 @@
         <v>475.930883860742</v>
       </c>
       <c r="D15" t="n">
-        <v>372.090925376027</v>
+        <v>372.0909253760271</v>
       </c>
       <c r="E15" t="n">
-        <v>267.3889916489642</v>
+        <v>267.3889916489643</v>
       </c>
       <c r="F15" t="n">
         <v>173.7431613318684</v>
       </c>
       <c r="G15" t="n">
-        <v>80.62417733004327</v>
+        <v>80.62417733004328</v>
       </c>
       <c r="H15" t="n">
-        <v>36.27616607839226</v>
+        <v>36.27616607839228</v>
       </c>
       <c r="I15" t="n">
-        <v>51.80960935527472</v>
+        <v>75.26691519968659</v>
       </c>
       <c r="J15" t="n">
-        <v>410.0665369506947</v>
+        <v>141.4213503255156</v>
       </c>
       <c r="K15" t="n">
-        <v>628.9641045014107</v>
+        <v>590.33890554562</v>
       </c>
       <c r="L15" t="n">
-        <v>805.6029553320595</v>
+        <v>766.977756376269</v>
       </c>
       <c r="M15" t="n">
-        <v>1014.877653813075</v>
+        <v>976.252454857284</v>
       </c>
       <c r="N15" t="n">
-        <v>1232.032635645391</v>
+        <v>1193.4074366896</v>
       </c>
       <c r="O15" t="n">
-        <v>1427.076302632877</v>
+        <v>1388.451103677087</v>
       </c>
       <c r="P15" t="n">
-        <v>1580.47441747923</v>
+        <v>1685.929917764136</v>
       </c>
       <c r="Q15" t="n">
-        <v>1674.905125453736</v>
+        <v>1780.360625738641</v>
       </c>
       <c r="R15" t="n">
         <v>1813.808303919613</v>
@@ -5412,76 +5412,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>374.4569350466227</v>
+        <v>111.7278454819649</v>
       </c>
       <c r="C16" t="n">
-        <v>202.4843719255387</v>
+        <v>36.27616607839228</v>
       </c>
       <c r="D16" t="n">
-        <v>202.4843719255387</v>
+        <v>36.27616607839228</v>
       </c>
       <c r="E16" t="n">
-        <v>36.27616607839226</v>
+        <v>36.27616607839228</v>
       </c>
       <c r="F16" t="n">
-        <v>36.27616607839226</v>
+        <v>36.27616607839228</v>
       </c>
       <c r="G16" t="n">
-        <v>36.27616607839226</v>
+        <v>36.27616607839228</v>
       </c>
       <c r="H16" t="n">
-        <v>36.27616607839226</v>
+        <v>36.27616607839228</v>
       </c>
       <c r="I16" t="n">
-        <v>36.27616607839226</v>
+        <v>36.27616607839228</v>
       </c>
       <c r="J16" t="n">
-        <v>70.15038753583893</v>
+        <v>148.0721041840598</v>
       </c>
       <c r="K16" t="n">
-        <v>138.6345353799611</v>
+        <v>463.838861142204</v>
       </c>
       <c r="L16" t="n">
-        <v>356.3700675499415</v>
+        <v>912.7564163623085</v>
       </c>
       <c r="M16" t="n">
-        <v>805.2876227700457</v>
+        <v>1010.809763939928</v>
       </c>
       <c r="N16" t="n">
-        <v>1254.20517799015</v>
+        <v>1107.808470031876</v>
       </c>
       <c r="O16" t="n">
-        <v>1703.122733210254</v>
+        <v>1238.993031259049</v>
       </c>
       <c r="P16" t="n">
-        <v>1773.86384135139</v>
+        <v>1622.490343973492</v>
       </c>
       <c r="Q16" t="n">
-        <v>1813.808303919613</v>
+        <v>1813.808303919614</v>
       </c>
       <c r="R16" t="n">
-        <v>1802.007452933976</v>
+        <v>1813.808303919614</v>
       </c>
       <c r="S16" t="n">
-        <v>1645.530066266136</v>
+        <v>1657.330917251774</v>
       </c>
       <c r="T16" t="n">
-        <v>1453.726404337771</v>
+        <v>1417.340083083371</v>
       </c>
       <c r="U16" t="n">
-        <v>1173.584702820276</v>
+        <v>1137.198381565876</v>
       </c>
       <c r="V16" t="n">
-        <v>891.8732354283045</v>
+        <v>855.4869141739048</v>
       </c>
       <c r="W16" t="n">
-        <v>617.0208316008176</v>
+        <v>580.6345103464178</v>
       </c>
       <c r="X16" t="n">
-        <v>374.4569350466227</v>
+        <v>338.0706137922228</v>
       </c>
       <c r="Y16" t="n">
-        <v>374.4569350466227</v>
+        <v>111.7278454819649</v>
       </c>
     </row>
     <row r="17">
@@ -5491,76 +5491,76 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>176.7148156408668</v>
+        <v>438.8681156485927</v>
       </c>
       <c r="C17" t="n">
-        <v>36.27616607839227</v>
+        <v>438.8681156485927</v>
       </c>
       <c r="D17" t="n">
-        <v>36.27616607839227</v>
+        <v>438.8681156485927</v>
       </c>
       <c r="E17" t="n">
-        <v>36.27616607839227</v>
+        <v>438.8681156485927</v>
       </c>
       <c r="F17" t="n">
-        <v>36.27616607839227</v>
+        <v>438.8681156485927</v>
       </c>
       <c r="G17" t="n">
-        <v>36.27616607839227</v>
+        <v>36.27616607839228</v>
       </c>
       <c r="H17" t="n">
-        <v>36.27616607839227</v>
+        <v>36.27616607839228</v>
       </c>
       <c r="I17" t="n">
-        <v>68.08893453872633</v>
+        <v>68.08893453872679</v>
       </c>
       <c r="J17" t="n">
-        <v>184.2963411149078</v>
+        <v>184.2963411149079</v>
       </c>
       <c r="K17" t="n">
-        <v>366.7061291250296</v>
+        <v>366.7061291250299</v>
       </c>
       <c r="L17" t="n">
-        <v>598.9981372303098</v>
+        <v>598.9981372303102</v>
       </c>
       <c r="M17" t="n">
-        <v>862.6140377103475</v>
+        <v>862.6140377103482</v>
       </c>
       <c r="N17" t="n">
-        <v>1131.245262923651</v>
+        <v>1131.245262923652</v>
       </c>
       <c r="O17" t="n">
-        <v>1382.739131455146</v>
+        <v>1382.739131455147</v>
       </c>
       <c r="P17" t="n">
-        <v>1591.776917090909</v>
+        <v>1591.77691709091</v>
       </c>
       <c r="Q17" t="n">
-        <v>1740.927517189219</v>
+        <v>1740.92751718922</v>
       </c>
       <c r="R17" t="n">
-        <v>1813.808303919613</v>
+        <v>1813.808303919614</v>
       </c>
       <c r="S17" t="n">
-        <v>1813.808303919613</v>
+        <v>1749.253343642254</v>
       </c>
       <c r="T17" t="n">
-        <v>1600.530719422883</v>
+        <v>1535.975759145523</v>
       </c>
       <c r="U17" t="n">
-        <v>1342.315579046523</v>
+        <v>1277.760618769164</v>
       </c>
       <c r="V17" t="n">
-        <v>984.8261641727727</v>
+        <v>1277.760618769164</v>
       </c>
       <c r="W17" t="n">
-        <v>588.4348144731196</v>
+        <v>881.3692690695107</v>
       </c>
       <c r="X17" t="n">
-        <v>176.7148156408668</v>
+        <v>881.3692690695107</v>
       </c>
       <c r="Y17" t="n">
-        <v>176.7148156408668</v>
+        <v>476.031999024401</v>
       </c>
     </row>
     <row r="18">
@@ -5576,43 +5576,43 @@
         <v>475.930883860742</v>
       </c>
       <c r="D18" t="n">
-        <v>372.090925376027</v>
+        <v>372.0909253760271</v>
       </c>
       <c r="E18" t="n">
-        <v>267.3889916489642</v>
+        <v>267.3889916489643</v>
       </c>
       <c r="F18" t="n">
         <v>173.7431613318684</v>
       </c>
       <c r="G18" t="n">
-        <v>80.62417733004327</v>
+        <v>80.62417733004328</v>
       </c>
       <c r="H18" t="n">
-        <v>36.27616607839227</v>
+        <v>36.27616607839228</v>
       </c>
       <c r="I18" t="n">
-        <v>75.26691519968657</v>
+        <v>75.26691519968659</v>
       </c>
       <c r="J18" t="n">
-        <v>180.0465492813067</v>
+        <v>433.5238427951067</v>
       </c>
       <c r="K18" t="n">
-        <v>628.9641045014109</v>
+        <v>559.2924683663467</v>
       </c>
       <c r="L18" t="n">
-        <v>805.6029553320598</v>
+        <v>735.9313191969957</v>
       </c>
       <c r="M18" t="n">
-        <v>1014.877653813075</v>
+        <v>945.2060176780108</v>
       </c>
       <c r="N18" t="n">
-        <v>1232.032635645391</v>
+        <v>1162.360999510327</v>
       </c>
       <c r="O18" t="n">
-        <v>1427.076302632877</v>
+        <v>1357.404666497814</v>
       </c>
       <c r="P18" t="n">
-        <v>1580.47441747923</v>
+        <v>1510.802781344166</v>
       </c>
       <c r="Q18" t="n">
         <v>1674.905125453736</v>
@@ -5649,76 +5649,76 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>665.3209454618382</v>
+        <v>682.4122888501917</v>
       </c>
       <c r="C19" t="n">
-        <v>493.3483823407541</v>
+        <v>510.4397257291076</v>
       </c>
       <c r="D19" t="n">
-        <v>330.0316094675248</v>
+        <v>510.4397257291076</v>
       </c>
       <c r="E19" t="n">
-        <v>163.8234036203784</v>
+        <v>510.4397257291076</v>
       </c>
       <c r="F19" t="n">
-        <v>163.8234036203784</v>
+        <v>338.577951503668</v>
       </c>
       <c r="G19" t="n">
-        <v>163.8234036203784</v>
+        <v>173.104676471574</v>
       </c>
       <c r="H19" t="n">
-        <v>112.4768981516335</v>
+        <v>36.27616607839228</v>
       </c>
       <c r="I19" t="n">
-        <v>36.27616607839227</v>
+        <v>36.27616607839228</v>
       </c>
       <c r="J19" t="n">
-        <v>70.15038753583892</v>
+        <v>148.0721041840598</v>
       </c>
       <c r="K19" t="n">
-        <v>138.6345353799611</v>
+        <v>463.838861142204</v>
       </c>
       <c r="L19" t="n">
-        <v>231.1303584801831</v>
+        <v>912.7564163623085</v>
       </c>
       <c r="M19" t="n">
-        <v>680.0479137002874</v>
+        <v>1361.673971582413</v>
       </c>
       <c r="N19" t="n">
-        <v>1128.965468920392</v>
+        <v>1458.672677674361</v>
       </c>
       <c r="O19" t="n">
-        <v>1238.993031259048</v>
+        <v>1544.965805496685</v>
       </c>
       <c r="P19" t="n">
-        <v>1622.490343973491</v>
+        <v>1773.863841351391</v>
       </c>
       <c r="Q19" t="n">
-        <v>1813.808303919613</v>
+        <v>1813.808303919614</v>
       </c>
       <c r="R19" t="n">
-        <v>1813.808303919613</v>
+        <v>1813.808303919614</v>
       </c>
       <c r="S19" t="n">
-        <v>1657.330917251773</v>
+        <v>1759.108695755548</v>
       </c>
       <c r="T19" t="n">
-        <v>1417.34008308337</v>
+        <v>1519.117861587145</v>
       </c>
       <c r="U19" t="n">
-        <v>1137.198381565875</v>
+        <v>1238.97616006965</v>
       </c>
       <c r="V19" t="n">
-        <v>855.4869141739039</v>
+        <v>957.2646926776786</v>
       </c>
       <c r="W19" t="n">
-        <v>855.4869141739039</v>
+        <v>682.4122888501917</v>
       </c>
       <c r="X19" t="n">
-        <v>855.4869141739039</v>
+        <v>682.4122888501917</v>
       </c>
       <c r="Y19" t="n">
-        <v>855.4869141739039</v>
+        <v>682.4122888501917</v>
       </c>
     </row>
     <row r="20">
@@ -5728,76 +5728,76 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>753.8645437984904</v>
+        <v>163.8042159450672</v>
       </c>
       <c r="C20" t="n">
-        <v>753.8645437984904</v>
+        <v>36.27616607839228</v>
       </c>
       <c r="D20" t="n">
-        <v>330.5719229834907</v>
+        <v>36.27616607839228</v>
       </c>
       <c r="E20" t="n">
-        <v>36.27616607839226</v>
+        <v>36.27616607839228</v>
       </c>
       <c r="F20" t="n">
-        <v>36.27616607839226</v>
+        <v>36.27616607839228</v>
       </c>
       <c r="G20" t="n">
-        <v>36.27616607839226</v>
+        <v>36.27616607839228</v>
       </c>
       <c r="H20" t="n">
-        <v>36.27616607839226</v>
+        <v>36.27616607839228</v>
       </c>
       <c r="I20" t="n">
-        <v>68.08893453872668</v>
+        <v>68.08893453872679</v>
       </c>
       <c r="J20" t="n">
         <v>184.2963411149079</v>
       </c>
       <c r="K20" t="n">
-        <v>366.7061291250297</v>
+        <v>366.7061291250299</v>
       </c>
       <c r="L20" t="n">
-        <v>598.9981372303098</v>
+        <v>598.9981372303102</v>
       </c>
       <c r="M20" t="n">
-        <v>862.6140377103477</v>
+        <v>862.6140377103482</v>
       </c>
       <c r="N20" t="n">
-        <v>1131.245262923651</v>
+        <v>1131.245262923652</v>
       </c>
       <c r="O20" t="n">
-        <v>1382.739131455146</v>
+        <v>1382.739131455147</v>
       </c>
       <c r="P20" t="n">
-        <v>1591.776917090909</v>
+        <v>1591.77691709091</v>
       </c>
       <c r="Q20" t="n">
-        <v>1740.927517189219</v>
+        <v>1740.92751718922</v>
       </c>
       <c r="R20" t="n">
-        <v>1813.808303919613</v>
+        <v>1813.808303919614</v>
       </c>
       <c r="S20" t="n">
-        <v>1813.808303919613</v>
+        <v>1749.253343642254</v>
       </c>
       <c r="T20" t="n">
-        <v>1813.808303919613</v>
+        <v>1749.253343642254</v>
       </c>
       <c r="U20" t="n">
-        <v>1555.593163543253</v>
+        <v>1749.253343642254</v>
       </c>
       <c r="V20" t="n">
-        <v>1555.593163543253</v>
+        <v>1391.763928768503</v>
       </c>
       <c r="W20" t="n">
-        <v>1159.2018138436</v>
+        <v>995.37257906885</v>
       </c>
       <c r="X20" t="n">
-        <v>1159.2018138436</v>
+        <v>583.6525802365973</v>
       </c>
       <c r="Y20" t="n">
-        <v>753.8645437984904</v>
+        <v>583.6525802365973</v>
       </c>
     </row>
     <row r="21">
@@ -5813,43 +5813,43 @@
         <v>475.930883860742</v>
       </c>
       <c r="D21" t="n">
-        <v>372.090925376027</v>
+        <v>372.0909253760271</v>
       </c>
       <c r="E21" t="n">
-        <v>267.3889916489642</v>
+        <v>267.3889916489643</v>
       </c>
       <c r="F21" t="n">
         <v>173.7431613318684</v>
       </c>
       <c r="G21" t="n">
-        <v>80.62417733004327</v>
+        <v>80.62417733004328</v>
       </c>
       <c r="H21" t="n">
-        <v>36.27616607839226</v>
+        <v>36.27616607839228</v>
       </c>
       <c r="I21" t="n">
-        <v>75.26691519968657</v>
+        <v>75.26691519968659</v>
       </c>
       <c r="J21" t="n">
-        <v>141.4213503255155</v>
+        <v>141.4213503255156</v>
       </c>
       <c r="K21" t="n">
-        <v>267.1899758967555</v>
+        <v>267.1899758967556</v>
       </c>
       <c r="L21" t="n">
-        <v>565.9600985929704</v>
+        <v>443.8288267274046</v>
       </c>
       <c r="M21" t="n">
-        <v>1014.877653813075</v>
+        <v>653.1035252084196</v>
       </c>
       <c r="N21" t="n">
-        <v>1232.032635645391</v>
+        <v>870.2585070407358</v>
       </c>
       <c r="O21" t="n">
-        <v>1427.076302632877</v>
+        <v>1065.302174028222</v>
       </c>
       <c r="P21" t="n">
-        <v>1580.47441747923</v>
+        <v>1225.987570233631</v>
       </c>
       <c r="Q21" t="n">
         <v>1674.905125453736</v>
@@ -5886,76 +5886,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>879.8832665156074</v>
+        <v>208.2487291994763</v>
       </c>
       <c r="C22" t="n">
-        <v>707.9107033945234</v>
+        <v>36.27616607839228</v>
       </c>
       <c r="D22" t="n">
-        <v>544.5939305212941</v>
+        <v>36.27616607839228</v>
       </c>
       <c r="E22" t="n">
-        <v>378.3857246741476</v>
+        <v>36.27616607839228</v>
       </c>
       <c r="F22" t="n">
-        <v>206.523950448708</v>
+        <v>36.27616607839228</v>
       </c>
       <c r="G22" t="n">
-        <v>41.05067541661398</v>
+        <v>36.27616607839228</v>
       </c>
       <c r="H22" t="n">
-        <v>36.27616607839226</v>
+        <v>36.27616607839228</v>
       </c>
       <c r="I22" t="n">
-        <v>36.27616607839226</v>
+        <v>36.27616607839228</v>
       </c>
       <c r="J22" t="n">
-        <v>70.15038753583892</v>
+        <v>148.0721041840598</v>
       </c>
       <c r="K22" t="n">
-        <v>138.6345353799611</v>
+        <v>463.838861142204</v>
       </c>
       <c r="L22" t="n">
-        <v>356.3700675499415</v>
+        <v>912.7564163623085</v>
       </c>
       <c r="M22" t="n">
-        <v>805.2876227700457</v>
+        <v>1055.701197344776</v>
       </c>
       <c r="N22" t="n">
-        <v>1254.20517799015</v>
+        <v>1152.699903436724</v>
       </c>
       <c r="O22" t="n">
-        <v>1703.122733210254</v>
+        <v>1238.993031259049</v>
       </c>
       <c r="P22" t="n">
-        <v>1773.86384135139</v>
+        <v>1622.490343973492</v>
       </c>
       <c r="Q22" t="n">
-        <v>1813.808303919613</v>
+        <v>1813.808303919614</v>
       </c>
       <c r="R22" t="n">
-        <v>1813.808303919613</v>
+        <v>1813.808303919614</v>
       </c>
       <c r="S22" t="n">
-        <v>1813.808303919613</v>
+        <v>1813.808303919614</v>
       </c>
       <c r="T22" t="n">
-        <v>1813.808303919613</v>
+        <v>1704.026935512948</v>
       </c>
       <c r="U22" t="n">
-        <v>1813.808303919613</v>
+        <v>1423.885233995453</v>
       </c>
       <c r="V22" t="n">
-        <v>1813.808303919613</v>
+        <v>1142.173766603482</v>
       </c>
       <c r="W22" t="n">
-        <v>1538.955900092126</v>
+        <v>867.3213627759948</v>
       </c>
       <c r="X22" t="n">
-        <v>1296.392003537931</v>
+        <v>624.7574662217999</v>
       </c>
       <c r="Y22" t="n">
-        <v>1070.049235227673</v>
+        <v>398.4146979115419</v>
       </c>
     </row>
     <row r="23">
@@ -5965,37 +5965,37 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>750.1397428930086</v>
+        <v>929.528505807124</v>
       </c>
       <c r="C23" t="n">
-        <v>323.2390129063086</v>
+        <v>725.3547568383187</v>
       </c>
       <c r="D23" t="n">
-        <v>323.2390129063086</v>
+        <v>725.3547568383187</v>
       </c>
       <c r="E23" t="n">
-        <v>323.2390129063086</v>
+        <v>725.3547568383187</v>
       </c>
       <c r="F23" t="n">
-        <v>323.2390129063086</v>
+        <v>725.3547568383187</v>
       </c>
       <c r="G23" t="n">
         <v>323.2390129063086</v>
       </c>
       <c r="H23" t="n">
-        <v>48.14019474870374</v>
+        <v>48.14019474870373</v>
       </c>
       <c r="I23" t="n">
         <v>97.94653860982544</v>
       </c>
       <c r="J23" t="n">
-        <v>253.7669980404928</v>
+        <v>253.766998040493</v>
       </c>
       <c r="K23" t="n">
-        <v>495.5464836548663</v>
+        <v>495.5464836548665</v>
       </c>
       <c r="L23" t="n">
-        <v>801.4918514659959</v>
+        <v>801.491851465996</v>
       </c>
       <c r="M23" t="n">
         <v>1147.061306101886</v>
@@ -6004,10 +6004,10 @@
         <v>1498.972179657087</v>
       </c>
       <c r="O23" t="n">
-        <v>1829.10465858504</v>
+        <v>1829.104658585039</v>
       </c>
       <c r="P23" t="n">
-        <v>2105.258678825627</v>
+        <v>2105.258678825626</v>
       </c>
       <c r="Q23" t="n">
         <v>2304.810775987986</v>
@@ -6016,25 +6016,25 @@
         <v>2407.009737435187</v>
       </c>
       <c r="S23" t="n">
-        <v>2407.009737435187</v>
+        <v>2353.306313138085</v>
       </c>
       <c r="T23" t="n">
-        <v>2195.816743119634</v>
+        <v>2353.306313138085</v>
       </c>
       <c r="U23" t="n">
-        <v>1937.63969919433</v>
+        <v>2095.12926921278</v>
       </c>
       <c r="V23" t="n">
-        <v>1580.150284320579</v>
+        <v>1737.63985433903</v>
       </c>
       <c r="W23" t="n">
-        <v>1183.758934620926</v>
+        <v>1341.248504639377</v>
       </c>
       <c r="X23" t="n">
-        <v>772.0389357886736</v>
+        <v>929.528505807124</v>
       </c>
       <c r="Y23" t="n">
-        <v>750.1397428930086</v>
+        <v>929.528505807124</v>
       </c>
     </row>
     <row r="24">
@@ -6062,34 +6062,34 @@
         <v>90.0274470588021</v>
       </c>
       <c r="H24" t="n">
-        <v>48.14019474870374</v>
+        <v>48.14019474870373</v>
       </c>
       <c r="I24" t="n">
-        <v>72.27152641483855</v>
+        <v>95.72883225925038</v>
       </c>
       <c r="J24" t="n">
-        <v>234.7717962367439</v>
+        <v>185.4765302886316</v>
       </c>
       <c r="K24" t="n">
-        <v>400.8650659897805</v>
+        <v>351.5698000416682</v>
       </c>
       <c r="L24" t="n">
-        <v>631.7253772930329</v>
+        <v>582.4301113449205</v>
       </c>
       <c r="M24" t="n">
-        <v>904.2739626845075</v>
+        <v>854.978696736395</v>
       </c>
       <c r="N24" t="n">
-        <v>1186.377502936477</v>
+        <v>1137.082236988364</v>
       </c>
       <c r="O24" t="n">
-        <v>1440.836412147119</v>
+        <v>1391.541146199006</v>
       </c>
       <c r="P24" t="n">
-        <v>1641.920497017837</v>
+        <v>1592.625231069724</v>
       </c>
       <c r="Q24" t="n">
-        <v>1768.228013104547</v>
+        <v>1718.932747156434</v>
       </c>
       <c r="R24" t="n">
         <v>1817.180367468736</v>
@@ -6123,13 +6123,13 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>935.9190239132396</v>
+        <v>801.1217542828867</v>
       </c>
       <c r="C25" t="n">
-        <v>919.4928545964924</v>
+        <v>629.1491911618027</v>
       </c>
       <c r="D25" t="n">
-        <v>756.1760817232631</v>
+        <v>629.1491911618027</v>
       </c>
       <c r="E25" t="n">
         <v>589.9678758761166</v>
@@ -6141,31 +6141,31 @@
         <v>252.8464360739105</v>
       </c>
       <c r="H25" t="n">
-        <v>117.9171079290045</v>
+        <v>117.9171079290044</v>
       </c>
       <c r="I25" t="n">
-        <v>48.14019474870374</v>
+        <v>48.14019474870373</v>
       </c>
       <c r="J25" t="n">
         <v>174.7377877950434</v>
       </c>
       <c r="K25" t="n">
-        <v>267.5456015954198</v>
+        <v>514.8282107094419</v>
       </c>
       <c r="L25" t="n">
-        <v>391.1673427745608</v>
+        <v>1014.838845479748</v>
       </c>
       <c r="M25" t="n">
-        <v>935.5740872534755</v>
+        <v>1145.71010949584</v>
       </c>
       <c r="N25" t="n">
-        <v>1462.64329592452</v>
+        <v>1295.755217868741</v>
       </c>
       <c r="O25" t="n">
-        <v>1956.23063836991</v>
+        <v>1789.342560314131</v>
       </c>
       <c r="P25" t="n">
-        <v>2198.160847354241</v>
+        <v>2198.16084735424</v>
       </c>
       <c r="Q25" t="n">
         <v>2407.009737435187</v>
@@ -6180,19 +6180,19 @@
         <v>2015.176841779552</v>
       </c>
       <c r="U25" t="n">
-        <v>1735.046791686893</v>
+        <v>1735.046791686892</v>
       </c>
       <c r="V25" t="n">
-        <v>1453.335324294922</v>
+        <v>1735.046791686892</v>
       </c>
       <c r="W25" t="n">
-        <v>1178.482920467434</v>
+        <v>1460.194387859405</v>
       </c>
       <c r="X25" t="n">
-        <v>935.9190239132396</v>
+        <v>1217.63049130521</v>
       </c>
       <c r="Y25" t="n">
-        <v>935.9190239132396</v>
+        <v>991.2877229949524</v>
       </c>
     </row>
     <row r="26">
@@ -6202,37 +6202,37 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>900.1651065460035</v>
+        <v>1106.598495731948</v>
       </c>
       <c r="C26" t="n">
-        <v>473.2643765593035</v>
+        <v>1106.598495731948</v>
       </c>
       <c r="D26" t="n">
-        <v>473.2643765593035</v>
+        <v>1106.598495731948</v>
       </c>
       <c r="E26" t="n">
-        <v>473.2643765593035</v>
+        <v>1106.598495731948</v>
       </c>
       <c r="F26" t="n">
-        <v>48.14019474870373</v>
+        <v>725.3547568383187</v>
       </c>
       <c r="G26" t="n">
-        <v>48.14019474870373</v>
+        <v>323.2390129063086</v>
       </c>
       <c r="H26" t="n">
-        <v>48.14019474870373</v>
+        <v>48.14019474870374</v>
       </c>
       <c r="I26" t="n">
-        <v>97.94653860982552</v>
+        <v>97.94653860982544</v>
       </c>
       <c r="J26" t="n">
-        <v>253.766998040493</v>
+        <v>253.7669980404929</v>
       </c>
       <c r="K26" t="n">
-        <v>495.5464836548658</v>
+        <v>495.5464836548662</v>
       </c>
       <c r="L26" t="n">
-        <v>801.4918514659953</v>
+        <v>801.4918514659956</v>
       </c>
       <c r="M26" t="n">
         <v>1147.061306101886</v>
@@ -6241,7 +6241,7 @@
         <v>1498.972179657087</v>
       </c>
       <c r="O26" t="n">
-        <v>1829.104658585039</v>
+        <v>1829.10465858504</v>
       </c>
       <c r="P26" t="n">
         <v>2105.258678825626</v>
@@ -6256,22 +6256,22 @@
         <v>2353.306313138085</v>
       </c>
       <c r="T26" t="n">
-        <v>2353.306313138085</v>
+        <v>2142.113318822533</v>
       </c>
       <c r="U26" t="n">
-        <v>2353.306313138085</v>
+        <v>1883.936274897228</v>
       </c>
       <c r="V26" t="n">
-        <v>1995.816898264334</v>
+        <v>1526.446860023478</v>
       </c>
       <c r="W26" t="n">
-        <v>1995.816898264334</v>
+        <v>1526.446860023478</v>
       </c>
       <c r="X26" t="n">
-        <v>1725.350740882643</v>
+        <v>1526.446860023478</v>
       </c>
       <c r="Y26" t="n">
-        <v>1320.013470837534</v>
+        <v>1526.446860023478</v>
       </c>
     </row>
     <row r="27">
@@ -6299,34 +6299,34 @@
         <v>90.0274470588021</v>
       </c>
       <c r="H27" t="n">
-        <v>48.14019474870373</v>
+        <v>48.14019474870374</v>
       </c>
       <c r="I27" t="n">
         <v>72.27152641483855</v>
       </c>
       <c r="J27" t="n">
-        <v>162.0192244442198</v>
+        <v>234.7717962367441</v>
       </c>
       <c r="K27" t="n">
-        <v>328.1124941972564</v>
+        <v>400.8650659897807</v>
       </c>
       <c r="L27" t="n">
-        <v>558.9728055005088</v>
+        <v>631.725377293033</v>
       </c>
       <c r="M27" t="n">
-        <v>831.5213908919834</v>
+        <v>904.2739626845076</v>
       </c>
       <c r="N27" t="n">
-        <v>1113.624931143952</v>
+        <v>1186.377502936477</v>
       </c>
       <c r="O27" t="n">
-        <v>1368.083840354595</v>
+        <v>1440.836412147119</v>
       </c>
       <c r="P27" t="n">
-        <v>1569.167925225313</v>
+        <v>1641.920497017837</v>
       </c>
       <c r="Q27" t="n">
-        <v>1695.475441312022</v>
+        <v>1768.228013104547</v>
       </c>
       <c r="R27" t="n">
         <v>1817.180367468736</v>
@@ -6360,76 +6360,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>672.1650433236384</v>
+        <v>798.9255611704316</v>
       </c>
       <c r="C28" t="n">
-        <v>500.1924802025544</v>
+        <v>626.9529980493476</v>
       </c>
       <c r="D28" t="n">
-        <v>336.8757073293251</v>
+        <v>551.4698403980562</v>
       </c>
       <c r="E28" t="n">
-        <v>170.6675014821787</v>
+        <v>385.2616345509098</v>
       </c>
       <c r="F28" t="n">
-        <v>48.14019474870373</v>
+        <v>213.3998603254702</v>
       </c>
       <c r="G28" t="n">
-        <v>48.14019474870373</v>
+        <v>48.14019474870374</v>
       </c>
       <c r="H28" t="n">
-        <v>48.14019474870373</v>
+        <v>48.14019474870374</v>
       </c>
       <c r="I28" t="n">
-        <v>48.14019474870373</v>
+        <v>48.14019474870374</v>
       </c>
       <c r="J28" t="n">
-        <v>174.7377877950434</v>
+        <v>96.81607114682254</v>
       </c>
       <c r="K28" t="n">
-        <v>514.8282107094419</v>
+        <v>189.6238849471989</v>
       </c>
       <c r="L28" t="n">
-        <v>1014.838845479748</v>
+        <v>688.4089666699895</v>
       </c>
       <c r="M28" t="n">
-        <v>1232.815711148903</v>
+        <v>1232.815711148904</v>
       </c>
       <c r="N28" t="n">
-        <v>1759.884919819948</v>
+        <v>1759.884919819949</v>
       </c>
       <c r="O28" t="n">
         <v>2253.472262265338</v>
       </c>
       <c r="P28" t="n">
-        <v>2349.534344732139</v>
+        <v>2349.53434473214</v>
       </c>
       <c r="Q28" t="n">
         <v>2407.009737435187</v>
       </c>
       <c r="R28" t="n">
-        <v>2407.009737435187</v>
+        <v>2404.813544322732</v>
       </c>
       <c r="S28" t="n">
-        <v>2407.009737435187</v>
+        <v>2252.058787890009</v>
       </c>
       <c r="T28" t="n">
-        <v>2167.931598212274</v>
+        <v>2012.980648667096</v>
       </c>
       <c r="U28" t="n">
-        <v>1887.801548119615</v>
+        <v>1732.850598574437</v>
       </c>
       <c r="V28" t="n">
-        <v>1606.090080727644</v>
+        <v>1732.850598574437</v>
       </c>
       <c r="W28" t="n">
-        <v>1331.237676900157</v>
+        <v>1457.99819474695</v>
       </c>
       <c r="X28" t="n">
-        <v>1088.673780345962</v>
+        <v>1215.434298192755</v>
       </c>
       <c r="Y28" t="n">
-        <v>862.3310120357041</v>
+        <v>989.0915298824973</v>
       </c>
     </row>
     <row r="29">
@@ -6439,34 +6439,34 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>1193.561118858171</v>
+        <v>725.3547568383187</v>
       </c>
       <c r="C29" t="n">
-        <v>766.6603888714712</v>
+        <v>725.3547568383187</v>
       </c>
       <c r="D29" t="n">
-        <v>343.3677680564715</v>
+        <v>725.3547568383187</v>
       </c>
       <c r="E29" t="n">
-        <v>48.14019474870373</v>
+        <v>725.3547568383187</v>
       </c>
       <c r="F29" t="n">
-        <v>48.14019474870373</v>
+        <v>725.3547568383187</v>
       </c>
       <c r="G29" t="n">
-        <v>48.14019474870373</v>
+        <v>323.2390129063086</v>
       </c>
       <c r="H29" t="n">
         <v>48.14019474870373</v>
       </c>
       <c r="I29" t="n">
-        <v>97.94653860982567</v>
+        <v>97.94653860982544</v>
       </c>
       <c r="J29" t="n">
         <v>253.766998040493</v>
       </c>
       <c r="K29" t="n">
-        <v>495.5464836548664</v>
+        <v>495.5464836548665</v>
       </c>
       <c r="L29" t="n">
         <v>801.491851465996</v>
@@ -6490,25 +6490,25 @@
         <v>2407.009737435187</v>
       </c>
       <c r="S29" t="n">
-        <v>2407.009737435187</v>
+        <v>2353.306313138085</v>
       </c>
       <c r="T29" t="n">
-        <v>2407.009737435187</v>
+        <v>2142.113318822532</v>
       </c>
       <c r="U29" t="n">
-        <v>2407.009737435187</v>
+        <v>1883.936274897228</v>
       </c>
       <c r="V29" t="n">
-        <v>2407.009737435187</v>
+        <v>1526.446860023477</v>
       </c>
       <c r="W29" t="n">
-        <v>2010.618387735534</v>
+        <v>1130.055510323824</v>
       </c>
       <c r="X29" t="n">
-        <v>1598.898388903281</v>
+        <v>725.3547568383187</v>
       </c>
       <c r="Y29" t="n">
-        <v>1193.561118858171</v>
+        <v>725.3547568383187</v>
       </c>
     </row>
     <row r="30">
@@ -6542,28 +6542,28 @@
         <v>72.27152641483853</v>
       </c>
       <c r="J30" t="n">
-        <v>234.7717962367441</v>
+        <v>162.0192244442197</v>
       </c>
       <c r="K30" t="n">
-        <v>400.8650659897807</v>
+        <v>328.1124941972564</v>
       </c>
       <c r="L30" t="n">
-        <v>631.725377293033</v>
+        <v>558.9728055005087</v>
       </c>
       <c r="M30" t="n">
-        <v>904.2739626845076</v>
+        <v>831.5213908919832</v>
       </c>
       <c r="N30" t="n">
-        <v>1186.377502936477</v>
+        <v>1113.624931143952</v>
       </c>
       <c r="O30" t="n">
-        <v>1440.836412147119</v>
+        <v>1368.083840354594</v>
       </c>
       <c r="P30" t="n">
-        <v>1641.920497017837</v>
+        <v>1569.167925225312</v>
       </c>
       <c r="Q30" t="n">
-        <v>1768.228013104547</v>
+        <v>1695.475441312022</v>
       </c>
       <c r="R30" t="n">
         <v>1817.180367468736</v>
@@ -6624,22 +6624,22 @@
         <v>174.7377877950434</v>
       </c>
       <c r="K31" t="n">
-        <v>413.4137281129489</v>
+        <v>514.8282107094419</v>
       </c>
       <c r="L31" t="n">
-        <v>537.0354692920898</v>
+        <v>1014.838845479748</v>
       </c>
       <c r="M31" t="n">
-        <v>1081.442213771004</v>
+        <v>1559.245589958662</v>
       </c>
       <c r="N31" t="n">
-        <v>1608.511422442049</v>
+        <v>1759.884919819948</v>
       </c>
       <c r="O31" t="n">
-        <v>2102.098764887439</v>
+        <v>2253.472262265338</v>
       </c>
       <c r="P31" t="n">
-        <v>2198.16084735424</v>
+        <v>2349.534344732139</v>
       </c>
       <c r="Q31" t="n">
         <v>2407.009737435187</v>
@@ -6654,16 +6654,16 @@
         <v>2012.980648667096</v>
       </c>
       <c r="U31" t="n">
-        <v>1732.850598574437</v>
+        <v>2012.980648667096</v>
       </c>
       <c r="V31" t="n">
-        <v>1451.139131182465</v>
+        <v>1750.538051294095</v>
       </c>
       <c r="W31" t="n">
-        <v>1451.139131182465</v>
+        <v>1750.538051294095</v>
       </c>
       <c r="X31" t="n">
-        <v>1451.139131182465</v>
+        <v>1507.9741547399</v>
       </c>
       <c r="Y31" t="n">
         <v>1281.631386429642</v>
@@ -6676,19 +6676,19 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>601.4216950769913</v>
+        <v>450.2559386807139</v>
       </c>
       <c r="C32" t="n">
-        <v>174.5209650902914</v>
+        <v>450.2559386807139</v>
       </c>
       <c r="D32" t="n">
-        <v>48.14019474870374</v>
+        <v>450.2559386807139</v>
       </c>
       <c r="E32" t="n">
-        <v>48.14019474870374</v>
+        <v>450.2559386807139</v>
       </c>
       <c r="F32" t="n">
-        <v>48.14019474870374</v>
+        <v>450.2559386807139</v>
       </c>
       <c r="G32" t="n">
         <v>48.14019474870374</v>
@@ -6697,16 +6697,16 @@
         <v>48.14019474870374</v>
       </c>
       <c r="I32" t="n">
-        <v>97.94653860982544</v>
+        <v>97.94653860982589</v>
       </c>
       <c r="J32" t="n">
-        <v>253.7669980404929</v>
+        <v>253.7669980404939</v>
       </c>
       <c r="K32" t="n">
-        <v>495.5464836548662</v>
+        <v>495.5464836548672</v>
       </c>
       <c r="L32" t="n">
-        <v>801.4918514659956</v>
+        <v>801.4918514659968</v>
       </c>
       <c r="M32" t="n">
         <v>1147.061306101887</v>
@@ -6718,7 +6718,7 @@
         <v>1829.10465858504</v>
       </c>
       <c r="P32" t="n">
-        <v>2105.258678825626</v>
+        <v>2105.258678825627</v>
       </c>
       <c r="Q32" t="n">
         <v>2304.810775987986</v>
@@ -6727,25 +6727,25 @@
         <v>2407.009737435187</v>
       </c>
       <c r="S32" t="n">
-        <v>2407.009737435187</v>
+        <v>2353.306313138085</v>
       </c>
       <c r="T32" t="n">
-        <v>2195.816743119634</v>
+        <v>2142.113318822533</v>
       </c>
       <c r="U32" t="n">
-        <v>2195.816743119634</v>
+        <v>1883.936274897228</v>
       </c>
       <c r="V32" t="n">
-        <v>1838.327328245884</v>
+        <v>1526.446860023478</v>
       </c>
       <c r="W32" t="n">
-        <v>1838.327328245884</v>
+        <v>1130.055510323825</v>
       </c>
       <c r="X32" t="n">
-        <v>1426.607329413631</v>
+        <v>718.3355114915719</v>
       </c>
       <c r="Y32" t="n">
-        <v>1021.270059368521</v>
+        <v>450.2559386807139</v>
       </c>
     </row>
     <row r="33">
@@ -6834,76 +6834,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>952.2950934162982</v>
+        <v>950.0989003038426</v>
       </c>
       <c r="C34" t="n">
-        <v>780.3225302952142</v>
+        <v>778.1263371827586</v>
       </c>
       <c r="D34" t="n">
-        <v>617.0057574219849</v>
+        <v>614.8095643095293</v>
       </c>
       <c r="E34" t="n">
-        <v>450.7975515748384</v>
+        <v>520.1909626958159</v>
       </c>
       <c r="F34" t="n">
-        <v>418.106101650677</v>
+        <v>348.3291884703763</v>
       </c>
       <c r="G34" t="n">
-        <v>252.8464360739105</v>
+        <v>183.0695228936098</v>
       </c>
       <c r="H34" t="n">
-        <v>117.9171079290045</v>
+        <v>48.14019474870374</v>
       </c>
       <c r="I34" t="n">
         <v>48.14019474870374</v>
       </c>
       <c r="J34" t="n">
-        <v>96.81607114682254</v>
+        <v>174.7377877950434</v>
       </c>
       <c r="K34" t="n">
-        <v>189.6238849471989</v>
+        <v>514.8282107094419</v>
       </c>
       <c r="L34" t="n">
-        <v>688.4089666699895</v>
+        <v>1014.838845479748</v>
       </c>
       <c r="M34" t="n">
-        <v>1232.815711148904</v>
+        <v>1145.71010949584</v>
       </c>
       <c r="N34" t="n">
-        <v>1759.884919819949</v>
+        <v>1672.779318166885</v>
       </c>
       <c r="O34" t="n">
-        <v>2253.472262265338</v>
+        <v>1789.342560314132</v>
       </c>
       <c r="P34" t="n">
-        <v>2349.53434473214</v>
+        <v>2198.160847354241</v>
       </c>
       <c r="Q34" t="n">
         <v>2407.009737435187</v>
       </c>
       <c r="R34" t="n">
-        <v>2407.009737435187</v>
+        <v>2404.813544322732</v>
       </c>
       <c r="S34" t="n">
-        <v>2407.009737435187</v>
+        <v>2404.813544322732</v>
       </c>
       <c r="T34" t="n">
-        <v>2167.931598212275</v>
+        <v>2165.735405099819</v>
       </c>
       <c r="U34" t="n">
-        <v>2167.931598212275</v>
+        <v>2165.735405099819</v>
       </c>
       <c r="V34" t="n">
-        <v>1886.220130820304</v>
+        <v>1884.023937707848</v>
       </c>
       <c r="W34" t="n">
-        <v>1611.367726992817</v>
+        <v>1609.171533880361</v>
       </c>
       <c r="X34" t="n">
-        <v>1368.803830438622</v>
+        <v>1366.607637326166</v>
       </c>
       <c r="Y34" t="n">
-        <v>1142.461062128364</v>
+        <v>1140.264869015908</v>
       </c>
     </row>
     <row r="35">
@@ -6913,16 +6913,16 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>983.2319301042262</v>
+        <v>1324.310485402546</v>
       </c>
       <c r="C35" t="n">
-        <v>556.3312001175264</v>
+        <v>897.4097554158459</v>
       </c>
       <c r="D35" t="n">
-        <v>556.3312001175264</v>
+        <v>474.1171346008462</v>
       </c>
       <c r="E35" t="n">
-        <v>130.3542602653839</v>
+        <v>48.14019474870374</v>
       </c>
       <c r="F35" t="n">
         <v>48.14019474870374</v>
@@ -6934,25 +6934,25 @@
         <v>48.14019474870374</v>
       </c>
       <c r="I35" t="n">
-        <v>97.94653860982589</v>
+        <v>97.94653860982544</v>
       </c>
       <c r="J35" t="n">
-        <v>253.7669980404935</v>
+        <v>253.7669980404926</v>
       </c>
       <c r="K35" t="n">
-        <v>495.5464836548667</v>
+        <v>495.5464836548661</v>
       </c>
       <c r="L35" t="n">
-        <v>801.4918514659964</v>
+        <v>801.4918514659955</v>
       </c>
       <c r="M35" t="n">
         <v>1147.061306101886</v>
       </c>
       <c r="N35" t="n">
-        <v>1498.972179657088</v>
+        <v>1498.972179657087</v>
       </c>
       <c r="O35" t="n">
-        <v>1829.10465858504</v>
+        <v>1829.104658585039</v>
       </c>
       <c r="P35" t="n">
         <v>2105.258678825626</v>
@@ -6964,25 +6964,25 @@
         <v>2407.009737435187</v>
       </c>
       <c r="S35" t="n">
-        <v>2407.009737435187</v>
+        <v>2353.306313138085</v>
       </c>
       <c r="T35" t="n">
-        <v>2407.009737435187</v>
+        <v>2353.306313138085</v>
       </c>
       <c r="U35" t="n">
-        <v>2148.832693509883</v>
+        <v>2353.306313138085</v>
       </c>
       <c r="V35" t="n">
-        <v>1791.343278636132</v>
+        <v>2353.306313138085</v>
       </c>
       <c r="W35" t="n">
-        <v>1394.951928936479</v>
+        <v>2353.306313138085</v>
       </c>
       <c r="X35" t="n">
-        <v>983.2319301042262</v>
+        <v>2149.496119739185</v>
       </c>
       <c r="Y35" t="n">
-        <v>983.2319301042262</v>
+        <v>1744.158849694076</v>
       </c>
     </row>
     <row r="36">
@@ -7016,28 +7016,28 @@
         <v>72.27152641483855</v>
       </c>
       <c r="J36" t="n">
-        <v>234.7717962367441</v>
+        <v>162.0192244442197</v>
       </c>
       <c r="K36" t="n">
-        <v>400.8650659897807</v>
+        <v>328.1124941972564</v>
       </c>
       <c r="L36" t="n">
-        <v>631.725377293033</v>
+        <v>558.9728055005087</v>
       </c>
       <c r="M36" t="n">
-        <v>904.2739626845076</v>
+        <v>831.5213908919832</v>
       </c>
       <c r="N36" t="n">
-        <v>1186.377502936477</v>
+        <v>1113.624931143952</v>
       </c>
       <c r="O36" t="n">
-        <v>1440.836412147119</v>
+        <v>1368.083840354594</v>
       </c>
       <c r="P36" t="n">
-        <v>1641.920497017837</v>
+        <v>1569.167925225312</v>
       </c>
       <c r="Q36" t="n">
-        <v>1768.228013104547</v>
+        <v>1695.475441312022</v>
       </c>
       <c r="R36" t="n">
         <v>1817.180367468736</v>
@@ -7071,49 +7071,49 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>798.9255611704316</v>
+        <v>517.2140937784604</v>
       </c>
       <c r="C37" t="n">
-        <v>626.9529980493476</v>
+        <v>345.2415306573764</v>
       </c>
       <c r="D37" t="n">
-        <v>463.6362251761183</v>
+        <v>345.2415306573764</v>
       </c>
       <c r="E37" t="n">
-        <v>297.4280193289718</v>
+        <v>345.2415306573764</v>
       </c>
       <c r="F37" t="n">
-        <v>125.5662451035322</v>
+        <v>345.2415306573764</v>
       </c>
       <c r="G37" t="n">
-        <v>117.9171079290045</v>
+        <v>179.9818650806099</v>
       </c>
       <c r="H37" t="n">
-        <v>117.9171079290045</v>
+        <v>48.14019474870374</v>
       </c>
       <c r="I37" t="n">
         <v>48.14019474870374</v>
       </c>
       <c r="J37" t="n">
-        <v>174.7377877950434</v>
+        <v>96.81607114682254</v>
       </c>
       <c r="K37" t="n">
-        <v>514.8282107094419</v>
+        <v>189.6238849471989</v>
       </c>
       <c r="L37" t="n">
-        <v>1000.014511863866</v>
+        <v>688.4089666699895</v>
       </c>
       <c r="M37" t="n">
-        <v>1544.42125634278</v>
+        <v>1232.815711148904</v>
       </c>
       <c r="N37" t="n">
-        <v>1673.457542171945</v>
+        <v>1759.884919819949</v>
       </c>
       <c r="O37" t="n">
-        <v>1789.342560314132</v>
+        <v>2253.472262265338</v>
       </c>
       <c r="P37" t="n">
-        <v>2198.160847354241</v>
+        <v>2349.53434473214</v>
       </c>
       <c r="Q37" t="n">
         <v>2407.009737435187</v>
@@ -7131,16 +7131,16 @@
         <v>1732.850598574437</v>
       </c>
       <c r="V37" t="n">
-        <v>1732.850598574437</v>
+        <v>1451.139131182466</v>
       </c>
       <c r="W37" t="n">
-        <v>1457.99819474695</v>
+        <v>1176.286727354979</v>
       </c>
       <c r="X37" t="n">
-        <v>1215.434298192755</v>
+        <v>933.722830800784</v>
       </c>
       <c r="Y37" t="n">
-        <v>989.0915298824973</v>
+        <v>707.380062490526</v>
       </c>
     </row>
     <row r="38">
@@ -7150,13 +7150,13 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>450.2559386807139</v>
+        <v>1299.525499347856</v>
       </c>
       <c r="C38" t="n">
-        <v>450.2559386807139</v>
+        <v>1299.525499347856</v>
       </c>
       <c r="D38" t="n">
-        <v>450.2559386807139</v>
+        <v>876.2328785328564</v>
       </c>
       <c r="E38" t="n">
         <v>450.2559386807139</v>
@@ -7165,22 +7165,22 @@
         <v>450.2559386807139</v>
       </c>
       <c r="G38" t="n">
-        <v>48.14019474870373</v>
+        <v>48.14019474870374</v>
       </c>
       <c r="H38" t="n">
-        <v>48.14019474870373</v>
+        <v>48.14019474870374</v>
       </c>
       <c r="I38" t="n">
-        <v>97.94653860982552</v>
+        <v>97.94653860982544</v>
       </c>
       <c r="J38" t="n">
-        <v>253.7669980404929</v>
+        <v>253.7669980404926</v>
       </c>
       <c r="K38" t="n">
-        <v>495.5464836548663</v>
+        <v>495.5464836548661</v>
       </c>
       <c r="L38" t="n">
-        <v>801.4918514659958</v>
+        <v>801.4918514659955</v>
       </c>
       <c r="M38" t="n">
         <v>1147.061306101886</v>
@@ -7204,22 +7204,22 @@
         <v>2353.306313138085</v>
       </c>
       <c r="T38" t="n">
-        <v>2142.113318822532</v>
+        <v>2353.306313138085</v>
       </c>
       <c r="U38" t="n">
-        <v>1883.936274897228</v>
+        <v>2353.306313138085</v>
       </c>
       <c r="V38" t="n">
-        <v>1526.446860023477</v>
+        <v>2353.306313138085</v>
       </c>
       <c r="W38" t="n">
-        <v>1130.055510323824</v>
+        <v>1956.914963438432</v>
       </c>
       <c r="X38" t="n">
-        <v>718.3355114915714</v>
+        <v>1545.19496460618</v>
       </c>
       <c r="Y38" t="n">
-        <v>450.2559386807139</v>
+        <v>1545.19496460618</v>
       </c>
     </row>
     <row r="39">
@@ -7247,34 +7247,34 @@
         <v>90.0274470588021</v>
       </c>
       <c r="H39" t="n">
-        <v>48.14019474870373</v>
+        <v>48.14019474870374</v>
       </c>
       <c r="I39" t="n">
-        <v>72.27152641483853</v>
+        <v>72.27152641483855</v>
       </c>
       <c r="J39" t="n">
-        <v>234.7717962367441</v>
+        <v>162.0192244442197</v>
       </c>
       <c r="K39" t="n">
-        <v>400.8650659897807</v>
+        <v>328.1124941972564</v>
       </c>
       <c r="L39" t="n">
-        <v>631.725377293033</v>
+        <v>558.9728055005087</v>
       </c>
       <c r="M39" t="n">
-        <v>904.2739626845076</v>
+        <v>831.5213908919832</v>
       </c>
       <c r="N39" t="n">
-        <v>1186.377502936477</v>
+        <v>1113.624931143952</v>
       </c>
       <c r="O39" t="n">
-        <v>1440.836412147119</v>
+        <v>1368.083840354594</v>
       </c>
       <c r="P39" t="n">
-        <v>1641.920497017837</v>
+        <v>1569.167925225312</v>
       </c>
       <c r="Q39" t="n">
-        <v>1768.228013104547</v>
+        <v>1695.475441312022</v>
       </c>
       <c r="R39" t="n">
         <v>1817.180367468736</v>
@@ -7308,76 +7308,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>517.21409377846</v>
+        <v>669.9688502111833</v>
       </c>
       <c r="C40" t="n">
-        <v>345.241530657376</v>
+        <v>497.9962870900993</v>
       </c>
       <c r="D40" t="n">
-        <v>181.9247577841467</v>
+        <v>455.9870880015905</v>
       </c>
       <c r="E40" t="n">
-        <v>117.9171079290044</v>
+        <v>289.778882154444</v>
       </c>
       <c r="F40" t="n">
-        <v>117.9171079290044</v>
+        <v>117.9171079290045</v>
       </c>
       <c r="G40" t="n">
-        <v>117.9171079290044</v>
+        <v>117.9171079290045</v>
       </c>
       <c r="H40" t="n">
-        <v>117.9171079290044</v>
+        <v>117.9171079290045</v>
       </c>
       <c r="I40" t="n">
-        <v>48.14019474870373</v>
+        <v>48.14019474870374</v>
       </c>
       <c r="J40" t="n">
         <v>174.7377877950434</v>
       </c>
       <c r="K40" t="n">
-        <v>267.5456015954198</v>
+        <v>514.8282107094419</v>
       </c>
       <c r="L40" t="n">
-        <v>767.5562363657257</v>
+        <v>1014.838845479748</v>
       </c>
       <c r="M40" t="n">
-        <v>1232.815711148904</v>
+        <v>1166.718932039577</v>
       </c>
       <c r="N40" t="n">
-        <v>1759.884919819948</v>
+        <v>1295.755217868742</v>
       </c>
       <c r="O40" t="n">
-        <v>2253.472262265338</v>
+        <v>1789.342560314132</v>
       </c>
       <c r="P40" t="n">
-        <v>2349.534344732139</v>
+        <v>2198.160847354241</v>
       </c>
       <c r="Q40" t="n">
         <v>2407.009737435187</v>
       </c>
       <c r="R40" t="n">
-        <v>2404.813544322731</v>
+        <v>2404.813544322732</v>
       </c>
       <c r="S40" t="n">
-        <v>2252.058787890008</v>
+        <v>2404.813544322732</v>
       </c>
       <c r="T40" t="n">
-        <v>2012.980648667096</v>
+        <v>2165.735405099819</v>
       </c>
       <c r="U40" t="n">
-        <v>1732.850598574437</v>
+        <v>1885.60535500716</v>
       </c>
       <c r="V40" t="n">
-        <v>1451.139131182465</v>
+        <v>1603.893887615189</v>
       </c>
       <c r="W40" t="n">
-        <v>1176.286727354978</v>
+        <v>1329.041483787702</v>
       </c>
       <c r="X40" t="n">
-        <v>933.7228308007835</v>
+        <v>1086.477587233507</v>
       </c>
       <c r="Y40" t="n">
-        <v>707.3800624905256</v>
+        <v>860.134818923249</v>
       </c>
     </row>
     <row r="41">
@@ -7387,46 +7387,46 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>773.7127545666415</v>
+        <v>873.5522851764874</v>
       </c>
       <c r="C41" t="n">
-        <v>773.7127545666415</v>
+        <v>873.5522851764874</v>
       </c>
       <c r="D41" t="n">
-        <v>350.4201337516417</v>
+        <v>450.2596643614877</v>
       </c>
       <c r="E41" t="n">
-        <v>350.4201337516417</v>
+        <v>450.2596643614877</v>
       </c>
       <c r="F41" t="n">
-        <v>350.4201337516417</v>
+        <v>323.2390129063086</v>
       </c>
       <c r="G41" t="n">
         <v>323.2390129063086</v>
       </c>
       <c r="H41" t="n">
-        <v>48.14019474870374</v>
+        <v>48.14019474870373</v>
       </c>
       <c r="I41" t="n">
-        <v>97.94653860982589</v>
+        <v>97.94653860982544</v>
       </c>
       <c r="J41" t="n">
-        <v>253.7669980404935</v>
+        <v>253.766998040493</v>
       </c>
       <c r="K41" t="n">
-        <v>495.5464836548668</v>
+        <v>495.5464836548665</v>
       </c>
       <c r="L41" t="n">
-        <v>801.4918514659964</v>
+        <v>801.491851465996</v>
       </c>
       <c r="M41" t="n">
-        <v>1147.061306101887</v>
+        <v>1147.061306101886</v>
       </c>
       <c r="N41" t="n">
-        <v>1498.972179657088</v>
+        <v>1498.972179657087</v>
       </c>
       <c r="O41" t="n">
-        <v>1829.10465858504</v>
+        <v>1829.104658585039</v>
       </c>
       <c r="P41" t="n">
         <v>2105.258678825626</v>
@@ -7438,25 +7438,25 @@
         <v>2407.009737435187</v>
       </c>
       <c r="S41" t="n">
-        <v>2407.009737435187</v>
+        <v>2353.306313138085</v>
       </c>
       <c r="T41" t="n">
-        <v>2407.009737435187</v>
+        <v>2353.306313138085</v>
       </c>
       <c r="U41" t="n">
-        <v>2407.009737435187</v>
+        <v>2095.12926921278</v>
       </c>
       <c r="V41" t="n">
-        <v>2407.009737435187</v>
+        <v>2095.12926921278</v>
       </c>
       <c r="W41" t="n">
-        <v>2010.618387735534</v>
+        <v>1698.737919513127</v>
       </c>
       <c r="X41" t="n">
-        <v>1598.898388903281</v>
+        <v>1698.737919513127</v>
       </c>
       <c r="Y41" t="n">
-        <v>1193.561118858172</v>
+        <v>1293.400649468017</v>
       </c>
     </row>
     <row r="42">
@@ -7484,31 +7484,31 @@
         <v>90.0274470588021</v>
       </c>
       <c r="H42" t="n">
-        <v>48.14019474870374</v>
+        <v>48.14019474870373</v>
       </c>
       <c r="I42" t="n">
-        <v>72.27152641483855</v>
+        <v>72.27152641483853</v>
       </c>
       <c r="J42" t="n">
-        <v>162.0192244442197</v>
+        <v>234.7717962367441</v>
       </c>
       <c r="K42" t="n">
-        <v>328.1124941972564</v>
+        <v>400.8650659897807</v>
       </c>
       <c r="L42" t="n">
-        <v>558.9728055005087</v>
+        <v>631.725377293033</v>
       </c>
       <c r="M42" t="n">
-        <v>831.5213908919832</v>
+        <v>904.2739626845076</v>
       </c>
       <c r="N42" t="n">
-        <v>1113.624931143952</v>
+        <v>1186.377502936477</v>
       </c>
       <c r="O42" t="n">
-        <v>1368.083840354594</v>
+        <v>1440.836412147119</v>
       </c>
       <c r="P42" t="n">
-        <v>1569.167925225312</v>
+        <v>1641.920497017837</v>
       </c>
       <c r="Q42" t="n">
         <v>1768.228013104547</v>
@@ -7545,28 +7545,28 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>517.2140937784604</v>
+        <v>1079.05561126309</v>
       </c>
       <c r="C43" t="n">
-        <v>345.2415306573764</v>
+        <v>907.0830481420064</v>
       </c>
       <c r="D43" t="n">
-        <v>181.9247577841471</v>
+        <v>743.7662752687771</v>
       </c>
       <c r="E43" t="n">
-        <v>48.14019474870374</v>
+        <v>577.5580694216306</v>
       </c>
       <c r="F43" t="n">
-        <v>48.14019474870374</v>
+        <v>405.696295196191</v>
       </c>
       <c r="G43" t="n">
-        <v>48.14019474870374</v>
+        <v>240.4366296194246</v>
       </c>
       <c r="H43" t="n">
-        <v>48.14019474870374</v>
+        <v>105.5073014745185</v>
       </c>
       <c r="I43" t="n">
-        <v>48.14019474870374</v>
+        <v>48.14019474870373</v>
       </c>
       <c r="J43" t="n">
         <v>174.7377877950434</v>
@@ -7575,46 +7575,46 @@
         <v>267.5456015954198</v>
       </c>
       <c r="L43" t="n">
-        <v>391.1673427745608</v>
+        <v>688.408966669989</v>
       </c>
       <c r="M43" t="n">
-        <v>935.5740872534753</v>
+        <v>1232.815711148904</v>
       </c>
       <c r="N43" t="n">
-        <v>1462.64329592452</v>
+        <v>1759.884919819948</v>
       </c>
       <c r="O43" t="n">
-        <v>1789.342560314132</v>
+        <v>2253.472262265338</v>
       </c>
       <c r="P43" t="n">
-        <v>2198.160847354241</v>
+        <v>2349.534344732139</v>
       </c>
       <c r="Q43" t="n">
         <v>2407.009737435187</v>
       </c>
       <c r="R43" t="n">
-        <v>2404.813544322732</v>
+        <v>2404.813544322731</v>
       </c>
       <c r="S43" t="n">
-        <v>2252.058787890009</v>
+        <v>2252.058787890008</v>
       </c>
       <c r="T43" t="n">
         <v>2012.980648667096</v>
       </c>
       <c r="U43" t="n">
-        <v>1732.850598574437</v>
+        <v>2012.980648667096</v>
       </c>
       <c r="V43" t="n">
-        <v>1451.139131182466</v>
+        <v>2012.980648667096</v>
       </c>
       <c r="W43" t="n">
-        <v>1176.286727354979</v>
+        <v>1738.128244839609</v>
       </c>
       <c r="X43" t="n">
-        <v>933.722830800784</v>
+        <v>1495.564348285414</v>
       </c>
       <c r="Y43" t="n">
-        <v>707.380062490526</v>
+        <v>1269.221579975156</v>
       </c>
     </row>
     <row r="44">
@@ -7624,37 +7624,37 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>516.0628703027365</v>
+        <v>1725.573471293013</v>
       </c>
       <c r="C44" t="n">
-        <v>516.0628703027365</v>
+        <v>1298.672741306313</v>
       </c>
       <c r="D44" t="n">
-        <v>516.0628703027365</v>
+        <v>875.3801204913136</v>
       </c>
       <c r="E44" t="n">
-        <v>516.0628703027365</v>
+        <v>875.3801204913136</v>
       </c>
       <c r="F44" t="n">
-        <v>516.0628703027365</v>
+        <v>450.2559386807139</v>
       </c>
       <c r="G44" t="n">
-        <v>113.9471263707264</v>
+        <v>48.14019474870374</v>
       </c>
       <c r="H44" t="n">
-        <v>48.14019474870373</v>
+        <v>48.14019474870374</v>
       </c>
       <c r="I44" t="n">
-        <v>97.94653860982552</v>
+        <v>97.94653860982555</v>
       </c>
       <c r="J44" t="n">
-        <v>253.7669980404929</v>
+        <v>253.766998040493</v>
       </c>
       <c r="K44" t="n">
         <v>495.5464836548663</v>
       </c>
       <c r="L44" t="n">
-        <v>801.4918514659955</v>
+        <v>801.4918514659958</v>
       </c>
       <c r="M44" t="n">
         <v>1147.061306101886</v>
@@ -7663,37 +7663,37 @@
         <v>1498.972179657087</v>
       </c>
       <c r="O44" t="n">
-        <v>1829.104658585039</v>
+        <v>1829.10465858504</v>
       </c>
       <c r="P44" t="n">
-        <v>2105.258678825625</v>
+        <v>2105.258678825626</v>
       </c>
       <c r="Q44" t="n">
-        <v>2304.810775987985</v>
+        <v>2304.810775987986</v>
       </c>
       <c r="R44" t="n">
-        <v>2407.009737435186</v>
+        <v>2407.009737435187</v>
       </c>
       <c r="S44" t="n">
-        <v>2353.306313138085</v>
+        <v>2407.009737435187</v>
       </c>
       <c r="T44" t="n">
-        <v>2353.306313138085</v>
+        <v>2407.009737435187</v>
       </c>
       <c r="U44" t="n">
-        <v>2095.12926921278</v>
+        <v>2148.832693509883</v>
       </c>
       <c r="V44" t="n">
-        <v>1737.639854339029</v>
+        <v>2145.421835584543</v>
       </c>
       <c r="W44" t="n">
-        <v>1341.248504639376</v>
+        <v>2145.421835584543</v>
       </c>
       <c r="X44" t="n">
-        <v>1341.248504639376</v>
+        <v>2145.421835584543</v>
       </c>
       <c r="Y44" t="n">
-        <v>935.9112345942666</v>
+        <v>2145.421835584543</v>
       </c>
     </row>
     <row r="45">
@@ -7721,10 +7721,10 @@
         <v>90.0274470588021</v>
       </c>
       <c r="H45" t="n">
-        <v>48.14019474870373</v>
+        <v>48.14019474870374</v>
       </c>
       <c r="I45" t="n">
-        <v>72.27152641483853</v>
+        <v>72.27152641483855</v>
       </c>
       <c r="J45" t="n">
         <v>162.0192244442197</v>
@@ -7782,76 +7782,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>672.165043323638</v>
+        <v>1021.688504537276</v>
       </c>
       <c r="C46" t="n">
-        <v>500.192480202554</v>
+        <v>849.7159414161916</v>
       </c>
       <c r="D46" t="n">
-        <v>500.192480202554</v>
+        <v>686.3991685429623</v>
       </c>
       <c r="E46" t="n">
-        <v>333.9842743554075</v>
+        <v>520.1909626958159</v>
       </c>
       <c r="F46" t="n">
-        <v>162.1225001299679</v>
+        <v>348.3291884703763</v>
       </c>
       <c r="G46" t="n">
-        <v>48.14019474870373</v>
+        <v>183.0695228936098</v>
       </c>
       <c r="H46" t="n">
-        <v>48.14019474870373</v>
+        <v>48.14019474870374</v>
       </c>
       <c r="I46" t="n">
-        <v>48.14019474870373</v>
+        <v>48.14019474870374</v>
       </c>
       <c r="J46" t="n">
-        <v>96.81607114682251</v>
+        <v>174.7377877950434</v>
       </c>
       <c r="K46" t="n">
-        <v>189.6238849471989</v>
+        <v>514.8282107094419</v>
       </c>
       <c r="L46" t="n">
-        <v>688.4089666699886</v>
+        <v>1014.838845479748</v>
       </c>
       <c r="M46" t="n">
-        <v>1232.815711148903</v>
+        <v>1145.71010949584</v>
       </c>
       <c r="N46" t="n">
-        <v>1759.884919819948</v>
+        <v>1447.128715246641</v>
       </c>
       <c r="O46" t="n">
-        <v>2253.472262265338</v>
+        <v>1940.716057692031</v>
       </c>
       <c r="P46" t="n">
-        <v>2349.534344732139</v>
+        <v>2349.53434473214</v>
       </c>
       <c r="Q46" t="n">
-        <v>2407.009737435186</v>
+        <v>2407.009737435187</v>
       </c>
       <c r="R46" t="n">
-        <v>2407.009737435186</v>
+        <v>2404.813544322732</v>
       </c>
       <c r="S46" t="n">
-        <v>2407.009737435186</v>
+        <v>2252.058787890009</v>
       </c>
       <c r="T46" t="n">
-        <v>2167.931598212274</v>
+        <v>2012.980648667096</v>
       </c>
       <c r="U46" t="n">
-        <v>1887.801548119615</v>
+        <v>2012.980648667096</v>
       </c>
       <c r="V46" t="n">
-        <v>1606.090080727643</v>
+        <v>1955.613541941281</v>
       </c>
       <c r="W46" t="n">
-        <v>1331.237676900156</v>
+        <v>1680.761138113794</v>
       </c>
       <c r="X46" t="n">
-        <v>1088.673780345962</v>
+        <v>1438.197241559599</v>
       </c>
       <c r="Y46" t="n">
-        <v>862.3310120357037</v>
+        <v>1211.854473249341</v>
       </c>
     </row>
   </sheetData>
@@ -8224,7 +8224,7 @@
         <v>14.10849161526705</v>
       </c>
       <c r="M5" t="n">
-        <v>10.50014909015127</v>
+        <v>10.50014909015128</v>
       </c>
       <c r="N5" t="n">
         <v>9.912735448118685</v>
@@ -8291,19 +8291,19 @@
         <v>0</v>
       </c>
       <c r="I6" t="n">
-        <v>13.34699725816536</v>
+        <v>13.34699725816537</v>
       </c>
       <c r="J6" t="n">
         <v>12.85802961440214</v>
       </c>
       <c r="K6" t="n">
-        <v>9.147977155514765</v>
+        <v>9.147977155514766</v>
       </c>
       <c r="L6" t="n">
         <v>4.697136804258392</v>
       </c>
       <c r="M6" t="n">
-        <v>2.304073385794617</v>
+        <v>2.30407338579462</v>
       </c>
       <c r="N6" t="n">
         <v>0</v>
@@ -8312,7 +8312,7 @@
         <v>3.647188605845983</v>
       </c>
       <c r="P6" t="n">
-        <v>6.10054723088008</v>
+        <v>6.100547230880082</v>
       </c>
       <c r="Q6" t="n">
         <v>12.27186175772305</v>
@@ -8455,13 +8455,13 @@
         <v>14.96006091008002</v>
       </c>
       <c r="K8" t="n">
-        <v>14.09296117214526</v>
+        <v>14.09296117214527</v>
       </c>
       <c r="L8" t="n">
         <v>11.42645714324615</v>
       </c>
       <c r="M8" t="n">
-        <v>7.515868967310212</v>
+        <v>7.515868967310215</v>
       </c>
       <c r="N8" t="n">
         <v>6.880166552921242</v>
@@ -8473,7 +8473,7 @@
         <v>13.07601436734049</v>
       </c>
       <c r="Q8" t="n">
-        <v>17.72668497534603</v>
+        <v>17.72668497534604</v>
       </c>
       <c r="R8" t="n">
         <v>24.33067662398352</v>
@@ -8534,7 +8534,7 @@
         <v>11.9988978019839</v>
       </c>
       <c r="K9" t="n">
-        <v>7.679584047590229</v>
+        <v>7.679584047590231</v>
       </c>
       <c r="L9" t="n">
         <v>2.722701059689193</v>
@@ -8546,7 +8546,7 @@
         <v>0</v>
       </c>
       <c r="O9" t="n">
-        <v>1.483625009529543</v>
+        <v>1.483625009529547</v>
       </c>
       <c r="P9" t="n">
         <v>4.364096701700124</v>
@@ -8625,7 +8625,7 @@
         <v>9.054267004656879</v>
       </c>
       <c r="O10" t="n">
-        <v>11.69730019489984</v>
+        <v>11.69730019489985</v>
       </c>
       <c r="P10" t="n">
         <v>13.13791998612571</v>
@@ -8771,7 +8771,7 @@
         <v>295.0530226965566</v>
       </c>
       <c r="K12" t="n">
-        <v>70.37539003541872</v>
+        <v>0</v>
       </c>
       <c r="L12" t="n">
         <v>0</v>
@@ -8789,7 +8789,7 @@
         <v>0</v>
       </c>
       <c r="Q12" t="n">
-        <v>0</v>
+        <v>70.37539003541895</v>
       </c>
       <c r="R12" t="n">
         <v>106.5207073584907</v>
@@ -8853,16 +8853,16 @@
         <v>249.7804132464869</v>
       </c>
       <c r="L13" t="n">
-        <v>0</v>
+        <v>360.0219516362448</v>
       </c>
       <c r="M13" t="n">
-        <v>354.4082905479648</v>
+        <v>0</v>
       </c>
       <c r="N13" t="n">
-        <v>50.95854331539945</v>
+        <v>0</v>
       </c>
       <c r="O13" t="n">
-        <v>0</v>
+        <v>45.34488222711981</v>
       </c>
       <c r="P13" t="n">
         <v>315.9153581548562</v>
@@ -9002,13 +9002,13 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>0</v>
+        <v>23.69424832768873</v>
       </c>
       <c r="J15" t="n">
-        <v>295.0530226965566</v>
+        <v>0</v>
       </c>
       <c r="K15" t="n">
-        <v>94.06963836310703</v>
+        <v>326.4130602513782</v>
       </c>
       <c r="L15" t="n">
         <v>0</v>
@@ -9023,13 +9023,13 @@
         <v>0</v>
       </c>
       <c r="P15" t="n">
-        <v>0</v>
+        <v>145.536059839087</v>
       </c>
       <c r="Q15" t="n">
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>106.5207073584907</v>
+        <v>0</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -9084,28 +9084,28 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>0</v>
+        <v>78.70880469517259</v>
       </c>
       <c r="K16" t="n">
-        <v>0</v>
+        <v>249.7804132464869</v>
       </c>
       <c r="L16" t="n">
-        <v>126.5047566361195</v>
+        <v>360.0219516362448</v>
       </c>
       <c r="M16" t="n">
-        <v>354.4082905479646</v>
+        <v>0</v>
       </c>
       <c r="N16" t="n">
-        <v>355.4735849779356</v>
+        <v>0</v>
       </c>
       <c r="O16" t="n">
-        <v>366.2873004017979</v>
+        <v>45.3448822271198</v>
       </c>
       <c r="P16" t="n">
-        <v>0</v>
+        <v>315.9153581548562</v>
       </c>
       <c r="Q16" t="n">
-        <v>0</v>
+        <v>152.9025226039384</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -9242,10 +9242,10 @@
         <v>23.69424832768873</v>
       </c>
       <c r="J18" t="n">
-        <v>39.01535248059712</v>
+        <v>295.0530226965566</v>
       </c>
       <c r="K18" t="n">
-        <v>326.4130602513781</v>
+        <v>0</v>
       </c>
       <c r="L18" t="n">
         <v>0</v>
@@ -9263,7 +9263,7 @@
         <v>0</v>
       </c>
       <c r="Q18" t="n">
-        <v>0</v>
+        <v>70.37539003541778</v>
       </c>
       <c r="R18" t="n">
         <v>106.5207073584907</v>
@@ -9321,28 +9321,28 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>0</v>
+        <v>78.70880469517259</v>
       </c>
       <c r="K19" t="n">
-        <v>0</v>
+        <v>249.7804132464869</v>
       </c>
       <c r="L19" t="n">
-        <v>0</v>
+        <v>360.0219516362448</v>
       </c>
       <c r="M19" t="n">
-        <v>354.4082905479647</v>
+        <v>354.4082905479649</v>
       </c>
       <c r="N19" t="n">
-        <v>355.4735849779357</v>
+        <v>0</v>
       </c>
       <c r="O19" t="n">
-        <v>23.97417627912299</v>
+        <v>0</v>
       </c>
       <c r="P19" t="n">
-        <v>315.9153581548562</v>
+        <v>159.7544724379494</v>
       </c>
       <c r="Q19" t="n">
-        <v>152.9025226039384</v>
+        <v>0</v>
       </c>
       <c r="R19" t="n">
         <v>0</v>
@@ -9485,10 +9485,10 @@
         <v>0</v>
       </c>
       <c r="L21" t="n">
-        <v>123.3649210763294</v>
+        <v>0</v>
       </c>
       <c r="M21" t="n">
-        <v>242.0634916556457</v>
+        <v>0</v>
       </c>
       <c r="N21" t="n">
         <v>0</v>
@@ -9497,10 +9497,10 @@
         <v>0</v>
       </c>
       <c r="P21" t="n">
-        <v>0</v>
+        <v>7.360890261672864</v>
       </c>
       <c r="Q21" t="n">
-        <v>0</v>
+        <v>358.0675224703016</v>
       </c>
       <c r="R21" t="n">
         <v>106.5207073584907</v>
@@ -9558,28 +9558,28 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>0</v>
+        <v>78.70880469517259</v>
       </c>
       <c r="K22" t="n">
-        <v>0</v>
+        <v>249.7804132464869</v>
       </c>
       <c r="L22" t="n">
-        <v>126.5047566361196</v>
+        <v>360.0219516362448</v>
       </c>
       <c r="M22" t="n">
-        <v>354.4082905479647</v>
+        <v>45.3448822271198</v>
       </c>
       <c r="N22" t="n">
-        <v>355.4735849779357</v>
+        <v>0</v>
       </c>
       <c r="O22" t="n">
-        <v>366.2873004017979</v>
+        <v>0</v>
       </c>
       <c r="P22" t="n">
-        <v>0</v>
+        <v>315.9153581548562</v>
       </c>
       <c r="Q22" t="n">
-        <v>0</v>
+        <v>152.9025226039384</v>
       </c>
       <c r="R22" t="n">
         <v>0</v>
@@ -9713,10 +9713,10 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>0</v>
+        <v>23.69424832768873</v>
       </c>
       <c r="J24" t="n">
-        <v>73.48744625507489</v>
+        <v>0</v>
       </c>
       <c r="K24" t="n">
         <v>0</v>
@@ -9740,7 +9740,7 @@
         <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>0</v>
+        <v>49.7931979273864</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -9798,22 +9798,22 @@
         <v>78.70880469517259</v>
       </c>
       <c r="K25" t="n">
-        <v>0</v>
+        <v>249.7804132464869</v>
       </c>
       <c r="L25" t="n">
-        <v>0</v>
+        <v>380.1908016072373</v>
       </c>
       <c r="M25" t="n">
-        <v>417.7126065281028</v>
+        <v>0</v>
       </c>
       <c r="N25" t="n">
-        <v>402.0534574160406</v>
+        <v>21.22103287246068</v>
       </c>
       <c r="O25" t="n">
         <v>381.5174992961649</v>
       </c>
       <c r="P25" t="n">
-        <v>147.3415419368977</v>
+        <v>315.9153581548562</v>
       </c>
       <c r="Q25" t="n">
         <v>152.9025226039384</v>
@@ -9953,7 +9953,7 @@
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>0</v>
+        <v>73.4874462550751</v>
       </c>
       <c r="K27" t="n">
         <v>0</v>
@@ -9977,7 +9977,7 @@
         <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>73.4874462550749</v>
+        <v>0</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -10032,16 +10032,16 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>78.70880469517259</v>
+        <v>0</v>
       </c>
       <c r="K28" t="n">
-        <v>249.7804132464869</v>
+        <v>0</v>
       </c>
       <c r="L28" t="n">
-        <v>380.1908016072373</v>
+        <v>378.9528692360097</v>
       </c>
       <c r="M28" t="n">
-        <v>87.9854562152147</v>
+        <v>417.7126065281028</v>
       </c>
       <c r="N28" t="n">
         <v>402.0534574160406</v>
@@ -10190,7 +10190,7 @@
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>73.4874462550751</v>
+        <v>0</v>
       </c>
       <c r="K30" t="n">
         <v>0</v>
@@ -10214,7 +10214,7 @@
         <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>0</v>
+        <v>73.48744625507537</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -10272,16 +10272,16 @@
         <v>78.70880469517259</v>
       </c>
       <c r="K31" t="n">
-        <v>147.3415419368981</v>
+        <v>249.7804132464869</v>
       </c>
       <c r="L31" t="n">
-        <v>0</v>
+        <v>380.1908016072373</v>
       </c>
       <c r="M31" t="n">
         <v>417.7126065281028</v>
       </c>
       <c r="N31" t="n">
-        <v>402.0534574160406</v>
+        <v>72.32630710315291</v>
       </c>
       <c r="O31" t="n">
         <v>381.5174992961649</v>
@@ -10290,7 +10290,7 @@
         <v>0</v>
       </c>
       <c r="Q31" t="n">
-        <v>152.9025226039384</v>
+        <v>0</v>
       </c>
       <c r="R31" t="n">
         <v>0</v>
@@ -10506,28 +10506,28 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>0</v>
+        <v>78.70880469517259</v>
       </c>
       <c r="K34" t="n">
-        <v>0</v>
+        <v>249.7804132464869</v>
       </c>
       <c r="L34" t="n">
-        <v>378.9528692360097</v>
+        <v>380.1908016072373</v>
       </c>
       <c r="M34" t="n">
-        <v>417.7126065281028</v>
+        <v>0</v>
       </c>
       <c r="N34" t="n">
         <v>402.0534574160406</v>
       </c>
       <c r="O34" t="n">
-        <v>381.5174992961649</v>
+        <v>0.6850747525853933</v>
       </c>
       <c r="P34" t="n">
-        <v>0</v>
+        <v>315.9153581548562</v>
       </c>
       <c r="Q34" t="n">
-        <v>0</v>
+        <v>152.9025226039384</v>
       </c>
       <c r="R34" t="n">
         <v>0</v>
@@ -10664,7 +10664,7 @@
         <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>73.48744625507511</v>
+        <v>0</v>
       </c>
       <c r="K36" t="n">
         <v>0</v>
@@ -10688,7 +10688,7 @@
         <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>0</v>
+        <v>73.48744625507537</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -10743,28 +10743,28 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>78.70880469517259</v>
+        <v>0</v>
       </c>
       <c r="K37" t="n">
-        <v>249.7804132464869</v>
+        <v>0</v>
       </c>
       <c r="L37" t="n">
-        <v>365.2167272477607</v>
+        <v>378.9528692360097</v>
       </c>
       <c r="M37" t="n">
         <v>417.7126065281028</v>
       </c>
       <c r="N37" t="n">
-        <v>0</v>
+        <v>402.0534574160406</v>
       </c>
       <c r="O37" t="n">
-        <v>0</v>
+        <v>381.5174992961649</v>
       </c>
       <c r="P37" t="n">
-        <v>315.9153581548562</v>
+        <v>0</v>
       </c>
       <c r="Q37" t="n">
-        <v>152.9025226039384</v>
+        <v>0</v>
       </c>
       <c r="R37" t="n">
         <v>0</v>
@@ -10901,7 +10901,7 @@
         <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>73.48744625507511</v>
+        <v>0</v>
       </c>
       <c r="K39" t="n">
         <v>0</v>
@@ -10925,7 +10925,7 @@
         <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>0</v>
+        <v>73.48744625507537</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -10983,25 +10983,25 @@
         <v>78.70880469517259</v>
       </c>
       <c r="K40" t="n">
-        <v>0</v>
+        <v>249.7804132464869</v>
       </c>
       <c r="L40" t="n">
         <v>380.1908016072373</v>
       </c>
       <c r="M40" t="n">
-        <v>337.7658694617022</v>
+        <v>21.22103287246097</v>
       </c>
       <c r="N40" t="n">
-        <v>402.0534574160406</v>
+        <v>0</v>
       </c>
       <c r="O40" t="n">
         <v>381.5174992961649</v>
       </c>
       <c r="P40" t="n">
-        <v>0</v>
+        <v>315.9153581548562</v>
       </c>
       <c r="Q40" t="n">
-        <v>0</v>
+        <v>152.9025226039384</v>
       </c>
       <c r="R40" t="n">
         <v>0</v>
@@ -11138,7 +11138,7 @@
         <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>0</v>
+        <v>73.4874462550751</v>
       </c>
       <c r="K42" t="n">
         <v>0</v>
@@ -11159,7 +11159,7 @@
         <v>0</v>
       </c>
       <c r="Q42" t="n">
-        <v>73.48744625507538</v>
+        <v>0</v>
       </c>
       <c r="R42" t="n">
         <v>0</v>
@@ -11223,7 +11223,7 @@
         <v>0</v>
       </c>
       <c r="L43" t="n">
-        <v>0</v>
+        <v>300.2440645408366</v>
       </c>
       <c r="M43" t="n">
         <v>417.7126065281028</v>
@@ -11232,13 +11232,13 @@
         <v>402.0534574160406</v>
       </c>
       <c r="O43" t="n">
-        <v>212.9436830782069</v>
+        <v>381.5174992961649</v>
       </c>
       <c r="P43" t="n">
-        <v>315.9153581548562</v>
+        <v>0</v>
       </c>
       <c r="Q43" t="n">
-        <v>152.9025226039384</v>
+        <v>0</v>
       </c>
       <c r="R43" t="n">
         <v>0</v>
@@ -11454,25 +11454,25 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>0</v>
+        <v>78.70880469517259</v>
       </c>
       <c r="K46" t="n">
-        <v>0</v>
+        <v>249.7804132464869</v>
       </c>
       <c r="L46" t="n">
-        <v>378.9528692360088</v>
+        <v>380.1908016072373</v>
       </c>
       <c r="M46" t="n">
-        <v>417.7126065281028</v>
+        <v>0</v>
       </c>
       <c r="N46" t="n">
-        <v>402.0534574160406</v>
+        <v>174.1235554763997</v>
       </c>
       <c r="O46" t="n">
         <v>381.5174992961649</v>
       </c>
       <c r="P46" t="n">
-        <v>0</v>
+        <v>315.9153581548562</v>
       </c>
       <c r="Q46" t="n">
         <v>0</v>
@@ -23257,25 +23257,25 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0</v>
+        <v>415.6498806486147</v>
       </c>
       <c r="C11" t="n">
-        <v>0</v>
+        <v>12.07385822894059</v>
       </c>
       <c r="D11" t="n">
-        <v>0</v>
+        <v>419.0596946068497</v>
       </c>
       <c r="E11" t="n">
-        <v>0</v>
+        <v>421.717170453621</v>
       </c>
       <c r="F11" t="n">
         <v>420.8729399924937</v>
       </c>
       <c r="G11" t="n">
-        <v>398.5660300744983</v>
+        <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>196.4776534913323</v>
+        <v>0</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -23308,16 +23308,16 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>63.90941067458684</v>
+        <v>0</v>
       </c>
       <c r="T11" t="n">
         <v>211.1448086517629</v>
       </c>
       <c r="U11" t="n">
-        <v>255.632988972596</v>
+        <v>0</v>
       </c>
       <c r="V11" t="n">
-        <v>353.914520725013</v>
+        <v>0</v>
       </c>
       <c r="W11" t="n">
         <v>392.4274362026566</v>
@@ -23415,7 +23415,7 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>180.9979578134316</v>
+        <v>188.264309024945</v>
       </c>
       <c r="C13" t="n">
         <v>0</v>
@@ -23430,13 +23430,13 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>163.8185422817731</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>135.4602252892499</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>75.43872475250879</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23463,25 +23463,25 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>11.68284247578065</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
         <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>237.5909258267186</v>
+        <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>0</v>
+        <v>100.6377094272671</v>
       </c>
       <c r="V13" t="n">
-        <v>0</v>
+        <v>278.8943527180514</v>
       </c>
       <c r="W13" t="n">
-        <v>272.1038797892121</v>
+        <v>0</v>
       </c>
       <c r="X13" t="n">
-        <v>240.1382575886529</v>
+        <v>0</v>
       </c>
       <c r="Y13" t="n">
         <v>224.0793406271554</v>
@@ -23503,7 +23503,7 @@
         <v>419.0596946068497</v>
       </c>
       <c r="E14" t="n">
-        <v>421.717170453621</v>
+        <v>152.3510523562807</v>
       </c>
       <c r="F14" t="n">
         <v>420.8729399924937</v>
@@ -23512,7 +23512,7 @@
         <v>398.5660300744983</v>
       </c>
       <c r="H14" t="n">
-        <v>0</v>
+        <v>277.176001558223</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -23545,10 +23545,10 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>63.90941067458684</v>
+        <v>0</v>
       </c>
       <c r="T14" t="n">
-        <v>146.1888202960579</v>
+        <v>211.1448086517629</v>
       </c>
       <c r="U14" t="n">
         <v>0</v>
@@ -23557,13 +23557,13 @@
         <v>0</v>
       </c>
       <c r="W14" t="n">
-        <v>0</v>
+        <v>392.4274362026566</v>
       </c>
       <c r="X14" t="n">
         <v>407.6027988439302</v>
       </c>
       <c r="Y14" t="n">
-        <v>401.2838973446586</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15">
@@ -23655,13 +23655,13 @@
         <v>188.264309024945</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>95.5556748803363</v>
       </c>
       <c r="D16" t="n">
         <v>161.683605144497</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F16" t="n">
         <v>170.1431564831852</v>
@@ -23700,13 +23700,13 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>11.68284247578064</v>
       </c>
       <c r="S16" t="n">
         <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>47.70530051763723</v>
+        <v>0</v>
       </c>
       <c r="U16" t="n">
         <v>0</v>
@@ -23721,7 +23721,7 @@
         <v>0</v>
       </c>
       <c r="Y16" t="n">
-        <v>224.0793406271554</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -23731,10 +23731,10 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>415.6498806486147</v>
+        <v>378.8576361065645</v>
       </c>
       <c r="C17" t="n">
-        <v>283.5974596199831</v>
+        <v>422.6317226868329</v>
       </c>
       <c r="D17" t="n">
         <v>419.0596946068497</v>
@@ -23746,7 +23746,7 @@
         <v>420.8729399924937</v>
       </c>
       <c r="G17" t="n">
-        <v>398.5660300744983</v>
+        <v>0</v>
       </c>
       <c r="H17" t="n">
         <v>277.176001558223</v>
@@ -23782,7 +23782,7 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>63.90941067458685</v>
+        <v>0</v>
       </c>
       <c r="T17" t="n">
         <v>0</v>
@@ -23791,16 +23791,16 @@
         <v>0</v>
       </c>
       <c r="V17" t="n">
-        <v>0</v>
+        <v>353.914520725013</v>
       </c>
       <c r="W17" t="n">
         <v>0</v>
       </c>
       <c r="X17" t="n">
-        <v>0</v>
+        <v>407.6027988439302</v>
       </c>
       <c r="Y17" t="n">
-        <v>401.2838973446586</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18">
@@ -23889,28 +23889,28 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0</v>
+        <v>188.264309024945</v>
       </c>
       <c r="C19" t="n">
         <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F19" t="n">
-        <v>170.1431564831852</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>163.8185422817731</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>84.6271848751924</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>75.43872475250879</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23937,10 +23937,10 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>11.68284247578065</v>
+        <v>11.68284247578064</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>100.7600007187358</v>
       </c>
       <c r="T19" t="n">
         <v>0</v>
@@ -23952,7 +23952,7 @@
         <v>0</v>
       </c>
       <c r="W19" t="n">
-        <v>272.1038797892121</v>
+        <v>0</v>
       </c>
       <c r="X19" t="n">
         <v>240.1382575886529</v>
@@ -23968,16 +23968,16 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>415.6498806486147</v>
+        <v>0</v>
       </c>
       <c r="C20" t="n">
-        <v>422.6317226868329</v>
+        <v>296.3789533188247</v>
       </c>
       <c r="D20" t="n">
-        <v>0</v>
+        <v>419.0596946068497</v>
       </c>
       <c r="E20" t="n">
-        <v>130.3643711175736</v>
+        <v>421.717170453621</v>
       </c>
       <c r="F20" t="n">
         <v>420.8729399924937</v>
@@ -24019,25 +24019,25 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>63.90941067458685</v>
+        <v>0</v>
       </c>
       <c r="T20" t="n">
         <v>211.1448086517629</v>
       </c>
       <c r="U20" t="n">
-        <v>0</v>
+        <v>255.632988972596</v>
       </c>
       <c r="V20" t="n">
-        <v>353.914520725013</v>
+        <v>0</v>
       </c>
       <c r="W20" t="n">
         <v>0</v>
       </c>
       <c r="X20" t="n">
-        <v>407.6027988439302</v>
+        <v>0</v>
       </c>
       <c r="Y20" t="n">
-        <v>0</v>
+        <v>401.2838973446586</v>
       </c>
     </row>
     <row r="21">
@@ -24132,19 +24132,19 @@
         <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>170.1431564831852</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>163.8185422817731</v>
       </c>
       <c r="H22" t="n">
-        <v>130.7334610444104</v>
+        <v>135.4602252892499</v>
       </c>
       <c r="I22" t="n">
         <v>75.43872475250879</v>
@@ -24174,19 +24174,19 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>11.68284247578065</v>
+        <v>11.68284247578064</v>
       </c>
       <c r="S22" t="n">
         <v>154.9126128011615</v>
       </c>
       <c r="T22" t="n">
-        <v>237.5909258267186</v>
+        <v>128.9073711041193</v>
       </c>
       <c r="U22" t="n">
-        <v>277.3402845023203</v>
+        <v>0</v>
       </c>
       <c r="V22" t="n">
-        <v>278.8943527180514</v>
+        <v>0</v>
       </c>
       <c r="W22" t="n">
         <v>0</v>
@@ -24208,7 +24208,7 @@
         <v>415.6498806486147</v>
       </c>
       <c r="C23" t="n">
-        <v>0</v>
+        <v>220.4997112077156</v>
       </c>
       <c r="D23" t="n">
         <v>419.0596946068497</v>
@@ -24220,7 +24220,7 @@
         <v>420.8729399924937</v>
       </c>
       <c r="G23" t="n">
-        <v>398.09458649269</v>
+        <v>0</v>
       </c>
       <c r="H23" t="n">
         <v>0</v>
@@ -24256,10 +24256,10 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>53.16639005413047</v>
+        <v>0</v>
       </c>
       <c r="T23" t="n">
-        <v>0</v>
+        <v>209.0810643723971</v>
       </c>
       <c r="U23" t="n">
         <v>0</v>
@@ -24274,7 +24274,7 @@
         <v>0</v>
       </c>
       <c r="Y23" t="n">
-        <v>379.6036963779502</v>
+        <v>401.2838973446586</v>
       </c>
     </row>
     <row r="24">
@@ -24363,16 +24363,16 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>188.264309024945</v>
+        <v>0</v>
       </c>
       <c r="C25" t="n">
-        <v>153.9909298662934</v>
+        <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>125.7566216558457</v>
       </c>
       <c r="F25" t="n">
         <v>0</v>
@@ -24411,7 +24411,7 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>2.174231181331166</v>
+        <v>2.174231181331173</v>
       </c>
       <c r="S25" t="n">
         <v>0</v>
@@ -24423,7 +24423,7 @@
         <v>0</v>
       </c>
       <c r="V25" t="n">
-        <v>0</v>
+        <v>278.8943527180514</v>
       </c>
       <c r="W25" t="n">
         <v>0</v>
@@ -24432,7 +24432,7 @@
         <v>0</v>
       </c>
       <c r="Y25" t="n">
-        <v>224.0793406271554</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26">
@@ -24445,7 +24445,7 @@
         <v>0</v>
       </c>
       <c r="C26" t="n">
-        <v>0</v>
+        <v>422.6317226868329</v>
       </c>
       <c r="D26" t="n">
         <v>419.0596946068497</v>
@@ -24454,13 +24454,13 @@
         <v>421.717170453621</v>
       </c>
       <c r="F26" t="n">
-        <v>0</v>
+        <v>43.44163848780113</v>
       </c>
       <c r="G26" t="n">
-        <v>398.09458649269</v>
+        <v>0</v>
       </c>
       <c r="H26" t="n">
-        <v>272.3478299760288</v>
+        <v>0</v>
       </c>
       <c r="I26" t="n">
         <v>0</v>
@@ -24496,10 +24496,10 @@
         <v>0</v>
       </c>
       <c r="T26" t="n">
-        <v>209.0810643723971</v>
+        <v>0</v>
       </c>
       <c r="U26" t="n">
-        <v>255.5952734860514</v>
+        <v>0</v>
       </c>
       <c r="V26" t="n">
         <v>0</v>
@@ -24508,10 +24508,10 @@
         <v>392.4274362026566</v>
       </c>
       <c r="X26" t="n">
-        <v>139.8413030360558</v>
+        <v>407.6027988439302</v>
       </c>
       <c r="Y26" t="n">
-        <v>0</v>
+        <v>401.2838973446586</v>
       </c>
     </row>
     <row r="27">
@@ -24606,16 +24606,16 @@
         <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>86.95527906971859</v>
       </c>
       <c r="E28" t="n">
         <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>48.841122817045</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>163.6070689209988</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
         <v>133.580034863457</v>
@@ -24648,10 +24648,10 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>2.174231181331166</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>151.2272088683957</v>
+        <v>0</v>
       </c>
       <c r="T28" t="n">
         <v>0</v>
@@ -24660,7 +24660,7 @@
         <v>0</v>
       </c>
       <c r="V28" t="n">
-        <v>0</v>
+        <v>278.8943527180514</v>
       </c>
       <c r="W28" t="n">
         <v>0</v>
@@ -24682,22 +24682,22 @@
         <v>415.6498806486147</v>
       </c>
       <c r="C29" t="n">
-        <v>0</v>
+        <v>422.6317226868329</v>
       </c>
       <c r="D29" t="n">
-        <v>0</v>
+        <v>419.0596946068497</v>
       </c>
       <c r="E29" t="n">
-        <v>129.4418728789309</v>
+        <v>421.717170453621</v>
       </c>
       <c r="F29" t="n">
         <v>420.8729399924937</v>
       </c>
       <c r="G29" t="n">
-        <v>398.09458649269</v>
+        <v>0</v>
       </c>
       <c r="H29" t="n">
-        <v>272.3478299760288</v>
+        <v>0</v>
       </c>
       <c r="I29" t="n">
         <v>0</v>
@@ -24730,25 +24730,25 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>53.16639005413048</v>
+        <v>0</v>
       </c>
       <c r="T29" t="n">
-        <v>209.0810643723971</v>
+        <v>0</v>
       </c>
       <c r="U29" t="n">
-        <v>255.5952734860514</v>
+        <v>0</v>
       </c>
       <c r="V29" t="n">
-        <v>353.914520725013</v>
+        <v>0</v>
       </c>
       <c r="W29" t="n">
         <v>0</v>
       </c>
       <c r="X29" t="n">
-        <v>0</v>
+        <v>6.949052893279884</v>
       </c>
       <c r="Y29" t="n">
-        <v>0</v>
+        <v>401.2838973446586</v>
       </c>
     </row>
     <row r="30">
@@ -24894,19 +24894,19 @@
         <v>0</v>
       </c>
       <c r="U31" t="n">
-        <v>0</v>
+        <v>277.3287495917327</v>
       </c>
       <c r="V31" t="n">
-        <v>0</v>
+        <v>19.07618131878036</v>
       </c>
       <c r="W31" t="n">
         <v>272.1038797892121</v>
       </c>
       <c r="X31" t="n">
-        <v>240.1382575886529</v>
+        <v>0</v>
       </c>
       <c r="Y31" t="n">
-        <v>56.26667332186028</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32">
@@ -24916,13 +24916,13 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>0</v>
+        <v>415.6498806486147</v>
       </c>
       <c r="C32" t="n">
-        <v>0</v>
+        <v>422.6317226868329</v>
       </c>
       <c r="D32" t="n">
-        <v>293.9427319686779</v>
+        <v>419.0596946068497</v>
       </c>
       <c r="E32" t="n">
         <v>421.717170453621</v>
@@ -24931,7 +24931,7 @@
         <v>420.8729399924937</v>
       </c>
       <c r="G32" t="n">
-        <v>398.09458649269</v>
+        <v>0</v>
       </c>
       <c r="H32" t="n">
         <v>272.3478299760288</v>
@@ -24967,25 +24967,25 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>53.16639005413048</v>
+        <v>0</v>
       </c>
       <c r="T32" t="n">
         <v>0</v>
       </c>
       <c r="U32" t="n">
-        <v>255.5952734860514</v>
+        <v>0</v>
       </c>
       <c r="V32" t="n">
         <v>0</v>
       </c>
       <c r="W32" t="n">
-        <v>392.4274362026566</v>
+        <v>0</v>
       </c>
       <c r="X32" t="n">
         <v>0</v>
       </c>
       <c r="Y32" t="n">
-        <v>0</v>
+        <v>135.8851202619092</v>
       </c>
     </row>
     <row r="33">
@@ -25083,10 +25083,10 @@
         <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>70.87370819109871</v>
       </c>
       <c r="F34" t="n">
-        <v>137.7786210582654</v>
+        <v>0</v>
       </c>
       <c r="G34" t="n">
         <v>0</v>
@@ -25095,7 +25095,7 @@
         <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>69.0791440484977</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25122,7 +25122,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>2.174231181331173</v>
+        <v>0</v>
       </c>
       <c r="S34" t="n">
         <v>151.2272088683957</v>
@@ -25153,19 +25153,19 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>415.6498806486147</v>
+        <v>0</v>
       </c>
       <c r="C35" t="n">
         <v>0</v>
       </c>
       <c r="D35" t="n">
-        <v>419.0596946068497</v>
+        <v>0</v>
       </c>
       <c r="E35" t="n">
         <v>0</v>
       </c>
       <c r="F35" t="n">
-        <v>339.4810151309804</v>
+        <v>420.8729399924937</v>
       </c>
       <c r="G35" t="n">
         <v>398.09458649269</v>
@@ -25204,25 +25204,25 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>53.16639005413048</v>
+        <v>0</v>
       </c>
       <c r="T35" t="n">
         <v>209.0810643723971</v>
       </c>
       <c r="U35" t="n">
-        <v>0</v>
+        <v>255.5952734860514</v>
       </c>
       <c r="V35" t="n">
-        <v>0</v>
+        <v>353.914520725013</v>
       </c>
       <c r="W35" t="n">
-        <v>0</v>
+        <v>392.4274362026566</v>
       </c>
       <c r="X35" t="n">
-        <v>0</v>
+        <v>205.8307073790191</v>
       </c>
       <c r="Y35" t="n">
-        <v>401.2838973446586</v>
+        <v>0</v>
       </c>
     </row>
     <row r="36">
@@ -25317,22 +25317,22 @@
         <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>170.1431564831852</v>
       </c>
       <c r="G37" t="n">
-        <v>156.0344231182163</v>
+        <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>133.580034863457</v>
+        <v>3.056781234869874</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>69.0791440484977</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25371,7 +25371,7 @@
         <v>0</v>
       </c>
       <c r="V37" t="n">
-        <v>278.8943527180514</v>
+        <v>0</v>
       </c>
       <c r="W37" t="n">
         <v>0</v>
@@ -25390,16 +25390,16 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>415.6498806486147</v>
+        <v>172.4371100428745</v>
       </c>
       <c r="C38" t="n">
         <v>422.6317226868329</v>
       </c>
       <c r="D38" t="n">
-        <v>419.0596946068497</v>
+        <v>0</v>
       </c>
       <c r="E38" t="n">
-        <v>421.717170453621</v>
+        <v>0</v>
       </c>
       <c r="F38" t="n">
         <v>420.8729399924937</v>
@@ -25444,13 +25444,13 @@
         <v>0</v>
       </c>
       <c r="T38" t="n">
-        <v>0</v>
+        <v>209.0810643723971</v>
       </c>
       <c r="U38" t="n">
-        <v>0</v>
+        <v>255.5952734860514</v>
       </c>
       <c r="V38" t="n">
-        <v>0</v>
+        <v>353.914520725013</v>
       </c>
       <c r="W38" t="n">
         <v>0</v>
@@ -25459,7 +25459,7 @@
         <v>0</v>
       </c>
       <c r="Y38" t="n">
-        <v>135.8851202619096</v>
+        <v>401.2838973446586</v>
       </c>
     </row>
     <row r="39">
@@ -25554,13 +25554,13 @@
         <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>0</v>
+        <v>120.0944980468733</v>
       </c>
       <c r="E40" t="n">
-        <v>101.1785504320842</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>170.1431564831852</v>
+        <v>0</v>
       </c>
       <c r="G40" t="n">
         <v>163.6070689209988</v>
@@ -25599,7 +25599,7 @@
         <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>0</v>
+        <v>151.2272088683957</v>
       </c>
       <c r="T40" t="n">
         <v>0</v>
@@ -25639,10 +25639,10 @@
         <v>421.717170453621</v>
       </c>
       <c r="F41" t="n">
-        <v>420.8729399924937</v>
+        <v>295.1224950518665</v>
       </c>
       <c r="G41" t="n">
-        <v>371.1852768558103</v>
+        <v>398.09458649269</v>
       </c>
       <c r="H41" t="n">
         <v>0</v>
@@ -25678,13 +25678,13 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>53.16639005413048</v>
+        <v>0</v>
       </c>
       <c r="T41" t="n">
         <v>209.0810643723971</v>
       </c>
       <c r="U41" t="n">
-        <v>255.5952734860514</v>
+        <v>0</v>
       </c>
       <c r="V41" t="n">
         <v>353.914520725013</v>
@@ -25693,7 +25693,7 @@
         <v>0</v>
       </c>
       <c r="X41" t="n">
-        <v>0</v>
+        <v>407.6027988439302</v>
       </c>
       <c r="Y41" t="n">
         <v>0</v>
@@ -25794,19 +25794,19 @@
         <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>32.09940638358606</v>
+        <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>170.1431564831852</v>
+        <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>163.6070689209988</v>
+        <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>133.580034863457</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>69.0791440484977</v>
+        <v>12.28570838994109</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -25842,10 +25842,10 @@
         <v>0</v>
       </c>
       <c r="U43" t="n">
-        <v>0</v>
+        <v>277.3287495917327</v>
       </c>
       <c r="V43" t="n">
-        <v>0</v>
+        <v>278.8943527180514</v>
       </c>
       <c r="W43" t="n">
         <v>0</v>
@@ -25867,22 +25867,22 @@
         <v>0</v>
       </c>
       <c r="C44" t="n">
-        <v>422.6317226868329</v>
+        <v>0</v>
       </c>
       <c r="D44" t="n">
-        <v>419.0596946068497</v>
+        <v>0</v>
       </c>
       <c r="E44" t="n">
         <v>421.717170453621</v>
       </c>
       <c r="F44" t="n">
-        <v>420.8729399924937</v>
+        <v>0</v>
       </c>
       <c r="G44" t="n">
         <v>0</v>
       </c>
       <c r="H44" t="n">
-        <v>207.1989676702264</v>
+        <v>272.3478299760288</v>
       </c>
       <c r="I44" t="n">
         <v>0</v>
@@ -25915,7 +25915,7 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>0</v>
+        <v>53.16639005413048</v>
       </c>
       <c r="T44" t="n">
         <v>209.0810643723971</v>
@@ -25924,16 +25924,16 @@
         <v>0</v>
       </c>
       <c r="V44" t="n">
-        <v>0</v>
+        <v>350.5377713789271</v>
       </c>
       <c r="W44" t="n">
-        <v>0</v>
+        <v>392.4274362026566</v>
       </c>
       <c r="X44" t="n">
         <v>407.6027988439302</v>
       </c>
       <c r="Y44" t="n">
-        <v>0</v>
+        <v>401.2838973446586</v>
       </c>
     </row>
     <row r="45">
@@ -26028,7 +26028,7 @@
         <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>161.683605144497</v>
+        <v>0</v>
       </c>
       <c r="E46" t="n">
         <v>0</v>
@@ -26037,10 +26037,10 @@
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>50.76458659354728</v>
+        <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>133.580034863457</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
         <v>69.0791440484977</v>
@@ -26070,19 +26070,19 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>2.174231181331173</v>
+        <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>151.2272088683957</v>
+        <v>0</v>
       </c>
       <c r="T46" t="n">
         <v>0</v>
       </c>
       <c r="U46" t="n">
-        <v>0</v>
+        <v>277.3287495917327</v>
       </c>
       <c r="V46" t="n">
-        <v>0</v>
+        <v>222.1009170594942</v>
       </c>
       <c r="W46" t="n">
         <v>0</v>
@@ -26157,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>399387.0425961976</v>
+        <v>399387.0425961979</v>
       </c>
     </row>
     <row r="7">
@@ -26165,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>399387.0425961975</v>
+        <v>399387.0425961977</v>
       </c>
     </row>
     <row r="8">
@@ -26173,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>399387.0425961976</v>
+        <v>399387.0425961977</v>
       </c>
     </row>
     <row r="9">
@@ -26189,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>473748.1796398344</v>
+        <v>473748.1796398346</v>
       </c>
     </row>
     <row r="11">
@@ -26197,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>473748.1796398343</v>
+        <v>473748.1796398345</v>
       </c>
     </row>
     <row r="12">
@@ -26205,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>473748.1796398344</v>
+        <v>473748.1796398346</v>
       </c>
     </row>
     <row r="13">
@@ -26213,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>473748.1796398345</v>
+        <v>473748.1796398346</v>
       </c>
     </row>
     <row r="14">
@@ -26221,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>473748.1796398343</v>
+        <v>473748.1796398345</v>
       </c>
     </row>
     <row r="15">
@@ -26237,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>473748.1796398344</v>
+        <v>473748.1796398346</v>
       </c>
     </row>
   </sheetData>
@@ -26316,7 +26316,7 @@
         <v>19635.51464522563</v>
       </c>
       <c r="C2" t="n">
-        <v>20251.83812884336</v>
+        <v>20251.83812884337</v>
       </c>
       <c r="D2" t="n">
         <v>20320.13392731742</v>
@@ -26331,28 +26331,28 @@
         <v>153769.2826541837</v>
       </c>
       <c r="H2" t="n">
-        <v>153769.2826541836</v>
+        <v>153769.2826541837</v>
       </c>
       <c r="I2" t="n">
         <v>184574.2868038561</v>
       </c>
       <c r="J2" t="n">
-        <v>184574.286803856</v>
+        <v>184574.2868038561</v>
       </c>
       <c r="K2" t="n">
         <v>184574.2868038561</v>
       </c>
       <c r="L2" t="n">
-        <v>184574.2868038561</v>
+        <v>184574.286803856</v>
       </c>
       <c r="M2" t="n">
-        <v>184574.2868038562</v>
+        <v>184574.286803856</v>
       </c>
       <c r="N2" t="n">
         <v>184574.2868038561</v>
       </c>
       <c r="O2" t="n">
-        <v>184574.2868038561</v>
+        <v>184574.286803856</v>
       </c>
       <c r="P2" t="n">
         <v>184574.286803856</v>
@@ -26371,10 +26371,10 @@
         <v>34741.06549511107</v>
       </c>
       <c r="D3" t="n">
-        <v>3620.625146095259</v>
+        <v>3620.625146095253</v>
       </c>
       <c r="E3" t="n">
-        <v>447005.9016701138</v>
+        <v>447005.9016701139</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26386,7 +26386,7 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>127712.2524351723</v>
+        <v>127712.252435172</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -26398,7 +26398,7 @@
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>113002.0711424958</v>
+        <v>113002.0711424959</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26423,16 +26423,16 @@
         <v>5158.046579314816</v>
       </c>
       <c r="D4" t="n">
-        <v>4454.195724233364</v>
+        <v>4454.195724233365</v>
       </c>
       <c r="E4" t="n">
-        <v>15357.04761547299</v>
+        <v>15357.047615473</v>
       </c>
       <c r="F4" t="n">
         <v>15357.04761547298</v>
       </c>
       <c r="G4" t="n">
-        <v>15357.04761547299</v>
+        <v>15357.04761547298</v>
       </c>
       <c r="H4" t="n">
         <v>15357.04761547298</v>
@@ -26441,7 +26441,7 @@
         <v>12796.38109677835</v>
       </c>
       <c r="J4" t="n">
-        <v>12796.38109677835</v>
+        <v>12796.38109677836</v>
       </c>
       <c r="K4" t="n">
         <v>12796.38109677836</v>
@@ -26481,16 +26481,16 @@
         <v>36949.30081304155</v>
       </c>
       <c r="F5" t="n">
-        <v>36949.30081304154</v>
+        <v>36949.30081304155</v>
       </c>
       <c r="G5" t="n">
-        <v>36949.30081304154</v>
+        <v>36949.30081304155</v>
       </c>
       <c r="H5" t="n">
-        <v>36949.30081304153</v>
+        <v>36949.30081304155</v>
       </c>
       <c r="I5" t="n">
-        <v>48522.48328572916</v>
+        <v>48522.48328572915</v>
       </c>
       <c r="J5" t="n">
         <v>48522.48328572915</v>
@@ -26511,7 +26511,7 @@
         <v>48522.48328572915</v>
       </c>
       <c r="P5" t="n">
-        <v>48522.48328572914</v>
+        <v>48522.48328572915</v>
       </c>
     </row>
     <row r="6">
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-25773.39414190975</v>
+        <v>-27131.32323871153</v>
       </c>
       <c r="C6" t="n">
-        <v>-54106.58223064386</v>
+        <v>-55461.42971002754</v>
       </c>
       <c r="D6" t="n">
-        <v>-22306.15816350432</v>
+        <v>-23660.66416389564</v>
       </c>
       <c r="E6" t="n">
-        <v>-345542.9674444447</v>
+        <v>-346230.2277012017</v>
       </c>
       <c r="F6" t="n">
-        <v>101462.9342256691</v>
+        <v>100775.6739689122</v>
       </c>
       <c r="G6" t="n">
-        <v>101462.9342256692</v>
+        <v>100775.6739689122</v>
       </c>
       <c r="H6" t="n">
-        <v>101462.9342256691</v>
+        <v>100775.6739689122</v>
       </c>
       <c r="I6" t="n">
-        <v>-4456.830013823754</v>
+        <v>-4990.065249832031</v>
       </c>
       <c r="J6" t="n">
-        <v>123255.4224213485</v>
+        <v>122722.1871853399</v>
       </c>
       <c r="K6" t="n">
-        <v>123255.4224213486</v>
+        <v>122722.1871853399</v>
       </c>
       <c r="L6" t="n">
-        <v>123255.4224213486</v>
+        <v>122722.1871853399</v>
       </c>
       <c r="M6" t="n">
-        <v>10253.35127885282</v>
+        <v>9720.116042844007</v>
       </c>
       <c r="N6" t="n">
-        <v>123255.4224213486</v>
+        <v>122722.1871853399</v>
       </c>
       <c r="O6" t="n">
-        <v>123255.4224213485</v>
+        <v>122722.1871853399</v>
       </c>
       <c r="P6" t="n">
-        <v>123255.4224213485</v>
+        <v>122722.1871853399</v>
       </c>
     </row>
   </sheetData>
@@ -26749,19 +26749,19 @@
         <v>430.248375846946</v>
       </c>
       <c r="F3" t="n">
-        <v>430.248375846946</v>
+        <v>430.2483758469461</v>
       </c>
       <c r="G3" t="n">
-        <v>430.2483758469459</v>
+        <v>430.2483758469461</v>
       </c>
       <c r="H3" t="n">
-        <v>430.2483758469459</v>
+        <v>430.2483758469461</v>
       </c>
       <c r="I3" t="n">
-        <v>547.5199668217576</v>
+        <v>547.5199668217575</v>
       </c>
       <c r="J3" t="n">
-        <v>547.5199668217576</v>
+        <v>547.5199668217575</v>
       </c>
       <c r="K3" t="n">
         <v>547.5199668217575</v>
@@ -26798,22 +26798,22 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>453.4520759799034</v>
+        <v>453.4520759799035</v>
       </c>
       <c r="F4" t="n">
-        <v>453.4520759799032</v>
+        <v>453.4520759799035</v>
       </c>
       <c r="G4" t="n">
-        <v>453.4520759799033</v>
+        <v>453.4520759799035</v>
       </c>
       <c r="H4" t="n">
-        <v>453.4520759799032</v>
+        <v>453.4520759799035</v>
       </c>
       <c r="I4" t="n">
+        <v>601.7524343587967</v>
+      </c>
+      <c r="J4" t="n">
         <v>601.7524343587968</v>
-      </c>
-      <c r="J4" t="n">
-        <v>601.7524343587967</v>
       </c>
       <c r="K4" t="n">
         <v>601.7524343587967</v>
@@ -26825,13 +26825,13 @@
         <v>601.7524343587968</v>
       </c>
       <c r="N4" t="n">
+        <v>601.7524343587968</v>
+      </c>
+      <c r="O4" t="n">
         <v>601.7524343587967</v>
       </c>
-      <c r="O4" t="n">
+      <c r="P4" t="n">
         <v>601.7524343587968</v>
-      </c>
-      <c r="P4" t="n">
-        <v>601.7524343587966</v>
       </c>
     </row>
   </sheetData>
@@ -26965,10 +26965,10 @@
         <v>38.15175619547406</v>
       </c>
       <c r="D3" t="n">
-        <v>4.227657588613987</v>
+        <v>4.22765758861398</v>
       </c>
       <c r="E3" t="n">
-        <v>387.8689620628579</v>
+        <v>387.868962062858</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26980,7 +26980,7 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>117.2715909748118</v>
+        <v>117.2715909748114</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -27020,7 +27020,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>453.4520759799034</v>
+        <v>453.4520759799035</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27032,7 +27032,7 @@
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>148.3003583788936</v>
+        <v>148.3003583788932</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -27044,7 +27044,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>453.4520759799034</v>
+        <v>453.4520759799035</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27266,7 +27266,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>453.4520759799034</v>
+        <v>453.4520759799035</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -31284,16 +31284,16 @@
         <v>1.570740394520195</v>
       </c>
       <c r="I5" t="n">
-        <v>5.912947058195032</v>
+        <v>5.912947058195031</v>
       </c>
       <c r="J5" t="n">
-        <v>13.01741755736932</v>
+        <v>13.01741755736931</v>
       </c>
       <c r="K5" t="n">
         <v>19.50973450110566</v>
       </c>
       <c r="L5" t="n">
-        <v>24.20355081735588</v>
+        <v>24.20355081735587</v>
       </c>
       <c r="M5" t="n">
         <v>26.93111380928054</v>
@@ -31357,7 +31357,7 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>0.08206226804309516</v>
+        <v>0.08206226804309515</v>
       </c>
       <c r="H6" t="n">
         <v>0.7925487466267348</v>
@@ -31366,7 +31366,7 @@
         <v>2.825389491834636</v>
       </c>
       <c r="J6" t="n">
-        <v>7.753084718931198</v>
+        <v>7.753084718931197</v>
       </c>
       <c r="K6" t="n">
         <v>13.25125667781857</v>
@@ -31393,13 +31393,13 @@
         <v>5.095059063237085</v>
       </c>
       <c r="S6" t="n">
-        <v>1.524270636677666</v>
+        <v>1.524270636677665</v>
       </c>
       <c r="T6" t="n">
         <v>0.3307685277701948</v>
       </c>
       <c r="U6" t="n">
-        <v>0.005398833423887841</v>
+        <v>0.00539883342388784</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -31439,16 +31439,16 @@
         <v>0.06879824887708436</v>
       </c>
       <c r="H7" t="n">
-        <v>0.611678976379896</v>
+        <v>0.6116789763798959</v>
       </c>
       <c r="I7" t="n">
         <v>2.068950975321774</v>
       </c>
       <c r="J7" t="n">
-        <v>4.864036195609865</v>
+        <v>4.864036195609864</v>
       </c>
       <c r="K7" t="n">
-        <v>7.993105642264891</v>
+        <v>7.99310564226489</v>
       </c>
       <c r="L7" t="n">
         <v>10.22842329214398</v>
@@ -31460,22 +31460,22 @@
         <v>10.52800839407238</v>
       </c>
       <c r="O7" t="n">
-        <v>9.724319759462801</v>
+        <v>9.7243197594628</v>
       </c>
       <c r="P7" t="n">
-        <v>8.320835482370274</v>
+        <v>8.320835482370272</v>
       </c>
       <c r="Q7" t="n">
-        <v>5.760915185516583</v>
+        <v>5.760915185516582</v>
       </c>
       <c r="R7" t="n">
-        <v>3.093419444964175</v>
+        <v>3.093419444964174</v>
       </c>
       <c r="S7" t="n">
         <v>1.198965846339733</v>
       </c>
       <c r="T7" t="n">
-        <v>0.2939561542929968</v>
+        <v>0.2939561542929967</v>
       </c>
       <c r="U7" t="n">
         <v>0.003752631756931878</v>
@@ -31521,13 +31521,13 @@
         <v>1.744796669010217</v>
       </c>
       <c r="I8" t="n">
-        <v>6.568170250898712</v>
+        <v>6.568170250898711</v>
       </c>
       <c r="J8" t="n">
         <v>14.4598985755065</v>
       </c>
       <c r="K8" t="n">
-        <v>21.67163962266408</v>
+        <v>21.67163962266407</v>
       </c>
       <c r="L8" t="n">
         <v>26.88558528937678</v>
@@ -31551,7 +31551,7 @@
         <v>10.70197327081295</v>
       </c>
       <c r="S8" t="n">
-        <v>3.882295041627765</v>
+        <v>3.882295041627764</v>
       </c>
       <c r="T8" t="n">
         <v>0.7457924978486244</v>
@@ -31597,7 +31597,7 @@
         <v>0.09115572021483087</v>
       </c>
       <c r="H9" t="n">
-        <v>0.8803723504958668</v>
+        <v>0.8803723504958667</v>
       </c>
       <c r="I9" t="n">
         <v>3.138475454765011</v>
@@ -31618,7 +31618,7 @@
         <v>21.34302821354166</v>
       </c>
       <c r="O9" t="n">
-        <v>21.68826471269268</v>
+        <v>21.68826471269267</v>
       </c>
       <c r="P9" t="n">
         <v>17.40674450312854</v>
@@ -31633,10 +31633,10 @@
         <v>1.693177522411441</v>
       </c>
       <c r="T9" t="n">
-        <v>0.3674215213922349</v>
+        <v>0.3674215213922348</v>
       </c>
       <c r="U9" t="n">
-        <v>0.005997086856238876</v>
+        <v>0.005997086856238875</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -31700,13 +31700,13 @@
         <v>10.80188730352461</v>
       </c>
       <c r="P10" t="n">
-        <v>9.242880671860771</v>
+        <v>9.242880671860769</v>
       </c>
       <c r="Q10" t="n">
         <v>6.399291481397293</v>
       </c>
       <c r="R10" t="n">
-        <v>3.436206238952449</v>
+        <v>3.436206238952448</v>
       </c>
       <c r="S10" t="n">
         <v>1.331825184001586</v>
@@ -31758,7 +31758,7 @@
         <v>17.71369318248255</v>
       </c>
       <c r="I11" t="n">
-        <v>66.68201209985683</v>
+        <v>66.68201209985685</v>
       </c>
       <c r="J11" t="n">
         <v>146.801178249406</v>
@@ -31770,7 +31770,7 @@
         <v>272.9504344581586</v>
       </c>
       <c r="M11" t="n">
-        <v>303.7099502530052</v>
+        <v>303.7099502530053</v>
       </c>
       <c r="N11" t="n">
         <v>308.6242947670762</v>
@@ -31779,7 +31779,7 @@
         <v>291.425169993898</v>
       </c>
       <c r="P11" t="n">
-        <v>248.7246402301935</v>
+        <v>248.7246402301936</v>
       </c>
       <c r="Q11" t="n">
         <v>186.7818464210729</v>
@@ -31791,7 +31791,7 @@
         <v>39.41421051100416</v>
       </c>
       <c r="T11" t="n">
-        <v>7.571506594050273</v>
+        <v>7.571506594050274</v>
       </c>
       <c r="U11" t="n">
         <v>0.1383713369558016</v>
@@ -31831,7 +31831,7 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>0.9254399027651291</v>
+        <v>0.9254399027651292</v>
       </c>
       <c r="H12" t="n">
         <v>8.937801166179012</v>
@@ -31840,7 +31840,7 @@
         <v>31.86273349432572</v>
       </c>
       <c r="J12" t="n">
-        <v>87.43377607659495</v>
+        <v>87.43377607659497</v>
       </c>
       <c r="K12" t="n">
         <v>149.4382495618586</v>
@@ -31855,22 +31855,22 @@
         <v>240.6914947108307</v>
       </c>
       <c r="O12" t="n">
-        <v>220.1856947600875</v>
+        <v>220.1856947600876</v>
       </c>
       <c r="P12" t="n">
-        <v>176.7184319587201</v>
+        <v>176.7184319587202</v>
       </c>
       <c r="Q12" t="n">
-        <v>118.1315917985803</v>
+        <v>118.1315917985804</v>
       </c>
       <c r="R12" t="n">
-        <v>57.45845291027707</v>
+        <v>57.45845291027708</v>
       </c>
       <c r="S12" t="n">
         <v>17.18964029916807</v>
       </c>
       <c r="T12" t="n">
-        <v>3.730172239654181</v>
+        <v>3.730172239654182</v>
       </c>
       <c r="U12" t="n">
         <v>0.06088420412928484</v>
@@ -31910,16 +31910,16 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>0.7758577269371156</v>
+        <v>0.7758577269371157</v>
       </c>
       <c r="H13" t="n">
-        <v>6.898080517677269</v>
+        <v>6.89808051767727</v>
       </c>
       <c r="I13" t="n">
-        <v>23.33215782461799</v>
+        <v>23.332157824618</v>
       </c>
       <c r="J13" t="n">
-        <v>54.85314129445407</v>
+        <v>54.85314129445408</v>
       </c>
       <c r="K13" t="n">
         <v>90.14056136596669</v>
@@ -31937,7 +31937,7 @@
         <v>109.6639630765298</v>
       </c>
       <c r="P13" t="n">
-        <v>93.83646544701256</v>
+        <v>93.83646544701257</v>
       </c>
       <c r="Q13" t="n">
         <v>64.96750475288884</v>
@@ -31952,7 +31952,7 @@
         <v>3.315028469640402</v>
       </c>
       <c r="U13" t="n">
-        <v>0.04231951237838817</v>
+        <v>0.04231951237838818</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -31989,13 +31989,13 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>1.72964171194752</v>
+        <v>1.729641711947521</v>
       </c>
       <c r="H14" t="n">
         <v>17.71369318248255</v>
       </c>
       <c r="I14" t="n">
-        <v>66.68201209985683</v>
+        <v>66.68201209985685</v>
       </c>
       <c r="J14" t="n">
         <v>146.801178249406</v>
@@ -32007,16 +32007,16 @@
         <v>272.9504344581586</v>
       </c>
       <c r="M14" t="n">
-        <v>303.7099502530052</v>
+        <v>303.7099502530053</v>
       </c>
       <c r="N14" t="n">
         <v>308.6242947670762</v>
       </c>
       <c r="O14" t="n">
-        <v>291.425169993898</v>
+        <v>291.4251699938981</v>
       </c>
       <c r="P14" t="n">
-        <v>248.7246402301935</v>
+        <v>248.7246402301936</v>
       </c>
       <c r="Q14" t="n">
         <v>186.7818464210729</v>
@@ -32028,7 +32028,7 @@
         <v>39.41421051100416</v>
       </c>
       <c r="T14" t="n">
-        <v>7.571506594050273</v>
+        <v>7.571506594050276</v>
       </c>
       <c r="U14" t="n">
         <v>0.1383713369558016</v>
@@ -32068,16 +32068,16 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>0.9254399027651291</v>
+        <v>0.9254399027651293</v>
       </c>
       <c r="H15" t="n">
-        <v>8.937801166179012</v>
+        <v>8.937801166179014</v>
       </c>
       <c r="I15" t="n">
-        <v>31.86273349432572</v>
+        <v>31.86273349432573</v>
       </c>
       <c r="J15" t="n">
-        <v>87.43377607659495</v>
+        <v>87.43377607659498</v>
       </c>
       <c r="K15" t="n">
         <v>149.4382495618586</v>
@@ -32086,31 +32086,31 @@
         <v>200.9381683613497</v>
       </c>
       <c r="M15" t="n">
-        <v>234.4853648365855</v>
+        <v>234.4853648365856</v>
       </c>
       <c r="N15" t="n">
         <v>240.6914947108307</v>
       </c>
       <c r="O15" t="n">
-        <v>220.1856947600875</v>
+        <v>220.1856947600876</v>
       </c>
       <c r="P15" t="n">
-        <v>176.7184319587201</v>
+        <v>176.7184319587202</v>
       </c>
       <c r="Q15" t="n">
-        <v>118.1315917985803</v>
+        <v>118.1315917985804</v>
       </c>
       <c r="R15" t="n">
-        <v>57.45845291027707</v>
+        <v>57.45845291027709</v>
       </c>
       <c r="S15" t="n">
         <v>17.18964029916807</v>
       </c>
       <c r="T15" t="n">
-        <v>3.730172239654181</v>
+        <v>3.730172239654182</v>
       </c>
       <c r="U15" t="n">
-        <v>0.06088420412928484</v>
+        <v>0.06088420412928485</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
@@ -32147,19 +32147,19 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>0.7758577269371156</v>
+        <v>0.7758577269371159</v>
       </c>
       <c r="H16" t="n">
-        <v>6.898080517677269</v>
+        <v>6.898080517677271</v>
       </c>
       <c r="I16" t="n">
-        <v>23.33215782461799</v>
+        <v>23.332157824618</v>
       </c>
       <c r="J16" t="n">
-        <v>54.85314129445407</v>
+        <v>54.85314129445408</v>
       </c>
       <c r="K16" t="n">
-        <v>90.14056136596669</v>
+        <v>90.1405613659667</v>
       </c>
       <c r="L16" t="n">
         <v>115.3488842393599</v>
@@ -32174,10 +32174,10 @@
         <v>109.6639630765298</v>
       </c>
       <c r="P16" t="n">
-        <v>93.83646544701256</v>
+        <v>93.83646544701259</v>
       </c>
       <c r="Q16" t="n">
-        <v>64.96750475288884</v>
+        <v>64.96750475288886</v>
       </c>
       <c r="R16" t="n">
         <v>34.88538470391794</v>
@@ -32186,10 +32186,10 @@
         <v>13.521084204895</v>
       </c>
       <c r="T16" t="n">
-        <v>3.315028469640402</v>
+        <v>3.315028469640403</v>
       </c>
       <c r="U16" t="n">
-        <v>0.04231951237838817</v>
+        <v>0.04231951237838819</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32226,34 +32226,34 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>1.72964171194752</v>
+        <v>1.729641711947521</v>
       </c>
       <c r="H17" t="n">
-        <v>17.71369318248254</v>
+        <v>17.71369318248255</v>
       </c>
       <c r="I17" t="n">
-        <v>66.68201209985682</v>
+        <v>66.68201209985685</v>
       </c>
       <c r="J17" t="n">
         <v>146.801178249406</v>
       </c>
       <c r="K17" t="n">
-        <v>220.0169119161445</v>
+        <v>220.0169119161446</v>
       </c>
       <c r="L17" t="n">
-        <v>272.9504344581584</v>
+        <v>272.9504344581586</v>
       </c>
       <c r="M17" t="n">
-        <v>303.7099502530052</v>
+        <v>303.7099502530053</v>
       </c>
       <c r="N17" t="n">
-        <v>308.624294767076</v>
+        <v>308.6242947670762</v>
       </c>
       <c r="O17" t="n">
-        <v>291.4251699938979</v>
+        <v>291.4251699938981</v>
       </c>
       <c r="P17" t="n">
-        <v>248.7246402301935</v>
+        <v>248.7246402301936</v>
       </c>
       <c r="Q17" t="n">
         <v>186.7818464210729</v>
@@ -32262,10 +32262,10 @@
         <v>108.6496061881235</v>
       </c>
       <c r="S17" t="n">
-        <v>39.41421051100414</v>
+        <v>39.41421051100416</v>
       </c>
       <c r="T17" t="n">
-        <v>7.571506594050271</v>
+        <v>7.571506594050276</v>
       </c>
       <c r="U17" t="n">
         <v>0.1383713369558016</v>
@@ -32305,49 +32305,49 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>0.9254399027651289</v>
+        <v>0.9254399027651293</v>
       </c>
       <c r="H18" t="n">
-        <v>8.937801166179009</v>
+        <v>8.937801166179014</v>
       </c>
       <c r="I18" t="n">
-        <v>31.86273349432571</v>
+        <v>31.86273349432573</v>
       </c>
       <c r="J18" t="n">
-        <v>87.43377607659492</v>
+        <v>87.43377607659498</v>
       </c>
       <c r="K18" t="n">
         <v>149.4382495618586</v>
       </c>
       <c r="L18" t="n">
-        <v>200.9381683613496</v>
+        <v>200.9381683613497</v>
       </c>
       <c r="M18" t="n">
-        <v>234.4853648365855</v>
+        <v>234.4853648365856</v>
       </c>
       <c r="N18" t="n">
-        <v>240.6914947108306</v>
+        <v>240.6914947108307</v>
       </c>
       <c r="O18" t="n">
-        <v>220.1856947600875</v>
+        <v>220.1856947600876</v>
       </c>
       <c r="P18" t="n">
-        <v>176.7184319587201</v>
+        <v>176.7184319587202</v>
       </c>
       <c r="Q18" t="n">
-        <v>118.1315917985803</v>
+        <v>118.1315917985804</v>
       </c>
       <c r="R18" t="n">
-        <v>57.45845291027706</v>
+        <v>57.45845291027709</v>
       </c>
       <c r="S18" t="n">
-        <v>17.18964029916806</v>
+        <v>17.18964029916807</v>
       </c>
       <c r="T18" t="n">
-        <v>3.73017223965418</v>
+        <v>3.730172239654182</v>
       </c>
       <c r="U18" t="n">
-        <v>0.06088420412928482</v>
+        <v>0.06088420412928485</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
@@ -32384,19 +32384,19 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>0.7758577269371154</v>
+        <v>0.7758577269371159</v>
       </c>
       <c r="H19" t="n">
-        <v>6.898080517677267</v>
+        <v>6.898080517677271</v>
       </c>
       <c r="I19" t="n">
-        <v>23.33215782461799</v>
+        <v>23.332157824618</v>
       </c>
       <c r="J19" t="n">
-        <v>54.85314129445405</v>
+        <v>54.85314129445408</v>
       </c>
       <c r="K19" t="n">
-        <v>90.14056136596666</v>
+        <v>90.1405613659667</v>
       </c>
       <c r="L19" t="n">
         <v>115.3488842393599</v>
@@ -32405,28 +32405,28 @@
         <v>121.6192253234244</v>
       </c>
       <c r="N19" t="n">
-        <v>118.7273919775679</v>
+        <v>118.727391977568</v>
       </c>
       <c r="O19" t="n">
         <v>109.6639630765298</v>
       </c>
       <c r="P19" t="n">
-        <v>93.83646544701254</v>
+        <v>93.83646544701259</v>
       </c>
       <c r="Q19" t="n">
-        <v>64.96750475288883</v>
+        <v>64.96750475288886</v>
       </c>
       <c r="R19" t="n">
-        <v>34.88538470391793</v>
+        <v>34.88538470391794</v>
       </c>
       <c r="S19" t="n">
         <v>13.521084204895</v>
       </c>
       <c r="T19" t="n">
-        <v>3.315028469640402</v>
+        <v>3.315028469640403</v>
       </c>
       <c r="U19" t="n">
-        <v>0.04231951237838816</v>
+        <v>0.04231951237838819</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32463,34 +32463,34 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>1.72964171194752</v>
+        <v>1.729641711947521</v>
       </c>
       <c r="H20" t="n">
-        <v>17.71369318248254</v>
+        <v>17.71369318248255</v>
       </c>
       <c r="I20" t="n">
-        <v>66.68201209985682</v>
+        <v>66.68201209985685</v>
       </c>
       <c r="J20" t="n">
         <v>146.801178249406</v>
       </c>
       <c r="K20" t="n">
-        <v>220.0169119161445</v>
+        <v>220.0169119161446</v>
       </c>
       <c r="L20" t="n">
-        <v>272.9504344581584</v>
+        <v>272.9504344581586</v>
       </c>
       <c r="M20" t="n">
-        <v>303.7099502530052</v>
+        <v>303.7099502530053</v>
       </c>
       <c r="N20" t="n">
-        <v>308.624294767076</v>
+        <v>308.6242947670762</v>
       </c>
       <c r="O20" t="n">
-        <v>291.4251699938979</v>
+        <v>291.4251699938981</v>
       </c>
       <c r="P20" t="n">
-        <v>248.7246402301935</v>
+        <v>248.7246402301936</v>
       </c>
       <c r="Q20" t="n">
         <v>186.7818464210729</v>
@@ -32499,10 +32499,10 @@
         <v>108.6496061881235</v>
       </c>
       <c r="S20" t="n">
-        <v>39.41421051100414</v>
+        <v>39.41421051100416</v>
       </c>
       <c r="T20" t="n">
-        <v>7.571506594050271</v>
+        <v>7.571506594050276</v>
       </c>
       <c r="U20" t="n">
         <v>0.1383713369558016</v>
@@ -32542,49 +32542,49 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>0.9254399027651289</v>
+        <v>0.9254399027651293</v>
       </c>
       <c r="H21" t="n">
-        <v>8.937801166179009</v>
+        <v>8.937801166179014</v>
       </c>
       <c r="I21" t="n">
-        <v>31.86273349432571</v>
+        <v>31.86273349432573</v>
       </c>
       <c r="J21" t="n">
-        <v>87.43377607659492</v>
+        <v>87.43377607659498</v>
       </c>
       <c r="K21" t="n">
         <v>149.4382495618586</v>
       </c>
       <c r="L21" t="n">
-        <v>200.9381683613496</v>
+        <v>200.9381683613497</v>
       </c>
       <c r="M21" t="n">
-        <v>234.4853648365855</v>
+        <v>234.4853648365856</v>
       </c>
       <c r="N21" t="n">
-        <v>240.6914947108306</v>
+        <v>240.6914947108307</v>
       </c>
       <c r="O21" t="n">
-        <v>220.1856947600875</v>
+        <v>220.1856947600876</v>
       </c>
       <c r="P21" t="n">
-        <v>176.7184319587201</v>
+        <v>176.7184319587202</v>
       </c>
       <c r="Q21" t="n">
-        <v>118.1315917985803</v>
+        <v>118.1315917985804</v>
       </c>
       <c r="R21" t="n">
-        <v>57.45845291027706</v>
+        <v>57.45845291027709</v>
       </c>
       <c r="S21" t="n">
-        <v>17.18964029916806</v>
+        <v>17.18964029916807</v>
       </c>
       <c r="T21" t="n">
-        <v>3.73017223965418</v>
+        <v>3.730172239654182</v>
       </c>
       <c r="U21" t="n">
-        <v>0.06088420412928482</v>
+        <v>0.06088420412928485</v>
       </c>
       <c r="V21" t="n">
         <v>0</v>
@@ -32621,19 +32621,19 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>0.7758577269371154</v>
+        <v>0.7758577269371159</v>
       </c>
       <c r="H22" t="n">
-        <v>6.898080517677267</v>
+        <v>6.898080517677271</v>
       </c>
       <c r="I22" t="n">
-        <v>23.33215782461799</v>
+        <v>23.332157824618</v>
       </c>
       <c r="J22" t="n">
-        <v>54.85314129445405</v>
+        <v>54.85314129445408</v>
       </c>
       <c r="K22" t="n">
-        <v>90.14056136596666</v>
+        <v>90.1405613659667</v>
       </c>
       <c r="L22" t="n">
         <v>115.3488842393599</v>
@@ -32642,28 +32642,28 @@
         <v>121.6192253234244</v>
       </c>
       <c r="N22" t="n">
-        <v>118.7273919775679</v>
+        <v>118.727391977568</v>
       </c>
       <c r="O22" t="n">
         <v>109.6639630765298</v>
       </c>
       <c r="P22" t="n">
-        <v>93.83646544701254</v>
+        <v>93.83646544701259</v>
       </c>
       <c r="Q22" t="n">
-        <v>64.96750475288883</v>
+        <v>64.96750475288886</v>
       </c>
       <c r="R22" t="n">
-        <v>34.88538470391793</v>
+        <v>34.88538470391794</v>
       </c>
       <c r="S22" t="n">
         <v>13.521084204895</v>
       </c>
       <c r="T22" t="n">
-        <v>3.315028469640402</v>
+        <v>3.315028469640403</v>
       </c>
       <c r="U22" t="n">
-        <v>0.04231951237838816</v>
+        <v>0.04231951237838819</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -32706,40 +32706,40 @@
         <v>22.54186476467667</v>
       </c>
       <c r="I23" t="n">
-        <v>84.85734078752087</v>
+        <v>84.85734078752085</v>
       </c>
       <c r="J23" t="n">
-        <v>186.8143629509072</v>
+        <v>186.8143629509071</v>
       </c>
       <c r="K23" t="n">
-        <v>279.9863034355906</v>
+        <v>279.9863034355905</v>
       </c>
       <c r="L23" t="n">
-        <v>347.34776749437</v>
+        <v>347.3477674943699</v>
       </c>
       <c r="M23" t="n">
-        <v>386.4913180871998</v>
+        <v>386.4913180871997</v>
       </c>
       <c r="N23" t="n">
-        <v>392.7451516780835</v>
+        <v>392.7451516780834</v>
       </c>
       <c r="O23" t="n">
         <v>370.8581097882991</v>
       </c>
       <c r="P23" t="n">
-        <v>316.5188165987026</v>
+        <v>316.5188165987025</v>
       </c>
       <c r="Q23" t="n">
-        <v>237.6924495160727</v>
+        <v>237.6924495160726</v>
       </c>
       <c r="R23" t="n">
         <v>138.2639240838884</v>
       </c>
       <c r="S23" t="n">
-        <v>50.15723113146052</v>
+        <v>50.15723113146051</v>
       </c>
       <c r="T23" t="n">
-        <v>9.635250873416053</v>
+        <v>9.635250873416052</v>
       </c>
       <c r="U23" t="n">
         <v>0.1760868235004646</v>
@@ -32782,7 +32782,7 @@
         <v>1.177684456937365</v>
       </c>
       <c r="H24" t="n">
-        <v>11.37395251831614</v>
+        <v>11.37395251831613</v>
       </c>
       <c r="I24" t="n">
         <v>40.54746924104526</v>
@@ -32797,31 +32797,31 @@
         <v>255.7073203538784</v>
       </c>
       <c r="M24" t="n">
-        <v>298.3983819178579</v>
+        <v>298.3983819178578</v>
       </c>
       <c r="N24" t="n">
-        <v>306.2960991751265</v>
+        <v>306.2960991751264</v>
       </c>
       <c r="O24" t="n">
-        <v>280.2010909450933</v>
+        <v>280.2010909450932</v>
       </c>
       <c r="P24" t="n">
-        <v>224.8860784479782</v>
+        <v>224.8860784479781</v>
       </c>
       <c r="Q24" t="n">
-        <v>150.3303878715136</v>
+        <v>150.3303878715135</v>
       </c>
       <c r="R24" t="n">
-        <v>73.119741984234</v>
+        <v>73.11974198423398</v>
       </c>
       <c r="S24" t="n">
         <v>21.87497225934096</v>
       </c>
       <c r="T24" t="n">
-        <v>4.74689480669052</v>
+        <v>4.746894806690519</v>
       </c>
       <c r="U24" t="n">
-        <v>0.07747924058798461</v>
+        <v>0.07747924058798458</v>
       </c>
       <c r="V24" t="n">
         <v>0</v>
@@ -32858,16 +32858,16 @@
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>0.9873310877113661</v>
+        <v>0.9873310877113659</v>
       </c>
       <c r="H25" t="n">
-        <v>8.778270943470153</v>
+        <v>8.778270943470151</v>
       </c>
       <c r="I25" t="n">
-        <v>29.69173852862909</v>
+        <v>29.69173852862908</v>
       </c>
       <c r="J25" t="n">
-        <v>69.80430790119358</v>
+        <v>69.80430790119357</v>
       </c>
       <c r="K25" t="n">
         <v>114.7099209177387</v>
@@ -32879,28 +32879,28 @@
         <v>154.7686358673371</v>
       </c>
       <c r="N25" t="n">
-        <v>151.0885836313222</v>
+        <v>151.0885836313221</v>
       </c>
       <c r="O25" t="n">
         <v>139.5547613794211</v>
       </c>
       <c r="P25" t="n">
-        <v>119.4132071901092</v>
+        <v>119.4132071901091</v>
       </c>
       <c r="Q25" t="n">
-        <v>82.6755149900854</v>
+        <v>82.67551499008539</v>
       </c>
       <c r="R25" t="n">
-        <v>44.39399599836742</v>
+        <v>44.39399599836741</v>
       </c>
       <c r="S25" t="n">
         <v>17.2064881376608</v>
       </c>
       <c r="T25" t="n">
-        <v>4.218596465675836</v>
+        <v>4.218596465675835</v>
       </c>
       <c r="U25" t="n">
-        <v>0.05385442296607458</v>
+        <v>0.05385442296607457</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -32943,40 +32943,40 @@
         <v>22.54186476467667</v>
       </c>
       <c r="I26" t="n">
-        <v>84.85734078752087</v>
+        <v>84.85734078752085</v>
       </c>
       <c r="J26" t="n">
-        <v>186.8143629509072</v>
+        <v>186.8143629509071</v>
       </c>
       <c r="K26" t="n">
-        <v>279.9863034355906</v>
+        <v>279.9863034355905</v>
       </c>
       <c r="L26" t="n">
-        <v>347.34776749437</v>
+        <v>347.3477674943699</v>
       </c>
       <c r="M26" t="n">
-        <v>386.4913180871998</v>
+        <v>386.4913180871997</v>
       </c>
       <c r="N26" t="n">
-        <v>392.7451516780835</v>
+        <v>392.7451516780834</v>
       </c>
       <c r="O26" t="n">
         <v>370.8581097882991</v>
       </c>
       <c r="P26" t="n">
-        <v>316.5188165987026</v>
+        <v>316.5188165987025</v>
       </c>
       <c r="Q26" t="n">
-        <v>237.6924495160727</v>
+        <v>237.6924495160726</v>
       </c>
       <c r="R26" t="n">
         <v>138.2639240838884</v>
       </c>
       <c r="S26" t="n">
-        <v>50.15723113146052</v>
+        <v>50.15723113146051</v>
       </c>
       <c r="T26" t="n">
-        <v>9.635250873416053</v>
+        <v>9.635250873416052</v>
       </c>
       <c r="U26" t="n">
         <v>0.1760868235004646</v>
@@ -33019,7 +33019,7 @@
         <v>1.177684456937365</v>
       </c>
       <c r="H27" t="n">
-        <v>11.37395251831614</v>
+        <v>11.37395251831613</v>
       </c>
       <c r="I27" t="n">
         <v>40.54746924104526</v>
@@ -33034,31 +33034,31 @@
         <v>255.7073203538784</v>
       </c>
       <c r="M27" t="n">
-        <v>298.3983819178579</v>
+        <v>298.3983819178578</v>
       </c>
       <c r="N27" t="n">
-        <v>306.2960991751265</v>
+        <v>306.2960991751264</v>
       </c>
       <c r="O27" t="n">
-        <v>280.2010909450933</v>
+        <v>280.2010909450932</v>
       </c>
       <c r="P27" t="n">
-        <v>224.8860784479782</v>
+        <v>224.8860784479781</v>
       </c>
       <c r="Q27" t="n">
-        <v>150.3303878715136</v>
+        <v>150.3303878715135</v>
       </c>
       <c r="R27" t="n">
-        <v>73.119741984234</v>
+        <v>73.11974198423398</v>
       </c>
       <c r="S27" t="n">
         <v>21.87497225934096</v>
       </c>
       <c r="T27" t="n">
-        <v>4.74689480669052</v>
+        <v>4.746894806690519</v>
       </c>
       <c r="U27" t="n">
-        <v>0.07747924058798461</v>
+        <v>0.07747924058798458</v>
       </c>
       <c r="V27" t="n">
         <v>0</v>
@@ -33095,16 +33095,16 @@
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>0.9873310877113661</v>
+        <v>0.9873310877113659</v>
       </c>
       <c r="H28" t="n">
-        <v>8.778270943470153</v>
+        <v>8.778270943470151</v>
       </c>
       <c r="I28" t="n">
-        <v>29.69173852862909</v>
+        <v>29.69173852862908</v>
       </c>
       <c r="J28" t="n">
-        <v>69.80430790119358</v>
+        <v>69.80430790119357</v>
       </c>
       <c r="K28" t="n">
         <v>114.7099209177387</v>
@@ -33116,28 +33116,28 @@
         <v>154.7686358673371</v>
       </c>
       <c r="N28" t="n">
-        <v>151.0885836313222</v>
+        <v>151.0885836313221</v>
       </c>
       <c r="O28" t="n">
         <v>139.5547613794211</v>
       </c>
       <c r="P28" t="n">
-        <v>119.4132071901092</v>
+        <v>119.4132071901091</v>
       </c>
       <c r="Q28" t="n">
-        <v>82.6755149900854</v>
+        <v>82.67551499008539</v>
       </c>
       <c r="R28" t="n">
-        <v>44.39399599836742</v>
+        <v>44.39399599836741</v>
       </c>
       <c r="S28" t="n">
         <v>17.2064881376608</v>
       </c>
       <c r="T28" t="n">
-        <v>4.218596465675836</v>
+        <v>4.218596465675835</v>
       </c>
       <c r="U28" t="n">
-        <v>0.05385442296607458</v>
+        <v>0.05385442296607457</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -35406,13 +35406,13 @@
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>32.13410955589333</v>
+        <v>32.13410955589335</v>
       </c>
       <c r="J11" t="n">
-        <v>117.3812187638194</v>
+        <v>117.3812187638195</v>
       </c>
       <c r="K11" t="n">
-        <v>184.2523111213352</v>
+        <v>184.2523111213353</v>
       </c>
       <c r="L11" t="n">
         <v>234.6383920255356</v>
@@ -35421,19 +35421,19 @@
         <v>266.2786873535734</v>
       </c>
       <c r="N11" t="n">
-        <v>271.3446719326301</v>
+        <v>271.3446719326302</v>
       </c>
       <c r="O11" t="n">
         <v>254.0342106378739</v>
       </c>
       <c r="P11" t="n">
-        <v>211.1492784199622</v>
+        <v>211.1492784199623</v>
       </c>
       <c r="Q11" t="n">
         <v>150.6571718164749</v>
       </c>
       <c r="R11" t="n">
-        <v>73.61695629332704</v>
+        <v>73.61695629332706</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35491,7 +35491,7 @@
         <v>361.8756844398183</v>
       </c>
       <c r="K12" t="n">
-        <v>197.414405763944</v>
+        <v>127.0390157285253</v>
       </c>
       <c r="L12" t="n">
         <v>178.4230816471201</v>
@@ -35500,7 +35500,7 @@
         <v>211.3885843242576</v>
       </c>
       <c r="N12" t="n">
-        <v>219.348466497289</v>
+        <v>219.3484664972891</v>
       </c>
       <c r="O12" t="n">
         <v>197.0138050378653</v>
@@ -35509,7 +35509,7 @@
         <v>154.9475907538915</v>
       </c>
       <c r="Q12" t="n">
-        <v>95.38455350960184</v>
+        <v>165.7599435450208</v>
       </c>
       <c r="R12" t="n">
         <v>140.3062408746237</v>
@@ -35573,16 +35573,16 @@
         <v>318.9563201597416</v>
       </c>
       <c r="L13" t="n">
-        <v>93.43012434365869</v>
+        <v>453.4520759799035</v>
       </c>
       <c r="M13" t="n">
-        <v>453.4520759799034</v>
+        <v>99.04378543193859</v>
       </c>
       <c r="N13" t="n">
-        <v>148.937034317367</v>
+        <v>97.97849100196758</v>
       </c>
       <c r="O13" t="n">
-        <v>87.16477557810535</v>
+        <v>132.5096578052252</v>
       </c>
       <c r="P13" t="n">
         <v>387.3710229438823</v>
@@ -35643,34 +35643,34 @@
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>32.13410955589333</v>
+        <v>32.13410955589335</v>
       </c>
       <c r="J14" t="n">
-        <v>117.3812187638194</v>
+        <v>117.3812187638195</v>
       </c>
       <c r="K14" t="n">
-        <v>184.2523111213352</v>
+        <v>184.2523111213353</v>
       </c>
       <c r="L14" t="n">
-        <v>234.6383920255356</v>
+        <v>234.6383920255357</v>
       </c>
       <c r="M14" t="n">
-        <v>266.2786873535734</v>
+        <v>266.2786873535735</v>
       </c>
       <c r="N14" t="n">
-        <v>271.3446719326301</v>
+        <v>271.3446719326302</v>
       </c>
       <c r="O14" t="n">
-        <v>254.0342106378739</v>
+        <v>254.034210637874</v>
       </c>
       <c r="P14" t="n">
-        <v>211.1492784199622</v>
+        <v>211.1492784199623</v>
       </c>
       <c r="Q14" t="n">
         <v>150.6571718164749</v>
       </c>
       <c r="R14" t="n">
-        <v>73.61695629332704</v>
+        <v>73.61695629332706</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35722,13 +35722,13 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>15.69034674432572</v>
+        <v>39.38459507201446</v>
       </c>
       <c r="J15" t="n">
-        <v>361.8756844398183</v>
+        <v>66.82266174326165</v>
       </c>
       <c r="K15" t="n">
-        <v>221.1086540916323</v>
+        <v>453.4520759799035</v>
       </c>
       <c r="L15" t="n">
         <v>178.4230816471201</v>
@@ -35737,19 +35737,19 @@
         <v>211.3885843242576</v>
       </c>
       <c r="N15" t="n">
-        <v>219.348466497289</v>
+        <v>219.3484664972891</v>
       </c>
       <c r="O15" t="n">
-        <v>197.0138050378653</v>
+        <v>197.0138050378654</v>
       </c>
       <c r="P15" t="n">
-        <v>154.9475907538915</v>
+        <v>300.4836505929785</v>
       </c>
       <c r="Q15" t="n">
-        <v>95.38455350960184</v>
+        <v>95.38455350960189</v>
       </c>
       <c r="R15" t="n">
-        <v>140.3062408746237</v>
+        <v>33.78553351613294</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -35804,28 +35804,28 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>34.2163853105522</v>
+        <v>112.9251900057248</v>
       </c>
       <c r="K16" t="n">
-        <v>69.17590691325469</v>
+        <v>318.9563201597416</v>
       </c>
       <c r="L16" t="n">
-        <v>219.9348809797782</v>
+        <v>453.4520759799035</v>
       </c>
       <c r="M16" t="n">
-        <v>453.4520759799032</v>
+        <v>99.0437854319386</v>
       </c>
       <c r="N16" t="n">
-        <v>453.4520759799032</v>
+        <v>97.9784910019676</v>
       </c>
       <c r="O16" t="n">
-        <v>453.4520759799032</v>
+        <v>132.5096578052252</v>
       </c>
       <c r="P16" t="n">
-        <v>71.45566478902607</v>
+        <v>387.3710229438823</v>
       </c>
       <c r="Q16" t="n">
-        <v>40.3479419881039</v>
+        <v>193.2504645920423</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -35880,34 +35880,34 @@
         <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>32.13410955589332</v>
+        <v>32.13410955589335</v>
       </c>
       <c r="J17" t="n">
-        <v>117.3812187638194</v>
+        <v>117.3812187638195</v>
       </c>
       <c r="K17" t="n">
-        <v>184.2523111213351</v>
+        <v>184.2523111213353</v>
       </c>
       <c r="L17" t="n">
-        <v>234.6383920255355</v>
+        <v>234.6383920255357</v>
       </c>
       <c r="M17" t="n">
-        <v>266.2786873535733</v>
+        <v>266.2786873535735</v>
       </c>
       <c r="N17" t="n">
-        <v>271.34467193263</v>
+        <v>271.3446719326302</v>
       </c>
       <c r="O17" t="n">
-        <v>254.0342106378738</v>
+        <v>254.034210637874</v>
       </c>
       <c r="P17" t="n">
-        <v>211.1492784199622</v>
+        <v>211.1492784199623</v>
       </c>
       <c r="Q17" t="n">
-        <v>150.6571718164748</v>
+        <v>150.6571718164749</v>
       </c>
       <c r="R17" t="n">
-        <v>73.61695629332701</v>
+        <v>73.61695629332706</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35959,34 +35959,34 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>39.38459507201444</v>
+        <v>39.38459507201446</v>
       </c>
       <c r="J18" t="n">
-        <v>105.8380142238587</v>
+        <v>361.8756844398183</v>
       </c>
       <c r="K18" t="n">
-        <v>453.4520759799033</v>
+        <v>127.0390157285253</v>
       </c>
       <c r="L18" t="n">
-        <v>178.42308164712</v>
+        <v>178.4230816471201</v>
       </c>
       <c r="M18" t="n">
-        <v>211.3885843242575</v>
+        <v>211.3885843242576</v>
       </c>
       <c r="N18" t="n">
-        <v>219.3484664972889</v>
+        <v>219.3484664972891</v>
       </c>
       <c r="O18" t="n">
-        <v>197.0138050378652</v>
+        <v>197.0138050378654</v>
       </c>
       <c r="P18" t="n">
         <v>154.9475907538915</v>
       </c>
       <c r="Q18" t="n">
-        <v>95.38455350960182</v>
+        <v>165.7599435450197</v>
       </c>
       <c r="R18" t="n">
-        <v>140.3062408746236</v>
+        <v>140.3062408746237</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -36041,28 +36041,28 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>34.21638531055218</v>
+        <v>112.9251900057248</v>
       </c>
       <c r="K19" t="n">
-        <v>69.17590691325466</v>
+        <v>318.9563201597416</v>
       </c>
       <c r="L19" t="n">
-        <v>93.43012434365866</v>
+        <v>453.4520759799035</v>
       </c>
       <c r="M19" t="n">
-        <v>453.4520759799033</v>
+        <v>453.4520759799035</v>
       </c>
       <c r="N19" t="n">
-        <v>453.4520759799033</v>
+        <v>97.9784910019676</v>
       </c>
       <c r="O19" t="n">
-        <v>111.1389518572283</v>
+        <v>87.16477557810538</v>
       </c>
       <c r="P19" t="n">
-        <v>387.3710229438822</v>
+        <v>231.2101372269755</v>
       </c>
       <c r="Q19" t="n">
-        <v>193.2504645920423</v>
+        <v>40.34794198810391</v>
       </c>
       <c r="R19" t="n">
         <v>0</v>
@@ -36117,34 +36117,34 @@
         <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>32.13410955589332</v>
+        <v>32.13410955589335</v>
       </c>
       <c r="J20" t="n">
-        <v>117.3812187638194</v>
+        <v>117.3812187638195</v>
       </c>
       <c r="K20" t="n">
-        <v>184.2523111213351</v>
+        <v>184.2523111213353</v>
       </c>
       <c r="L20" t="n">
-        <v>234.6383920255355</v>
+        <v>234.6383920255357</v>
       </c>
       <c r="M20" t="n">
-        <v>266.2786873535733</v>
+        <v>266.2786873535735</v>
       </c>
       <c r="N20" t="n">
-        <v>271.34467193263</v>
+        <v>271.3446719326302</v>
       </c>
       <c r="O20" t="n">
-        <v>254.0342106378738</v>
+        <v>254.034210637874</v>
       </c>
       <c r="P20" t="n">
-        <v>211.1492784199622</v>
+        <v>211.1492784199623</v>
       </c>
       <c r="Q20" t="n">
-        <v>150.6571718164748</v>
+        <v>150.6571718164749</v>
       </c>
       <c r="R20" t="n">
-        <v>73.61695629332701</v>
+        <v>73.61695629332706</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36196,34 +36196,34 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>39.38459507201444</v>
+        <v>39.38459507201446</v>
       </c>
       <c r="J21" t="n">
-        <v>66.82266174326159</v>
+        <v>66.82266174326165</v>
       </c>
       <c r="K21" t="n">
-        <v>127.0390157285252</v>
+        <v>127.0390157285253</v>
       </c>
       <c r="L21" t="n">
-        <v>301.7880027234494</v>
+        <v>178.4230816471201</v>
       </c>
       <c r="M21" t="n">
-        <v>453.4520759799032</v>
+        <v>211.3885843242576</v>
       </c>
       <c r="N21" t="n">
-        <v>219.3484664972889</v>
+        <v>219.3484664972891</v>
       </c>
       <c r="O21" t="n">
-        <v>197.0138050378652</v>
+        <v>197.0138050378654</v>
       </c>
       <c r="P21" t="n">
-        <v>154.9475907538915</v>
+        <v>162.3084810155644</v>
       </c>
       <c r="Q21" t="n">
-        <v>95.38455350960182</v>
+        <v>453.4520759799035</v>
       </c>
       <c r="R21" t="n">
-        <v>140.3062408746236</v>
+        <v>140.3062408746237</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -36278,28 +36278,28 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>34.21638531055218</v>
+        <v>112.9251900057248</v>
       </c>
       <c r="K22" t="n">
-        <v>69.17590691325466</v>
+        <v>318.9563201597416</v>
       </c>
       <c r="L22" t="n">
-        <v>219.9348809797782</v>
+        <v>453.4520759799035</v>
       </c>
       <c r="M22" t="n">
-        <v>453.4520759799032</v>
+        <v>144.3886676590584</v>
       </c>
       <c r="N22" t="n">
-        <v>453.4520759799032</v>
+        <v>97.9784910019676</v>
       </c>
       <c r="O22" t="n">
-        <v>453.4520759799032</v>
+        <v>87.16477557810538</v>
       </c>
       <c r="P22" t="n">
-        <v>71.45566478902606</v>
+        <v>387.3710229438823</v>
       </c>
       <c r="Q22" t="n">
-        <v>40.34794198810388</v>
+        <v>193.2504645920423</v>
       </c>
       <c r="R22" t="n">
         <v>0</v>
@@ -36354,7 +36354,7 @@
         <v>0</v>
       </c>
       <c r="I23" t="n">
-        <v>50.30943824355737</v>
+        <v>50.30943824355735</v>
       </c>
       <c r="J23" t="n">
         <v>157.3944034653206</v>
@@ -36363,19 +36363,19 @@
         <v>244.2217026407812</v>
       </c>
       <c r="L23" t="n">
-        <v>309.035725061747</v>
+        <v>309.0357250617469</v>
       </c>
       <c r="M23" t="n">
         <v>349.0600551877679</v>
       </c>
       <c r="N23" t="n">
-        <v>355.4655288436375</v>
+        <v>355.4655288436374</v>
       </c>
       <c r="O23" t="n">
         <v>333.467150432275</v>
       </c>
       <c r="P23" t="n">
-        <v>278.9434547884713</v>
+        <v>278.9434547884712</v>
       </c>
       <c r="Q23" t="n">
         <v>201.5677749114746</v>
@@ -36433,25 +36433,25 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>24.37508249104526</v>
+        <v>48.06933081873399</v>
       </c>
       <c r="J24" t="n">
-        <v>164.1416866887933</v>
+        <v>90.65424043371837</v>
       </c>
       <c r="K24" t="n">
-        <v>167.7709795485219</v>
+        <v>167.7709795485218</v>
       </c>
       <c r="L24" t="n">
-        <v>233.1922336396489</v>
+        <v>233.1922336396488</v>
       </c>
       <c r="M24" t="n">
-        <v>275.3016014055299</v>
+        <v>275.3016014055298</v>
       </c>
       <c r="N24" t="n">
-        <v>284.9530709615848</v>
+        <v>284.9530709615847</v>
       </c>
       <c r="O24" t="n">
-        <v>257.0292012228711</v>
+        <v>257.029201222871</v>
       </c>
       <c r="P24" t="n">
         <v>203.1152372431495</v>
@@ -36460,7 +36460,7 @@
         <v>127.583349582535</v>
       </c>
       <c r="R24" t="n">
-        <v>49.44682259008985</v>
+        <v>99.24002051747624</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -36518,22 +36518,22 @@
         <v>127.8763566124643</v>
       </c>
       <c r="K25" t="n">
-        <v>93.7452664650267</v>
+        <v>343.5256797115136</v>
       </c>
       <c r="L25" t="n">
-        <v>124.8704456354959</v>
+        <v>505.0612472427332</v>
       </c>
       <c r="M25" t="n">
-        <v>549.9058025039542</v>
+        <v>132.1931959758513</v>
       </c>
       <c r="N25" t="n">
-        <v>532.3931400717623</v>
+        <v>151.5607155281824</v>
       </c>
       <c r="O25" t="n">
         <v>498.5730731771616</v>
       </c>
       <c r="P25" t="n">
-        <v>244.3739484690204</v>
+        <v>412.9477646869789</v>
       </c>
       <c r="Q25" t="n">
         <v>210.9584748292389</v>
@@ -36591,7 +36591,7 @@
         <v>0</v>
       </c>
       <c r="I26" t="n">
-        <v>50.30943824355737</v>
+        <v>50.30943824355735</v>
       </c>
       <c r="J26" t="n">
         <v>157.3944034653206</v>
@@ -36600,19 +36600,19 @@
         <v>244.2217026407812</v>
       </c>
       <c r="L26" t="n">
-        <v>309.035725061747</v>
+        <v>309.0357250617469</v>
       </c>
       <c r="M26" t="n">
         <v>349.0600551877679</v>
       </c>
       <c r="N26" t="n">
-        <v>355.4655288436375</v>
+        <v>355.4655288436374</v>
       </c>
       <c r="O26" t="n">
         <v>333.467150432275</v>
       </c>
       <c r="P26" t="n">
-        <v>278.9434547884713</v>
+        <v>278.9434547884712</v>
       </c>
       <c r="Q26" t="n">
         <v>201.5677749114746</v>
@@ -36673,22 +36673,22 @@
         <v>24.37508249104526</v>
       </c>
       <c r="J27" t="n">
-        <v>90.6542404337184</v>
+        <v>164.1416866887935</v>
       </c>
       <c r="K27" t="n">
-        <v>167.7709795485219</v>
+        <v>167.7709795485218</v>
       </c>
       <c r="L27" t="n">
-        <v>233.1922336396489</v>
+        <v>233.1922336396488</v>
       </c>
       <c r="M27" t="n">
-        <v>275.3016014055299</v>
+        <v>275.3016014055298</v>
       </c>
       <c r="N27" t="n">
-        <v>284.9530709615848</v>
+        <v>284.9530709615847</v>
       </c>
       <c r="O27" t="n">
-        <v>257.0292012228711</v>
+        <v>257.029201222871</v>
       </c>
       <c r="P27" t="n">
         <v>203.1152372431495</v>
@@ -36697,7 +36697,7 @@
         <v>127.583349582535</v>
       </c>
       <c r="R27" t="n">
-        <v>122.9342688451648</v>
+        <v>49.44682259008984</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -36752,16 +36752,16 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>127.8763566124643</v>
+        <v>49.1675519172917</v>
       </c>
       <c r="K28" t="n">
-        <v>343.5256797115136</v>
+        <v>93.74526646502667</v>
       </c>
       <c r="L28" t="n">
-        <v>505.0612472427333</v>
+        <v>503.8233148715056</v>
       </c>
       <c r="M28" t="n">
-        <v>220.178652191066</v>
+        <v>549.9058025039541</v>
       </c>
       <c r="N28" t="n">
         <v>532.3931400717623</v>
@@ -36770,10 +36770,10 @@
         <v>498.5730731771616</v>
       </c>
       <c r="P28" t="n">
-        <v>97.03240653212269</v>
+        <v>97.03240653212266</v>
       </c>
       <c r="Q28" t="n">
-        <v>58.05595222530046</v>
+        <v>58.05595222530044</v>
       </c>
       <c r="R28" t="n">
         <v>0</v>
@@ -36910,7 +36910,7 @@
         <v>24.37508249104526</v>
       </c>
       <c r="J30" t="n">
-        <v>164.1416866887935</v>
+        <v>90.65424043371837</v>
       </c>
       <c r="K30" t="n">
         <v>167.7709795485218</v>
@@ -36934,7 +36934,7 @@
         <v>127.583349582535</v>
       </c>
       <c r="R30" t="n">
-        <v>49.44682259008984</v>
+        <v>122.9342688451652</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -36992,16 +36992,16 @@
         <v>127.8763566124643</v>
       </c>
       <c r="K31" t="n">
-        <v>241.0868084019247</v>
+        <v>343.5256797115136</v>
       </c>
       <c r="L31" t="n">
-        <v>124.8704456354959</v>
+        <v>505.0612472427332</v>
       </c>
       <c r="M31" t="n">
         <v>549.9058025039541</v>
       </c>
       <c r="N31" t="n">
-        <v>532.3931400717623</v>
+        <v>202.6659897588746</v>
       </c>
       <c r="O31" t="n">
         <v>498.5730731771616</v>
@@ -37010,7 +37010,7 @@
         <v>97.03240653212266</v>
       </c>
       <c r="Q31" t="n">
-        <v>210.9584748292389</v>
+        <v>58.05595222530044</v>
       </c>
       <c r="R31" t="n">
         <v>0</v>
@@ -37226,28 +37226,28 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>49.1675519172917</v>
+        <v>127.8763566124643</v>
       </c>
       <c r="K34" t="n">
-        <v>93.74526646502667</v>
+        <v>343.5256797115136</v>
       </c>
       <c r="L34" t="n">
-        <v>503.8233148715056</v>
+        <v>505.0612472427332</v>
       </c>
       <c r="M34" t="n">
-        <v>549.9058025039541</v>
+        <v>132.1931959758513</v>
       </c>
       <c r="N34" t="n">
         <v>532.3931400717623</v>
       </c>
       <c r="O34" t="n">
-        <v>498.5730731771616</v>
+        <v>117.7406486335821</v>
       </c>
       <c r="P34" t="n">
-        <v>97.03240653212266</v>
+        <v>412.9477646869789</v>
       </c>
       <c r="Q34" t="n">
-        <v>58.05595222530044</v>
+        <v>210.9584748292389</v>
       </c>
       <c r="R34" t="n">
         <v>0</v>
@@ -37384,7 +37384,7 @@
         <v>24.37508249104526</v>
       </c>
       <c r="J36" t="n">
-        <v>164.1416866887935</v>
+        <v>90.65424043371837</v>
       </c>
       <c r="K36" t="n">
         <v>167.7709795485218</v>
@@ -37408,7 +37408,7 @@
         <v>127.583349582535</v>
       </c>
       <c r="R36" t="n">
-        <v>49.44682259008984</v>
+        <v>122.9342688451652</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -37463,28 +37463,28 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>127.8763566124643</v>
+        <v>49.1675519172917</v>
       </c>
       <c r="K37" t="n">
-        <v>343.5256797115136</v>
+        <v>93.74526646502667</v>
       </c>
       <c r="L37" t="n">
-        <v>490.0871728832565</v>
+        <v>503.8233148715056</v>
       </c>
       <c r="M37" t="n">
         <v>549.9058025039541</v>
       </c>
       <c r="N37" t="n">
-        <v>130.3396826557217</v>
+        <v>532.3931400717623</v>
       </c>
       <c r="O37" t="n">
-        <v>117.0555738809967</v>
+        <v>498.5730731771616</v>
       </c>
       <c r="P37" t="n">
-        <v>412.9477646869789</v>
+        <v>97.03240653212266</v>
       </c>
       <c r="Q37" t="n">
-        <v>210.9584748292389</v>
+        <v>58.05595222530044</v>
       </c>
       <c r="R37" t="n">
         <v>0</v>
@@ -37621,7 +37621,7 @@
         <v>24.37508249104526</v>
       </c>
       <c r="J39" t="n">
-        <v>164.1416866887935</v>
+        <v>90.65424043371837</v>
       </c>
       <c r="K39" t="n">
         <v>167.7709795485218</v>
@@ -37645,7 +37645,7 @@
         <v>127.583349582535</v>
       </c>
       <c r="R39" t="n">
-        <v>49.44682259008984</v>
+        <v>122.9342688451652</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -37703,25 +37703,25 @@
         <v>127.8763566124643</v>
       </c>
       <c r="K40" t="n">
-        <v>93.74526646502667</v>
+        <v>343.5256797115136</v>
       </c>
       <c r="L40" t="n">
         <v>505.0612472427332</v>
       </c>
       <c r="M40" t="n">
-        <v>469.9590654375534</v>
+        <v>153.4142288483122</v>
       </c>
       <c r="N40" t="n">
-        <v>532.3931400717623</v>
+        <v>130.3396826557217</v>
       </c>
       <c r="O40" t="n">
         <v>498.5730731771616</v>
       </c>
       <c r="P40" t="n">
-        <v>97.03240653212266</v>
+        <v>412.9477646869789</v>
       </c>
       <c r="Q40" t="n">
-        <v>58.05595222530044</v>
+        <v>210.9584748292389</v>
       </c>
       <c r="R40" t="n">
         <v>0</v>
@@ -37858,7 +37858,7 @@
         <v>24.37508249104526</v>
       </c>
       <c r="J42" t="n">
-        <v>90.65424043371837</v>
+        <v>164.1416866887935</v>
       </c>
       <c r="K42" t="n">
         <v>167.7709795485218</v>
@@ -37879,7 +37879,7 @@
         <v>203.1152372431495</v>
       </c>
       <c r="Q42" t="n">
-        <v>201.0707958376104</v>
+        <v>127.583349582535</v>
       </c>
       <c r="R42" t="n">
         <v>49.44682259008984</v>
@@ -37943,7 +37943,7 @@
         <v>93.74526646502667</v>
       </c>
       <c r="L43" t="n">
-        <v>124.8704456354959</v>
+        <v>425.1145101763325</v>
       </c>
       <c r="M43" t="n">
         <v>549.9058025039541</v>
@@ -37952,13 +37952,13 @@
         <v>532.3931400717623</v>
       </c>
       <c r="O43" t="n">
-        <v>329.9992569592035</v>
+        <v>498.5730731771616</v>
       </c>
       <c r="P43" t="n">
-        <v>412.9477646869789</v>
+        <v>97.03240653212266</v>
       </c>
       <c r="Q43" t="n">
-        <v>210.9584748292389</v>
+        <v>58.05595222530044</v>
       </c>
       <c r="R43" t="n">
         <v>0</v>
@@ -38174,25 +38174,25 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>49.1675519172917</v>
+        <v>127.8763566124643</v>
       </c>
       <c r="K46" t="n">
-        <v>93.74526646502667</v>
+        <v>343.5256797115136</v>
       </c>
       <c r="L46" t="n">
-        <v>503.8233148715047</v>
+        <v>505.0612472427332</v>
       </c>
       <c r="M46" t="n">
-        <v>549.9058025039541</v>
+        <v>132.1931959758513</v>
       </c>
       <c r="N46" t="n">
-        <v>532.3931400717623</v>
+        <v>304.4632381321214</v>
       </c>
       <c r="O46" t="n">
         <v>498.5730731771616</v>
       </c>
       <c r="P46" t="n">
-        <v>97.03240653212266</v>
+        <v>412.9477646869789</v>
       </c>
       <c r="Q46" t="n">
         <v>58.05595222530044</v>
